--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/Standard_Formats/data/SAF-T/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A869F-46DF-AA4D-810E-7C1A04C07061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC1656-B740-9941-8504-9764D5825E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="740" windowWidth="26900" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13224" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13224" uniqueCount="1420">
   <si>
     <t>kind</t>
   </si>
@@ -4356,6 +4356,9 @@
   </si>
   <si>
     <t>AssociatedObjectClass</t>
+  </si>
+  <si>
+    <t>Referenced</t>
   </si>
 </sst>
 </file>
@@ -5962,10 +5965,10 @@
   <dimension ref="A1:R635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="M159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O177" sqref="O177"/>
+      <selection pane="bottomRight" activeCell="I638" sqref="I638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5982,7 +5985,8 @@
     <col min="10" max="10" width="4.83203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="9" customWidth="1"/>
     <col min="12" max="12" width="9.83203125" style="9" customWidth="1"/>
-    <col min="13" max="14" width="26.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="33" style="9" customWidth="1"/>
     <col min="16" max="16" width="26.6640625" style="9" customWidth="1"/>
     <col min="17" max="17" width="74" style="9" customWidth="1"/>
@@ -6799,7 +6803,7 @@
         <v>1093</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>1173</v>
@@ -7083,7 +7087,7 @@
         <v>1093</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>1174</v>
+        <v>1419</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>1173</v>
@@ -7118,7 +7122,7 @@
         <v>1093</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>1174</v>
+        <v>1419</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>1173</v>
@@ -10858,7 +10862,7 @@
         <v>1094</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="K172" s="9" t="s">
         <v>1173</v>
@@ -15739,7 +15743,7 @@
         <v>1094</v>
       </c>
       <c r="I337" s="9" t="s">
-        <v>446</v>
+        <v>1419</v>
       </c>
       <c r="K337" s="9" t="s">
         <v>1173</v>
@@ -16131,7 +16135,7 @@
         <v>1094</v>
       </c>
       <c r="I350" s="9" t="s">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="K350" s="9" t="s">
         <v>1173</v>
@@ -16198,7 +16202,7 @@
         <v>1094</v>
       </c>
       <c r="I352" s="9" t="s">
-        <v>114</v>
+        <v>1419</v>
       </c>
       <c r="K352" s="9" t="s">
         <v>1173</v>
@@ -16236,7 +16240,7 @@
         <v>1094</v>
       </c>
       <c r="I353" s="9" t="s">
-        <v>136</v>
+        <v>1419</v>
       </c>
       <c r="K353" s="9" t="s">
         <v>1173</v>
@@ -17755,7 +17759,7 @@
         <v>1093</v>
       </c>
       <c r="I403" s="9" t="s">
-        <v>225</v>
+        <v>1419</v>
       </c>
       <c r="K403" s="9" t="s">
         <v>1173</v>
@@ -17918,7 +17922,7 @@
         <v>1094</v>
       </c>
       <c r="I408" s="9" t="s">
-        <v>285</v>
+        <v>1419</v>
       </c>
       <c r="K408" s="9" t="s">
         <v>1173</v>
@@ -18438,7 +18442,7 @@
         <v>1093</v>
       </c>
       <c r="I425" s="9" t="s">
-        <v>245</v>
+        <v>1419</v>
       </c>
       <c r="K425" s="9" t="s">
         <v>1172</v>
@@ -20855,7 +20859,7 @@
       </c>
       <c r="H496" s="9"/>
       <c r="I496" s="9" t="s">
-        <v>216</v>
+        <v>1419</v>
       </c>
       <c r="J496" s="9"/>
       <c r="K496" s="9" t="s">
@@ -21121,7 +21125,7 @@
       </c>
       <c r="H503" s="9"/>
       <c r="I503" s="9" t="s">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="J503" s="9"/>
       <c r="K503" s="9" t="s">
@@ -21163,7 +21167,7 @@
       </c>
       <c r="H504" s="9"/>
       <c r="I504" s="9" t="s">
-        <v>446</v>
+        <v>1419</v>
       </c>
       <c r="J504" s="9"/>
       <c r="K504" s="9" t="s">
@@ -21205,7 +21209,7 @@
       </c>
       <c r="H505" s="9"/>
       <c r="I505" s="9" t="s">
-        <v>114</v>
+        <v>1419</v>
       </c>
       <c r="J505" s="9"/>
       <c r="K505" s="9" t="s">
@@ -21249,7 +21253,7 @@
       </c>
       <c r="H506" s="9"/>
       <c r="I506" s="9" t="s">
-        <v>136</v>
+        <v>1419</v>
       </c>
       <c r="J506" s="9"/>
       <c r="K506" s="9" t="s">
@@ -21373,7 +21377,7 @@
       </c>
       <c r="H509" s="9"/>
       <c r="I509" s="9" t="s">
-        <v>225</v>
+        <v>1419</v>
       </c>
       <c r="J509" s="9"/>
       <c r="K509" s="9" t="s">
@@ -21415,7 +21419,7 @@
       </c>
       <c r="H510" s="9"/>
       <c r="I510" s="9" t="s">
-        <v>274</v>
+        <v>1419</v>
       </c>
       <c r="J510" s="9"/>
       <c r="K510" s="9" t="s">
@@ -21495,7 +21499,7 @@
         <v>1093</v>
       </c>
       <c r="I512" s="9" t="s">
-        <v>189</v>
+        <v>1419</v>
       </c>
       <c r="K512" s="9" t="s">
         <v>1172</v>
@@ -21594,7 +21598,7 @@
         <v>1093</v>
       </c>
       <c r="I515" s="9" t="s">
-        <v>670</v>
+        <v>1419</v>
       </c>
       <c r="K515" s="9" t="s">
         <v>1172</v>
@@ -21800,7 +21804,7 @@
         <v>1094</v>
       </c>
       <c r="I522" s="9" t="s">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="K522" s="9" t="s">
         <v>1173</v>
@@ -24141,7 +24145,7 @@
       </c>
       <c r="H596" s="9"/>
       <c r="I596" s="9" t="s">
-        <v>114</v>
+        <v>1419</v>
       </c>
       <c r="J596" s="9"/>
       <c r="K596" s="9" t="s">
@@ -24185,7 +24189,7 @@
       </c>
       <c r="H597" s="9"/>
       <c r="I597" s="9" t="s">
-        <v>136</v>
+        <v>1419</v>
       </c>
       <c r="J597" s="9"/>
       <c r="K597" s="9" t="s">
@@ -24377,7 +24381,7 @@
       </c>
       <c r="H602" s="9"/>
       <c r="I602" s="9" t="s">
-        <v>46</v>
+        <v>1419</v>
       </c>
       <c r="J602" s="9"/>
       <c r="K602" s="9" t="s">
@@ -24529,7 +24533,7 @@
         <v>1094</v>
       </c>
       <c r="I606" s="9" t="s">
-        <v>114</v>
+        <v>1419</v>
       </c>
       <c r="K606" s="9" t="s">
         <v>1173</v>
@@ -24567,7 +24571,7 @@
         <v>1094</v>
       </c>
       <c r="I607" s="9" t="s">
-        <v>136</v>
+        <v>1419</v>
       </c>
       <c r="K607" s="9" t="s">
         <v>1173</v>
@@ -25408,7 +25412,7 @@
     <sortCondition ref="A2:A680"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="R464:R511 R522:R524 B464:G586 H464:Q471 N512:R521 N522:P524 N525:R1048576 B587:M1048576 H480:M586 N480:Q511 B1:R463">
+  <conditionalFormatting sqref="R464:R511 R522:R524 B464:G586 H464:Q471 N512:R521 N522:P524 N525:R1048576 N480:Q511 B1:R463 H480:M586 B587:M1048576">
     <cfRule type="expression" dxfId="103" priority="49">
       <formula>"ACC"=$D1</formula>
     </cfRule>
@@ -45852,10 +45856,10 @@
   <dimension ref="A1:T475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D363" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D411" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G405" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D5CFD0-4EC3-4773-839D-F873595EFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFDDD90-2A66-4EDB-81B0-891C9DD36AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="705" windowWidth="28515" windowHeight="14775"/>
+    <workbookView xWindow="45" yWindow="705" windowWidth="28515" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAF-T_Schema_v_2.00'!$A$1:$R$571</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAF-T_Schema_v_2.00'!$A$1:$R$575</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="673">
   <si>
     <t>seq</t>
   </si>
@@ -2014,13 +2014,51 @@
   </si>
   <si>
     <t>PeriodStart-PeriodStartYear-PeriodEnd-PeriodEndYear</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Details</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sequence: BankAccountNumber</t>
+  </si>
+  <si>
+    <t>sequence: BankAccountNumber</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BankAccountNumber</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>The number allocated to the account by the individual’s or company’s own bank.</t>
+  </si>
+  <si>
+    <t>BBIE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1..1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0..1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2994,14 +3032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R571"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D592" sqref="D592"/>
+      <selection pane="bottomRight" activeCell="A577" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3011,6 +3049,7 @@
     <col min="4" max="4" width="35.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
     <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="24.625" customWidth="1"/>
     <col min="16" max="16" width="22.5" customWidth="1"/>
@@ -16284,19 +16323,28 @@
         <v>333</v>
       </c>
       <c r="D410" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="E410" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F410">
+        <v>2</v>
       </c>
       <c r="G410" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="H410" t="s">
         <v>25</v>
       </c>
       <c r="J410" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="N410" t="s">
+        <v>437</v>
+      </c>
+      <c r="R410" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.4">
@@ -16310,28 +16358,16 @@
         <v>393</v>
       </c>
       <c r="E411" t="s">
-        <v>23</v>
-      </c>
-      <c r="F411">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G411" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H411" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J411" t="s">
-        <v>395</v>
-      </c>
-      <c r="L411" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q411" t="s">
-        <v>63</v>
-      </c>
-      <c r="R411" t="s">
-        <v>396</v>
+        <v>21</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.4">
@@ -16351,22 +16387,22 @@
         <v>1</v>
       </c>
       <c r="G412" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H412" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J412" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L412" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q412" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R412" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.4">
@@ -16377,28 +16413,31 @@
         <v>333</v>
       </c>
       <c r="D413" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="E413" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F413">
         <v>1</v>
       </c>
       <c r="G413" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="H413" t="s">
         <v>25</v>
       </c>
       <c r="J413" t="s">
-        <v>38</v>
-      </c>
-      <c r="N413" t="s">
-        <v>437</v>
+        <v>397</v>
+      </c>
+      <c r="L413" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>60</v>
       </c>
       <c r="R413" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.4">
@@ -18387,6 +18426,9 @@
       <c r="E475" t="s">
         <v>19</v>
       </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
       <c r="G475" t="s">
         <v>378</v>
       </c>
@@ -18443,7 +18485,7 @@
         <v>23</v>
       </c>
       <c r="F477">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G477" t="s">
         <v>381</v>
@@ -18513,7 +18555,7 @@
         <v>23</v>
       </c>
       <c r="F479">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G479" t="s">
         <v>385</v>
@@ -18547,6 +18589,9 @@
       <c r="E480" t="s">
         <v>19</v>
       </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
       <c r="G480" t="s">
         <v>380</v>
       </c>
@@ -18571,7 +18616,7 @@
         <v>23</v>
       </c>
       <c r="F481">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G481" t="s">
         <v>390</v>
@@ -18615,7 +18660,7 @@
         <v>38</v>
       </c>
       <c r="N482" t="s">
-        <v>392</v>
+        <v>665</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.4">
@@ -18626,25 +18671,13 @@
         <v>333</v>
       </c>
       <c r="D483" t="s">
-        <v>78</v>
+        <v>664</v>
       </c>
       <c r="E483" t="s">
-        <v>19</v>
-      </c>
-      <c r="F483">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="G483" t="s">
-        <v>78</v>
-      </c>
-      <c r="H483" t="s">
-        <v>25</v>
-      </c>
-      <c r="J483" t="s">
-        <v>21</v>
-      </c>
-      <c r="R483" t="s">
-        <v>409</v>
+        <v>663</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.4">
@@ -18655,31 +18688,28 @@
         <v>333</v>
       </c>
       <c r="D484" t="s">
-        <v>78</v>
+        <v>664</v>
       </c>
       <c r="E484" t="s">
-        <v>23</v>
-      </c>
-      <c r="F484">
-        <v>1</v>
+        <v>668</v>
       </c>
       <c r="G484" t="s">
-        <v>410</v>
+        <v>666</v>
       </c>
       <c r="H484" t="s">
-        <v>20</v>
+        <v>669</v>
       </c>
       <c r="J484" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="L484" t="s">
-        <v>43</v>
+        <v>671</v>
       </c>
       <c r="Q484" t="s">
         <v>63</v>
       </c>
       <c r="R484" t="s">
-        <v>418</v>
+        <v>667</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.4">
@@ -18690,28 +18720,28 @@
         <v>333</v>
       </c>
       <c r="D485" t="s">
-        <v>78</v>
+        <v>664</v>
       </c>
       <c r="E485" t="s">
-        <v>23</v>
-      </c>
-      <c r="F485">
-        <v>2</v>
+        <v>668</v>
       </c>
       <c r="G485" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="H485" t="s">
-        <v>25</v>
+        <v>670</v>
       </c>
       <c r="J485" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="L485" t="s">
-        <v>43</v>
+        <v>671</v>
       </c>
       <c r="Q485" t="s">
         <v>52</v>
+      </c>
+      <c r="R485" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.4">
@@ -18722,28 +18752,28 @@
         <v>333</v>
       </c>
       <c r="D486" t="s">
-        <v>78</v>
+        <v>664</v>
       </c>
       <c r="E486" t="s">
-        <v>35</v>
-      </c>
-      <c r="F486">
-        <v>3</v>
+        <v>668</v>
       </c>
       <c r="G486" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="H486" t="s">
-        <v>86</v>
+        <v>670</v>
       </c>
       <c r="J486" t="s">
-        <v>38</v>
-      </c>
-      <c r="N486" t="s">
-        <v>334</v>
+        <v>383</v>
+      </c>
+      <c r="L486" t="s">
+        <v>672</v>
       </c>
       <c r="Q486" t="s">
-        <v>334</v>
+        <v>41</v>
+      </c>
+      <c r="R486" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.4">
@@ -18757,25 +18787,22 @@
         <v>78</v>
       </c>
       <c r="E487" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F487">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G487" t="s">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="H487" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J487" t="s">
-        <v>38</v>
-      </c>
-      <c r="N487" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q487" t="s">
-        <v>414</v>
+        <v>21</v>
+      </c>
+      <c r="R487" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.4">
@@ -18789,25 +18816,28 @@
         <v>78</v>
       </c>
       <c r="E488" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F488">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G488" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H488" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J488" t="s">
-        <v>38</v>
-      </c>
-      <c r="N488" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="L488" t="s">
+        <v>43</v>
       </c>
       <c r="Q488" t="s">
-        <v>416</v>
+        <v>63</v>
+      </c>
+      <c r="R488" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.4">
@@ -18821,25 +18851,25 @@
         <v>78</v>
       </c>
       <c r="E489" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F489">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G489" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H489" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J489" t="s">
-        <v>38</v>
-      </c>
-      <c r="N489" t="s">
-        <v>378</v>
+        <v>405</v>
+      </c>
+      <c r="L489" t="s">
+        <v>43</v>
       </c>
       <c r="Q489" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.4">
@@ -18853,22 +18883,25 @@
         <v>78</v>
       </c>
       <c r="E490" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F490">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G490" t="s">
-        <v>104</v>
+        <v>412</v>
       </c>
       <c r="H490" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="J490" t="s">
+        <v>38</v>
+      </c>
+      <c r="N490" t="s">
+        <v>334</v>
       </c>
       <c r="Q490" t="s">
-        <v>105</v>
-      </c>
-      <c r="R490" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.4">
@@ -18879,22 +18912,28 @@
         <v>333</v>
       </c>
       <c r="D491" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="E491" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F491">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G491" t="s">
-        <v>385</v>
+        <v>413</v>
+      </c>
+      <c r="H491" t="s">
+        <v>37</v>
       </c>
       <c r="J491" t="s">
-        <v>21</v>
-      </c>
-      <c r="R491" t="s">
-        <v>409</v>
+        <v>38</v>
+      </c>
+      <c r="N491" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q491" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.4">
@@ -18905,31 +18944,28 @@
         <v>333</v>
       </c>
       <c r="D492" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="E492" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F492">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G492" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H492" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J492" t="s">
-        <v>410</v>
-      </c>
-      <c r="L492" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N492" t="s">
+        <v>416</v>
       </c>
       <c r="Q492" t="s">
-        <v>63</v>
-      </c>
-      <c r="R492" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.4">
@@ -18940,28 +18976,28 @@
         <v>333</v>
       </c>
       <c r="D493" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="E493" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F493">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G493" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="H493" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J493" t="s">
-        <v>405</v>
-      </c>
-      <c r="L493" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N493" t="s">
+        <v>378</v>
       </c>
       <c r="Q493" t="s">
-        <v>52</v>
+        <v>378</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.4">
@@ -18972,28 +19008,25 @@
         <v>333</v>
       </c>
       <c r="D494" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="E494" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F494">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G494" t="s">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="H494" t="s">
-        <v>86</v>
-      </c>
-      <c r="J494" t="s">
-        <v>38</v>
-      </c>
-      <c r="N494" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="Q494" t="s">
-        <v>334</v>
+        <v>105</v>
+      </c>
+      <c r="R494" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.4">
@@ -19007,25 +19040,19 @@
         <v>385</v>
       </c>
       <c r="E495" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F495">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G495" t="s">
-        <v>413</v>
-      </c>
-      <c r="H495" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="J495" t="s">
-        <v>38</v>
-      </c>
-      <c r="N495" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q495" t="s">
-        <v>414</v>
+        <v>21</v>
+      </c>
+      <c r="R495" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.4">
@@ -19039,25 +19066,28 @@
         <v>385</v>
       </c>
       <c r="E496" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F496">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G496" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H496" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J496" t="s">
-        <v>38</v>
-      </c>
-      <c r="N496" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="L496" t="s">
+        <v>43</v>
       </c>
       <c r="Q496" t="s">
-        <v>416</v>
+        <v>63</v>
+      </c>
+      <c r="R496" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.4">
@@ -19071,25 +19101,25 @@
         <v>385</v>
       </c>
       <c r="E497" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F497">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G497" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H497" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J497" t="s">
-        <v>38</v>
-      </c>
-      <c r="N497" t="s">
-        <v>378</v>
+        <v>405</v>
+      </c>
+      <c r="L497" t="s">
+        <v>43</v>
       </c>
       <c r="Q497" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.4">
@@ -19100,22 +19130,28 @@
         <v>333</v>
       </c>
       <c r="D498" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E498" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F498">
+        <v>3</v>
       </c>
       <c r="G498" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H498" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="J498" t="s">
-        <v>21</v>
-      </c>
-      <c r="R498" t="s">
-        <v>420</v>
+        <v>38</v>
+      </c>
+      <c r="N498" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q498" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.4">
@@ -19126,28 +19162,28 @@
         <v>333</v>
       </c>
       <c r="D499" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E499" t="s">
         <v>35</v>
       </c>
       <c r="F499">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G499" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H499" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J499" t="s">
         <v>38</v>
       </c>
       <c r="N499" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q499" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.4">
@@ -19158,25 +19194,28 @@
         <v>333</v>
       </c>
       <c r="D500" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E500" t="s">
         <v>35</v>
       </c>
+      <c r="F500">
+        <v>5</v>
+      </c>
       <c r="G500" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H500" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J500" t="s">
         <v>38</v>
       </c>
       <c r="N500" t="s">
-        <v>414</v>
-      </c>
-      <c r="R500" t="s">
-        <v>423</v>
+        <v>416</v>
+      </c>
+      <c r="Q500" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.4">
@@ -19187,22 +19226,28 @@
         <v>333</v>
       </c>
       <c r="D501" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="E501" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F501">
+        <v>6</v>
       </c>
       <c r="G501" t="s">
-        <v>113</v>
+        <v>417</v>
       </c>
       <c r="H501" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J501" t="s">
-        <v>21</v>
-      </c>
-      <c r="R501" t="s">
-        <v>462</v>
+        <v>38</v>
+      </c>
+      <c r="N501" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q501" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.4">
@@ -19213,31 +19258,22 @@
         <v>333</v>
       </c>
       <c r="D502" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="E502" t="s">
-        <v>23</v>
-      </c>
-      <c r="F502">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G502" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="H502" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J502" t="s">
-        <v>463</v>
-      </c>
-      <c r="L502" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q502" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="R502" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.4">
@@ -19248,31 +19284,28 @@
         <v>333</v>
       </c>
       <c r="D503" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="E503" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F503">
         <v>1</v>
       </c>
       <c r="G503" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="H503" t="s">
         <v>25</v>
       </c>
       <c r="J503" t="s">
-        <v>465</v>
-      </c>
-      <c r="L503" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N503" t="s">
+        <v>422</v>
       </c>
       <c r="Q503" t="s">
-        <v>343</v>
-      </c>
-      <c r="R503" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.4">
@@ -19283,31 +19316,25 @@
         <v>333</v>
       </c>
       <c r="D504" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="E504" t="s">
-        <v>23</v>
-      </c>
-      <c r="F504">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G504" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="H504" t="s">
         <v>25</v>
       </c>
       <c r="J504" t="s">
-        <v>466</v>
-      </c>
-      <c r="L504" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q504" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="N504" t="s">
+        <v>414</v>
       </c>
       <c r="R504" t="s">
-        <v>283</v>
+        <v>423</v>
       </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.4">
@@ -19321,28 +19348,19 @@
         <v>113</v>
       </c>
       <c r="E505" t="s">
-        <v>23</v>
-      </c>
-      <c r="F505">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G505" t="s">
-        <v>467</v>
+        <v>113</v>
       </c>
       <c r="H505" t="s">
         <v>20</v>
       </c>
       <c r="J505" t="s">
-        <v>467</v>
-      </c>
-      <c r="L505" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q505" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="R505" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.4">
@@ -19362,22 +19380,22 @@
         <v>1</v>
       </c>
       <c r="G506" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H506" t="s">
         <v>25</v>
       </c>
       <c r="J506" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L506" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q506" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R506" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.4">
@@ -19397,22 +19415,22 @@
         <v>1</v>
       </c>
       <c r="G507" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H507" t="s">
         <v>25</v>
       </c>
       <c r="J507" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L507" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q507" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="R507" t="s">
-        <v>472</v>
+        <v>344</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.4">
@@ -19432,22 +19450,22 @@
         <v>1</v>
       </c>
       <c r="G508" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H508" t="s">
         <v>25</v>
       </c>
       <c r="J508" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="L508" t="s">
         <v>40</v>
       </c>
       <c r="Q508" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R508" t="s">
-        <v>474</v>
+        <v>283</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.4">
@@ -19461,28 +19479,28 @@
         <v>113</v>
       </c>
       <c r="E509" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F509">
         <v>1</v>
       </c>
       <c r="G509" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H509" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J509" t="s">
-        <v>38</v>
-      </c>
-      <c r="N509" t="s">
-        <v>385</v>
+        <v>467</v>
+      </c>
+      <c r="L509" t="s">
+        <v>59</v>
       </c>
       <c r="Q509" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="R509" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.4">
@@ -19496,19 +19514,28 @@
         <v>113</v>
       </c>
       <c r="E510" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
       </c>
       <c r="G510" t="s">
-        <v>113</v>
+        <v>469</v>
       </c>
       <c r="H510" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J510" t="s">
-        <v>21</v>
+        <v>469</v>
+      </c>
+      <c r="L510" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q510" t="s">
+        <v>52</v>
       </c>
       <c r="R510" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.4">
@@ -19528,22 +19555,22 @@
         <v>1</v>
       </c>
       <c r="G511" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H511" t="s">
         <v>25</v>
       </c>
       <c r="J511" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L511" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q511" t="s">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="R511" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.4">
@@ -19563,22 +19590,22 @@
         <v>1</v>
       </c>
       <c r="G512" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H512" t="s">
         <v>25</v>
       </c>
       <c r="J512" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="L512" t="s">
         <v>40</v>
       </c>
       <c r="Q512" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R512" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.4">
@@ -19598,7 +19625,7 @@
         <v>1</v>
       </c>
       <c r="G513" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H513" t="s">
         <v>25</v>
@@ -19607,13 +19634,13 @@
         <v>38</v>
       </c>
       <c r="N513" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="Q513" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="R513" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.4">
@@ -19627,28 +19654,19 @@
         <v>113</v>
       </c>
       <c r="E514" t="s">
-        <v>23</v>
-      </c>
-      <c r="F514">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G514" t="s">
-        <v>465</v>
+        <v>113</v>
       </c>
       <c r="H514" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J514" t="s">
-        <v>465</v>
-      </c>
-      <c r="L514" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q514" t="s">
-        <v>343</v>
+        <v>21</v>
       </c>
       <c r="R514" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.4">
@@ -19668,22 +19686,22 @@
         <v>1</v>
       </c>
       <c r="G515" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H515" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J515" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L515" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q515" t="s">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="R515" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.4">
@@ -19703,13 +19721,13 @@
         <v>1</v>
       </c>
       <c r="G516" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H516" t="s">
         <v>25</v>
       </c>
       <c r="J516" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L516" t="s">
         <v>40</v>
@@ -19718,7 +19736,7 @@
         <v>46</v>
       </c>
       <c r="R516" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.4">
@@ -19732,28 +19750,28 @@
         <v>113</v>
       </c>
       <c r="E517" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F517">
         <v>1</v>
       </c>
       <c r="G517" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="H517" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J517" t="s">
-        <v>467</v>
-      </c>
-      <c r="L517" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="N517" t="s">
+        <v>402</v>
       </c>
       <c r="Q517" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="R517" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.4">
@@ -19773,22 +19791,22 @@
         <v>1</v>
       </c>
       <c r="G518" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H518" t="s">
         <v>25</v>
       </c>
       <c r="J518" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L518" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q518" t="s">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="R518" t="s">
-        <v>470</v>
+        <v>344</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.4">
@@ -19808,13 +19826,13 @@
         <v>1</v>
       </c>
       <c r="G519" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H519" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J519" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="L519" t="s">
         <v>43</v>
@@ -19823,7 +19841,7 @@
         <v>44</v>
       </c>
       <c r="R519" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.4">
@@ -19843,22 +19861,22 @@
         <v>1</v>
       </c>
       <c r="G520" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H520" t="s">
         <v>25</v>
       </c>
       <c r="J520" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="L520" t="s">
         <v>40</v>
       </c>
       <c r="Q520" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R520" t="s">
-        <v>474</v>
+        <v>283</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.4">
@@ -19872,28 +19890,28 @@
         <v>113</v>
       </c>
       <c r="E521" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F521">
         <v>1</v>
       </c>
       <c r="G521" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H521" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J521" t="s">
-        <v>38</v>
-      </c>
-      <c r="N521" t="s">
-        <v>385</v>
+        <v>467</v>
+      </c>
+      <c r="L521" t="s">
+        <v>59</v>
       </c>
       <c r="Q521" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="R521" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.4">
@@ -19913,22 +19931,22 @@
         <v>1</v>
       </c>
       <c r="G522" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H522" t="s">
         <v>25</v>
       </c>
       <c r="J522" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L522" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q522" t="s">
-        <v>478</v>
+        <v>52</v>
       </c>
       <c r="R522" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.4">
@@ -19942,28 +19960,28 @@
         <v>113</v>
       </c>
       <c r="E523" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F523">
         <v>1</v>
       </c>
       <c r="G523" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H523" t="s">
         <v>25</v>
       </c>
       <c r="J523" t="s">
-        <v>38</v>
-      </c>
-      <c r="N523" t="s">
-        <v>402</v>
+        <v>471</v>
+      </c>
+      <c r="L523" t="s">
+        <v>43</v>
       </c>
       <c r="Q523" t="s">
-        <v>402</v>
+        <v>44</v>
       </c>
       <c r="R523" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.4">
@@ -19983,22 +20001,22 @@
         <v>1</v>
       </c>
       <c r="G524" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H524" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J524" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="L524" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q524" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R524" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.4">
@@ -20009,22 +20027,31 @@
         <v>333</v>
       </c>
       <c r="D525" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="E525" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
       </c>
       <c r="G525" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="H525" t="s">
         <v>25</v>
       </c>
       <c r="J525" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="N525" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q525" t="s">
+        <v>385</v>
       </c>
       <c r="R525" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.4">
@@ -20035,7 +20062,7 @@
         <v>333</v>
       </c>
       <c r="D526" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="E526" t="s">
         <v>23</v>
@@ -20044,19 +20071,22 @@
         <v>1</v>
       </c>
       <c r="G526" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="H526" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J526" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="L526" t="s">
         <v>40</v>
       </c>
       <c r="Q526" t="s">
-        <v>41</v>
+        <v>478</v>
+      </c>
+      <c r="R526" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.4">
@@ -20067,28 +20097,31 @@
         <v>333</v>
       </c>
       <c r="D527" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="E527" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F527">
         <v>1</v>
       </c>
       <c r="G527" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="H527" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J527" t="s">
-        <v>425</v>
-      </c>
-      <c r="L527" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N527" t="s">
+        <v>402</v>
       </c>
       <c r="Q527" t="s">
-        <v>41</v>
+        <v>402</v>
+      </c>
+      <c r="R527" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.4">
@@ -20099,7 +20132,7 @@
         <v>333</v>
       </c>
       <c r="D528" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="E528" t="s">
         <v>23</v>
@@ -20108,19 +20141,22 @@
         <v>1</v>
       </c>
       <c r="G528" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="H528" t="s">
         <v>20</v>
       </c>
       <c r="J528" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="L528" t="s">
         <v>43</v>
       </c>
       <c r="Q528" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="R528" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.4">
@@ -20134,25 +20170,19 @@
         <v>414</v>
       </c>
       <c r="E529" t="s">
-        <v>23</v>
-      </c>
-      <c r="F529">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G529" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H529" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J529" t="s">
-        <v>427</v>
-      </c>
-      <c r="L529" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q529" t="s">
-        <v>428</v>
+        <v>21</v>
+      </c>
+      <c r="R529" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.4">
@@ -20163,22 +20193,28 @@
         <v>333</v>
       </c>
       <c r="D530" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E530" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
       </c>
       <c r="G530" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H530" t="s">
         <v>20</v>
       </c>
       <c r="J530" t="s">
-        <v>21</v>
-      </c>
-      <c r="R530" t="s">
-        <v>567</v>
+        <v>424</v>
+      </c>
+      <c r="L530" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q530" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.4">
@@ -20189,7 +20225,7 @@
         <v>333</v>
       </c>
       <c r="D531" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E531" t="s">
         <v>23</v>
@@ -20198,19 +20234,19 @@
         <v>1</v>
       </c>
       <c r="G531" t="s">
-        <v>568</v>
+        <v>425</v>
       </c>
       <c r="H531" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J531" t="s">
-        <v>568</v>
+        <v>425</v>
       </c>
       <c r="L531" t="s">
         <v>40</v>
       </c>
       <c r="Q531" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.4">
@@ -20221,7 +20257,7 @@
         <v>333</v>
       </c>
       <c r="D532" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E532" t="s">
         <v>23</v>
@@ -20230,19 +20266,19 @@
         <v>1</v>
       </c>
       <c r="G532" t="s">
-        <v>569</v>
+        <v>426</v>
       </c>
       <c r="H532" t="s">
         <v>20</v>
       </c>
       <c r="J532" t="s">
-        <v>569</v>
+        <v>426</v>
       </c>
       <c r="L532" t="s">
         <v>43</v>
       </c>
       <c r="Q532" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.4">
@@ -20253,7 +20289,7 @@
         <v>333</v>
       </c>
       <c r="D533" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E533" t="s">
         <v>23</v>
@@ -20262,19 +20298,19 @@
         <v>1</v>
       </c>
       <c r="G533" t="s">
-        <v>570</v>
+        <v>427</v>
       </c>
       <c r="H533" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J533" t="s">
-        <v>570</v>
+        <v>427</v>
       </c>
       <c r="L533" t="s">
         <v>40</v>
       </c>
       <c r="Q533" t="s">
-        <v>41</v>
+        <v>428</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.4">
@@ -20288,28 +20324,19 @@
         <v>422</v>
       </c>
       <c r="E534" t="s">
-        <v>23</v>
-      </c>
-      <c r="F534">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G534" t="s">
-        <v>571</v>
+        <v>422</v>
       </c>
       <c r="H534" t="s">
         <v>20</v>
       </c>
       <c r="J534" t="s">
-        <v>571</v>
-      </c>
-      <c r="L534" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q534" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="R534" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.4">
@@ -20329,19 +20356,19 @@
         <v>1</v>
       </c>
       <c r="G535" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H535" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J535" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L535" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q535" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.4">
@@ -20361,19 +20388,19 @@
         <v>1</v>
       </c>
       <c r="G536" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H536" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J536" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L536" t="s">
         <v>43</v>
       </c>
       <c r="Q536" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.4">
@@ -20393,22 +20420,19 @@
         <v>1</v>
       </c>
       <c r="G537" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H537" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J537" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L537" t="s">
         <v>40</v>
       </c>
       <c r="Q537" t="s">
         <v>41</v>
-      </c>
-      <c r="R537" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.4">
@@ -20428,19 +20452,22 @@
         <v>1</v>
       </c>
       <c r="G538" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H538" t="s">
         <v>20</v>
       </c>
       <c r="J538" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="L538" t="s">
         <v>40</v>
       </c>
       <c r="Q538" t="s">
         <v>41</v>
+      </c>
+      <c r="R538" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.4">
@@ -20451,22 +20478,28 @@
         <v>333</v>
       </c>
       <c r="D539" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="E539" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F539">
+        <v>1</v>
       </c>
       <c r="G539" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="H539" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J539" t="s">
-        <v>21</v>
-      </c>
-      <c r="R539" t="s">
-        <v>400</v>
+        <v>573</v>
+      </c>
+      <c r="L539" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q539" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.4">
@@ -20477,28 +20510,28 @@
         <v>333</v>
       </c>
       <c r="D540" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="E540" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F540">
         <v>1</v>
       </c>
       <c r="G540" t="s">
-        <v>401</v>
+        <v>574</v>
       </c>
       <c r="H540" t="s">
         <v>25</v>
       </c>
       <c r="J540" t="s">
-        <v>38</v>
-      </c>
-      <c r="N540" t="s">
-        <v>402</v>
-      </c>
-      <c r="R540" t="s">
-        <v>400</v>
+        <v>574</v>
+      </c>
+      <c r="L540" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q540" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.4">
@@ -20509,22 +20542,31 @@
         <v>333</v>
       </c>
       <c r="D541" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="E541" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F541">
         <v>1</v>
       </c>
       <c r="G541" t="s">
-        <v>403</v>
+        <v>575</v>
+      </c>
+      <c r="H541" t="s">
+        <v>20</v>
       </c>
       <c r="J541" t="s">
-        <v>38</v>
-      </c>
-      <c r="N541" t="s">
-        <v>403</v>
+        <v>575</v>
+      </c>
+      <c r="L541" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q541" t="s">
+        <v>41</v>
+      </c>
+      <c r="R541" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.4">
@@ -20535,22 +20577,28 @@
         <v>333</v>
       </c>
       <c r="D542" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="E542" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
       </c>
       <c r="G542" t="s">
-        <v>402</v>
+        <v>577</v>
       </c>
       <c r="H542" t="s">
         <v>20</v>
       </c>
       <c r="J542" t="s">
-        <v>21</v>
-      </c>
-      <c r="R542" t="s">
-        <v>581</v>
+        <v>577</v>
+      </c>
+      <c r="L542" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q542" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.4">
@@ -20561,31 +20609,22 @@
         <v>333</v>
       </c>
       <c r="D543" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E543" t="s">
-        <v>23</v>
-      </c>
-      <c r="F543">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G543" t="s">
-        <v>582</v>
+        <v>399</v>
       </c>
       <c r="H543" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J543" t="s">
-        <v>582</v>
-      </c>
-      <c r="L543" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q543" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="R543" t="s">
-        <v>583</v>
+        <v>400</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.4">
@@ -20596,31 +20635,28 @@
         <v>333</v>
       </c>
       <c r="D544" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E544" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F544">
         <v>1</v>
       </c>
       <c r="G544" t="s">
-        <v>584</v>
+        <v>401</v>
       </c>
       <c r="H544" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J544" t="s">
-        <v>584</v>
-      </c>
-      <c r="L544" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q544" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="N544" t="s">
+        <v>402</v>
       </c>
       <c r="R544" t="s">
-        <v>585</v>
+        <v>400</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.4">
@@ -20631,7 +20667,7 @@
         <v>333</v>
       </c>
       <c r="D545" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E545" t="s">
         <v>35</v>
@@ -20640,19 +20676,13 @@
         <v>1</v>
       </c>
       <c r="G545" t="s">
-        <v>399</v>
-      </c>
-      <c r="H545" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="J545" t="s">
         <v>38</v>
       </c>
       <c r="N545" t="s">
-        <v>399</v>
-      </c>
-      <c r="R545" t="s">
-        <v>586</v>
+        <v>403</v>
       </c>
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.4">
@@ -20666,28 +20696,19 @@
         <v>402</v>
       </c>
       <c r="E546" t="s">
-        <v>23</v>
-      </c>
-      <c r="F546">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G546" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="H546" t="s">
         <v>20</v>
       </c>
       <c r="J546" t="s">
-        <v>444</v>
-      </c>
-      <c r="L546" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q546" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="R546" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.4">
@@ -20707,22 +20728,22 @@
         <v>1</v>
       </c>
       <c r="G547" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H547" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J547" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L547" t="s">
         <v>43</v>
       </c>
       <c r="Q547" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="R547" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.4">
@@ -20733,16 +20754,31 @@
         <v>333</v>
       </c>
       <c r="D548" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E548" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
       </c>
       <c r="G548" t="s">
-        <v>401</v>
+        <v>584</v>
+      </c>
+      <c r="H548" t="s">
+        <v>20</v>
       </c>
       <c r="J548" t="s">
-        <v>21</v>
+        <v>584</v>
+      </c>
+      <c r="L548" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q548" t="s">
+        <v>52</v>
+      </c>
+      <c r="R548" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.4">
@@ -20753,31 +20789,28 @@
         <v>333</v>
       </c>
       <c r="D549" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E549" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F549">
         <v>1</v>
       </c>
       <c r="G549" t="s">
-        <v>590</v>
+        <v>399</v>
       </c>
       <c r="H549" t="s">
         <v>25</v>
       </c>
       <c r="J549" t="s">
-        <v>590</v>
-      </c>
-      <c r="L549" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q549" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="N549" t="s">
+        <v>399</v>
       </c>
       <c r="R549" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.4">
@@ -20788,7 +20821,7 @@
         <v>333</v>
       </c>
       <c r="D550" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E550" t="s">
         <v>23</v>
@@ -20797,22 +20830,22 @@
         <v>1</v>
       </c>
       <c r="G550" t="s">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="H550" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J550" t="s">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="L550" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q550" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="R550" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.4">
@@ -20823,22 +20856,31 @@
         <v>333</v>
       </c>
       <c r="D551" t="s">
-        <v>662</v>
+        <v>402</v>
       </c>
       <c r="E551" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F551">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G551" t="s">
-        <v>403</v>
+        <v>588</v>
+      </c>
+      <c r="H551" t="s">
+        <v>37</v>
       </c>
       <c r="J551" t="s">
-        <v>38</v>
-      </c>
-      <c r="N551" t="s">
-        <v>403</v>
+        <v>588</v>
+      </c>
+      <c r="L551" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q551" t="s">
+        <v>44</v>
+      </c>
+      <c r="R551" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.4">
@@ -20849,19 +20891,16 @@
         <v>333</v>
       </c>
       <c r="D552" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E552" t="s">
         <v>19</v>
       </c>
       <c r="G552" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="J552" t="s">
         <v>21</v>
-      </c>
-      <c r="R552" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.4">
@@ -20872,7 +20911,7 @@
         <v>333</v>
       </c>
       <c r="D553" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E553" t="s">
         <v>23</v>
@@ -20881,22 +20920,22 @@
         <v>1</v>
       </c>
       <c r="G553" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="H553" t="s">
         <v>25</v>
       </c>
       <c r="J553" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="L553" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q553" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R553" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.4">
@@ -20907,7 +20946,7 @@
         <v>333</v>
       </c>
       <c r="D554" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E554" t="s">
         <v>23</v>
@@ -20916,22 +20955,22 @@
         <v>1</v>
       </c>
       <c r="G554" t="s">
-        <v>270</v>
+        <v>592</v>
       </c>
       <c r="H554" t="s">
         <v>25</v>
       </c>
       <c r="J554" t="s">
-        <v>270</v>
+        <v>592</v>
       </c>
       <c r="L554" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="Q554" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R554" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.4">
@@ -20942,31 +20981,22 @@
         <v>333</v>
       </c>
       <c r="D555" t="s">
-        <v>416</v>
+        <v>662</v>
       </c>
       <c r="E555" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F555">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G555" t="s">
-        <v>643</v>
-      </c>
-      <c r="H555" t="s">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="J555" t="s">
-        <v>643</v>
-      </c>
-      <c r="L555" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q555" t="s">
-        <v>63</v>
-      </c>
-      <c r="R555" t="s">
-        <v>644</v>
+        <v>38</v>
+      </c>
+      <c r="N555" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.4">
@@ -20980,28 +21010,16 @@
         <v>416</v>
       </c>
       <c r="E556" t="s">
-        <v>23</v>
-      </c>
-      <c r="F556">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G556" t="s">
-        <v>645</v>
-      </c>
-      <c r="H556" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="J556" t="s">
-        <v>645</v>
-      </c>
-      <c r="L556" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q556" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="R556" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.4">
@@ -21021,22 +21039,22 @@
         <v>1</v>
       </c>
       <c r="G557" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H557" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J557" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="L557" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q557" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R557" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.4">
@@ -21047,16 +21065,31 @@
         <v>333</v>
       </c>
       <c r="D558" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="E558" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F558">
+        <v>1</v>
       </c>
       <c r="G558" t="s">
-        <v>403</v>
+        <v>270</v>
+      </c>
+      <c r="H558" t="s">
+        <v>25</v>
       </c>
       <c r="J558" t="s">
-        <v>21</v>
+        <v>270</v>
+      </c>
+      <c r="L558" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q558" t="s">
+        <v>46</v>
+      </c>
+      <c r="R558" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.4">
@@ -21067,7 +21100,7 @@
         <v>333</v>
       </c>
       <c r="D559" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="E559" t="s">
         <v>23</v>
@@ -21076,19 +21109,22 @@
         <v>1</v>
       </c>
       <c r="G559" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="H559" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J559" t="s">
-        <v>559</v>
+        <v>643</v>
+      </c>
+      <c r="L559" t="s">
+        <v>43</v>
       </c>
       <c r="Q559" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="R559" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.4">
@@ -21099,7 +21135,7 @@
         <v>333</v>
       </c>
       <c r="D560" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="E560" t="s">
         <v>23</v>
@@ -21108,16 +21144,22 @@
         <v>1</v>
       </c>
       <c r="G560" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="H560" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J560" t="s">
-        <v>561</v>
+        <v>645</v>
+      </c>
+      <c r="L560" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q560" t="s">
+        <v>63</v>
       </c>
       <c r="R560" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.4">
@@ -21128,7 +21170,7 @@
         <v>333</v>
       </c>
       <c r="D561" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="E561" t="s">
         <v>23</v>
@@ -21137,19 +21179,22 @@
         <v>1</v>
       </c>
       <c r="G561" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="H561" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J561" t="s">
-        <v>563</v>
+        <v>647</v>
+      </c>
+      <c r="L561" t="s">
+        <v>59</v>
       </c>
       <c r="Q561" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="R561" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.4">
@@ -21163,22 +21208,13 @@
         <v>403</v>
       </c>
       <c r="E562" t="s">
-        <v>23</v>
-      </c>
-      <c r="F562">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G562" t="s">
-        <v>565</v>
-      </c>
-      <c r="H562" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="J562" t="s">
-        <v>565</v>
-      </c>
-      <c r="R562" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.4">
@@ -21189,22 +21225,28 @@
         <v>333</v>
       </c>
       <c r="D563" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="E563" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
       </c>
       <c r="G563" t="s">
-        <v>103</v>
+        <v>559</v>
       </c>
       <c r="H563" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J563" t="s">
-        <v>21</v>
+        <v>559</v>
+      </c>
+      <c r="Q563" t="s">
+        <v>27</v>
       </c>
       <c r="R563" t="s">
-        <v>649</v>
+        <v>560</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.4">
@@ -21215,7 +21257,7 @@
         <v>333</v>
       </c>
       <c r="D564" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="E564" t="s">
         <v>23</v>
@@ -21224,22 +21266,16 @@
         <v>1</v>
       </c>
       <c r="G564" t="s">
-        <v>270</v>
+        <v>561</v>
       </c>
       <c r="H564" t="s">
         <v>25</v>
       </c>
       <c r="J564" t="s">
-        <v>270</v>
-      </c>
-      <c r="L564" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q564" t="s">
-        <v>46</v>
+        <v>561</v>
       </c>
       <c r="R564" t="s">
-        <v>296</v>
+        <v>562</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.4">
@@ -21250,7 +21286,7 @@
         <v>333</v>
       </c>
       <c r="D565" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="E565" t="s">
         <v>23</v>
@@ -21259,22 +21295,19 @@
         <v>1</v>
       </c>
       <c r="G565" t="s">
-        <v>272</v>
+        <v>563</v>
       </c>
       <c r="H565" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J565" t="s">
-        <v>272</v>
-      </c>
-      <c r="L565" t="s">
-        <v>40</v>
+        <v>563</v>
       </c>
       <c r="Q565" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R565" t="s">
-        <v>273</v>
+        <v>564</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.4">
@@ -21285,7 +21318,7 @@
         <v>333</v>
       </c>
       <c r="D566" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="E566" t="s">
         <v>23</v>
@@ -21294,22 +21327,16 @@
         <v>1</v>
       </c>
       <c r="G566" t="s">
-        <v>176</v>
+        <v>565</v>
       </c>
       <c r="H566" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J566" t="s">
-        <v>176</v>
-      </c>
-      <c r="L566" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q566" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="R566" t="s">
-        <v>178</v>
+        <v>566</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.4">
@@ -21323,28 +21350,19 @@
         <v>103</v>
       </c>
       <c r="E567" t="s">
-        <v>23</v>
-      </c>
-      <c r="F567">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G567" t="s">
-        <v>650</v>
+        <v>103</v>
       </c>
       <c r="H567" t="s">
         <v>20</v>
       </c>
       <c r="J567" t="s">
-        <v>650</v>
-      </c>
-      <c r="L567" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q567" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="R567" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.4">
@@ -21364,22 +21382,22 @@
         <v>1</v>
       </c>
       <c r="G568" t="s">
-        <v>652</v>
+        <v>270</v>
       </c>
       <c r="H568" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J568" t="s">
-        <v>652</v>
+        <v>270</v>
       </c>
       <c r="L568" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q568" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R568" t="s">
-        <v>653</v>
+        <v>296</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.4">
@@ -21399,19 +21417,22 @@
         <v>1</v>
       </c>
       <c r="G569" t="s">
-        <v>654</v>
+        <v>272</v>
       </c>
       <c r="H569" t="s">
         <v>20</v>
       </c>
       <c r="J569" t="s">
-        <v>654</v>
+        <v>272</v>
+      </c>
+      <c r="L569" t="s">
+        <v>40</v>
       </c>
       <c r="Q569" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="R569" t="s">
-        <v>655</v>
+        <v>273</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.4">
@@ -21431,22 +21452,22 @@
         <v>1</v>
       </c>
       <c r="G570" t="s">
-        <v>656</v>
+        <v>176</v>
       </c>
       <c r="H570" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J570" t="s">
-        <v>656</v>
+        <v>176</v>
       </c>
       <c r="L570" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="Q570" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="R570" t="s">
-        <v>657</v>
+        <v>178</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.4">
@@ -21466,26 +21487,163 @@
         <v>1</v>
       </c>
       <c r="G571" t="s">
+        <v>650</v>
+      </c>
+      <c r="H571" t="s">
+        <v>20</v>
+      </c>
+      <c r="J571" t="s">
+        <v>650</v>
+      </c>
+      <c r="L571" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q571" t="s">
+        <v>160</v>
+      </c>
+      <c r="R571" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="572" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A572">
+        <v>1571</v>
+      </c>
+      <c r="B572" t="s">
+        <v>333</v>
+      </c>
+      <c r="D572" t="s">
+        <v>103</v>
+      </c>
+      <c r="E572" t="s">
+        <v>23</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+      <c r="G572" t="s">
+        <v>652</v>
+      </c>
+      <c r="H572" t="s">
+        <v>20</v>
+      </c>
+      <c r="J572" t="s">
+        <v>652</v>
+      </c>
+      <c r="L572" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q572" t="s">
+        <v>52</v>
+      </c>
+      <c r="R572" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="573" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A573">
+        <v>1572</v>
+      </c>
+      <c r="B573" t="s">
+        <v>333</v>
+      </c>
+      <c r="D573" t="s">
+        <v>103</v>
+      </c>
+      <c r="E573" t="s">
+        <v>23</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
+      <c r="G573" t="s">
+        <v>654</v>
+      </c>
+      <c r="H573" t="s">
+        <v>20</v>
+      </c>
+      <c r="J573" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q573" t="s">
+        <v>107</v>
+      </c>
+      <c r="R573" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="574" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A574">
+        <v>1573</v>
+      </c>
+      <c r="B574" t="s">
+        <v>333</v>
+      </c>
+      <c r="D574" t="s">
+        <v>103</v>
+      </c>
+      <c r="E574" t="s">
+        <v>23</v>
+      </c>
+      <c r="F574">
+        <v>1</v>
+      </c>
+      <c r="G574" t="s">
+        <v>656</v>
+      </c>
+      <c r="H574" t="s">
+        <v>25</v>
+      </c>
+      <c r="J574" t="s">
+        <v>656</v>
+      </c>
+      <c r="L574" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q574" t="s">
+        <v>52</v>
+      </c>
+      <c r="R574" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="575" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A575">
+        <v>1574</v>
+      </c>
+      <c r="B575" t="s">
+        <v>333</v>
+      </c>
+      <c r="D575" t="s">
+        <v>103</v>
+      </c>
+      <c r="E575" t="s">
+        <v>23</v>
+      </c>
+      <c r="F575">
+        <v>1</v>
+      </c>
+      <c r="G575" t="s">
         <v>658</v>
       </c>
-      <c r="H571" t="s">
-        <v>20</v>
-      </c>
-      <c r="J571" t="s">
+      <c r="H575" t="s">
+        <v>20</v>
+      </c>
+      <c r="J575" t="s">
         <v>658</v>
       </c>
-      <c r="L571" t="s">
+      <c r="L575" t="s">
         <v>43</v>
       </c>
-      <c r="Q571" t="s">
+      <c r="Q575" t="s">
         <v>63</v>
       </c>
-      <c r="R571" t="s">
+      <c r="R575" t="s">
         <v>659</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R571"/>
+  <autoFilter ref="A1:R575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:R35">
     <sortCondition ref="A26:A35"/>
   </sortState>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD58A3-39CD-4EBD-BF2D-B07802A09C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20501EFB-82D5-483A-803A-CF999D61F369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="705" windowWidth="28515" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="780" windowWidth="28515" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAF-T_Schema_v_2.00'!$A$1:$R$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAF-T_Schema_v_2.00'!$A$1:$R$574</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="673">
   <si>
     <t>seq</t>
   </si>
@@ -1998,10 +1998,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>PeriodStart-PeriodStartYear-PeriodEnd-PeriodEndYear</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Details</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2053,6 +2049,10 @@
   </si>
   <si>
     <t>sequence:Amount</t>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -3033,13 +3033,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R575"/>
+  <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H455" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J483" sqref="J483"/>
+      <selection pane="bottomRight" activeCell="G568" sqref="G568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6834,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H119" t="s">
         <v>20</v>
@@ -6843,7 +6843,7 @@
         <v>38</v>
       </c>
       <c r="N119" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R119" t="s">
         <v>256</v>
@@ -6915,7 +6915,7 @@
         <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H122" t="s">
         <v>20</v>
@@ -6944,7 +6944,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -6979,7 +6979,7 @@
         <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
@@ -7049,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H126" t="s">
         <v>20</v>
@@ -7058,7 +7058,7 @@
         <v>38</v>
       </c>
       <c r="N126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.4">
@@ -7069,7 +7069,7 @@
         <v>121</v>
       </c>
       <c r="D127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
@@ -7095,7 +7095,7 @@
         <v>121</v>
       </c>
       <c r="D128" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -7509,7 +7509,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
@@ -7518,7 +7518,7 @@
         <v>38</v>
       </c>
       <c r="N140" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R140" t="s">
         <v>230</v>
@@ -7745,7 +7745,7 @@
         <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H147" t="s">
         <v>86</v>
@@ -7754,7 +7754,7 @@
         <v>38</v>
       </c>
       <c r="N147" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.4">
@@ -7794,7 +7794,7 @@
         <v>121</v>
       </c>
       <c r="D149" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H149" t="s">
         <v>20</v>
@@ -7823,7 +7823,7 @@
         <v>121</v>
       </c>
       <c r="D150" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E150" t="s">
         <v>23</v>
@@ -7858,7 +7858,7 @@
         <v>121</v>
       </c>
       <c r="D151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
@@ -7893,13 +7893,13 @@
         <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
@@ -7913,7 +7913,7 @@
         <v>121</v>
       </c>
       <c r="D153" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E153" t="s">
         <v>23</v>
@@ -7948,7 +7948,7 @@
         <v>121</v>
       </c>
       <c r="D154" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E154" t="s">
         <v>23</v>
@@ -18066,7 +18066,7 @@
         <v>329</v>
       </c>
       <c r="D464" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="E464" t="s">
         <v>19</v>
@@ -18075,16 +18075,13 @@
         <v>0</v>
       </c>
       <c r="G464" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="H464" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J464" t="s">
         <v>21</v>
-      </c>
-      <c r="R464" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.4">
@@ -18095,7 +18092,7 @@
         <v>329</v>
       </c>
       <c r="D465" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="E465" t="s">
         <v>23</v>
@@ -18104,22 +18101,22 @@
         <v>1</v>
       </c>
       <c r="G465" t="s">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="H465" t="s">
         <v>25</v>
       </c>
       <c r="J465" t="s">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="L465" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q465" t="s">
-        <v>31</v>
+        <v>473</v>
       </c>
       <c r="R465" t="s">
-        <v>345</v>
+        <v>590</v>
       </c>
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.4">
@@ -18130,28 +18127,31 @@
         <v>329</v>
       </c>
       <c r="D466" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="E466" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F466">
         <v>2</v>
       </c>
       <c r="G466" t="s">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="H466" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J466" t="s">
-        <v>38</v>
-      </c>
-      <c r="N466" t="s">
-        <v>672</v>
+        <v>591</v>
+      </c>
+      <c r="L466" t="s">
+        <v>30</v>
       </c>
       <c r="Q466" t="s">
-        <v>672</v>
+        <v>31</v>
+      </c>
+      <c r="R466" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.4">
@@ -18162,22 +18162,28 @@
         <v>329</v>
       </c>
       <c r="D467" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E467" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F467">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G467" t="s">
-        <v>672</v>
+        <v>593</v>
       </c>
       <c r="H467" t="s">
         <v>20</v>
       </c>
       <c r="J467" t="s">
-        <v>21</v>
+        <v>593</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>594</v>
+      </c>
+      <c r="R467" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.4">
@@ -18188,31 +18194,25 @@
         <v>329</v>
       </c>
       <c r="D468" t="s">
-        <v>672</v>
+        <v>93</v>
       </c>
       <c r="E468" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G468" t="s">
-        <v>589</v>
+        <v>93</v>
       </c>
       <c r="H468" t="s">
         <v>25</v>
       </c>
       <c r="J468" t="s">
-        <v>589</v>
-      </c>
-      <c r="L468" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q468" t="s">
-        <v>473</v>
+        <v>21</v>
       </c>
       <c r="R468" t="s">
-        <v>590</v>
+        <v>94</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.4">
@@ -18223,31 +18223,31 @@
         <v>329</v>
       </c>
       <c r="D469" t="s">
-        <v>672</v>
+        <v>93</v>
       </c>
       <c r="E469" t="s">
         <v>23</v>
       </c>
       <c r="F469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G469" t="s">
-        <v>591</v>
+        <v>137</v>
       </c>
       <c r="H469" t="s">
         <v>25</v>
       </c>
       <c r="J469" t="s">
-        <v>591</v>
+        <v>137</v>
       </c>
       <c r="L469" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q469" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="R469" t="s">
-        <v>592</v>
+        <v>346</v>
       </c>
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.4">
@@ -18258,28 +18258,31 @@
         <v>329</v>
       </c>
       <c r="D470" t="s">
-        <v>672</v>
+        <v>93</v>
       </c>
       <c r="E470" t="s">
         <v>23</v>
       </c>
       <c r="F470">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G470" t="s">
-        <v>593</v>
+        <v>141</v>
       </c>
       <c r="H470" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J470" t="s">
-        <v>593</v>
+        <v>141</v>
+      </c>
+      <c r="L470" t="s">
+        <v>43</v>
       </c>
       <c r="Q470" t="s">
-        <v>594</v>
+        <v>44</v>
       </c>
       <c r="R470" t="s">
-        <v>595</v>
+        <v>347</v>
       </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.4">
@@ -18293,22 +18296,25 @@
         <v>93</v>
       </c>
       <c r="E471" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F471">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G471" t="s">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="H471" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J471" t="s">
-        <v>21</v>
+        <v>348</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>107</v>
       </c>
       <c r="R471" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.4">
@@ -18319,31 +18325,19 @@
         <v>329</v>
       </c>
       <c r="D472" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
       <c r="E472" t="s">
-        <v>23</v>
-      </c>
-      <c r="F472">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G472" t="s">
-        <v>137</v>
-      </c>
-      <c r="H472" t="s">
-        <v>25</v>
+        <v>411</v>
       </c>
       <c r="J472" t="s">
-        <v>137</v>
-      </c>
-      <c r="L472" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q472" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="R472" t="s">
-        <v>346</v>
+        <v>634</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.4">
@@ -18354,31 +18348,31 @@
         <v>329</v>
       </c>
       <c r="D473" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
       <c r="E473" t="s">
         <v>23</v>
       </c>
       <c r="F473">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G473" t="s">
-        <v>141</v>
+        <v>635</v>
       </c>
       <c r="H473" t="s">
         <v>25</v>
       </c>
       <c r="J473" t="s">
-        <v>141</v>
+        <v>635</v>
       </c>
       <c r="L473" t="s">
         <v>43</v>
       </c>
       <c r="Q473" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="R473" t="s">
-        <v>347</v>
+        <v>636</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.4">
@@ -18389,28 +18383,31 @@
         <v>329</v>
       </c>
       <c r="D474" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
       <c r="E474" t="s">
         <v>23</v>
       </c>
       <c r="F474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G474" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="H474" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J474" t="s">
-        <v>348</v>
+        <v>266</v>
+      </c>
+      <c r="L474" t="s">
+        <v>40</v>
       </c>
       <c r="Q474" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="R474" t="s">
-        <v>349</v>
+        <v>637</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.4">
@@ -18421,25 +18418,31 @@
         <v>329</v>
       </c>
       <c r="D475" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="E475" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G475" t="s">
-        <v>373</v>
+        <v>638</v>
       </c>
       <c r="H475" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J475" t="s">
-        <v>21</v>
+        <v>638</v>
+      </c>
+      <c r="L475" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q475" t="s">
+        <v>63</v>
       </c>
       <c r="R475" t="s">
-        <v>374</v>
+        <v>639</v>
       </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.4">
@@ -18450,25 +18453,31 @@
         <v>329</v>
       </c>
       <c r="D476" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="E476" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F476">
         <v>1</v>
       </c>
       <c r="G476" t="s">
-        <v>375</v>
+        <v>640</v>
       </c>
       <c r="H476" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J476" t="s">
-        <v>38</v>
-      </c>
-      <c r="N476" t="s">
-        <v>375</v>
+        <v>640</v>
+      </c>
+      <c r="L476" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q476" t="s">
+        <v>63</v>
+      </c>
+      <c r="R476" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.4">
@@ -18479,31 +18488,31 @@
         <v>329</v>
       </c>
       <c r="D477" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="E477" t="s">
         <v>23</v>
       </c>
       <c r="F477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G477" t="s">
-        <v>376</v>
+        <v>642</v>
       </c>
       <c r="H477" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J477" t="s">
-        <v>376</v>
+        <v>642</v>
       </c>
       <c r="L477" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q477" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R477" t="s">
-        <v>377</v>
+        <v>643</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.4">
@@ -18514,31 +18523,22 @@
         <v>329</v>
       </c>
       <c r="D478" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="E478" t="s">
-        <v>23</v>
-      </c>
-      <c r="F478">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G478" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="H478" t="s">
         <v>20</v>
       </c>
       <c r="J478" t="s">
-        <v>378</v>
-      </c>
-      <c r="L478" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q478" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="R478" t="s">
-        <v>379</v>
+        <v>644</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.4">
@@ -18549,31 +18549,31 @@
         <v>329</v>
       </c>
       <c r="D479" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="E479" t="s">
         <v>23</v>
       </c>
       <c r="F479">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G479" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="H479" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J479" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="L479" t="s">
         <v>40</v>
       </c>
       <c r="Q479" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R479" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.4">
@@ -18584,22 +18584,31 @@
         <v>329</v>
       </c>
       <c r="D480" t="s">
-        <v>375</v>
+        <v>103</v>
       </c>
       <c r="E480" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G480" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="H480" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J480" t="s">
-        <v>21</v>
+        <v>268</v>
+      </c>
+      <c r="L480" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>46</v>
+      </c>
+      <c r="R480" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.4">
@@ -18610,7 +18619,7 @@
         <v>329</v>
       </c>
       <c r="D481" t="s">
-        <v>375</v>
+        <v>103</v>
       </c>
       <c r="E481" t="s">
         <v>23</v>
@@ -18619,22 +18628,22 @@
         <v>1</v>
       </c>
       <c r="G481" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="H481" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J481" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="L481" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="Q481" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="R481" t="s">
-        <v>386</v>
+        <v>178</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.4">
@@ -18645,22 +18654,31 @@
         <v>329</v>
       </c>
       <c r="D482" t="s">
-        <v>375</v>
+        <v>103</v>
       </c>
       <c r="E482" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F482">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G482" t="s">
-        <v>387</v>
+        <v>645</v>
+      </c>
+      <c r="H482" t="s">
+        <v>20</v>
       </c>
       <c r="J482" t="s">
-        <v>38</v>
-      </c>
-      <c r="N482" t="s">
-        <v>660</v>
+        <v>645</v>
+      </c>
+      <c r="L482" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q482" t="s">
+        <v>160</v>
+      </c>
+      <c r="R482" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.4">
@@ -18671,13 +18689,31 @@
         <v>329</v>
       </c>
       <c r="D483" t="s">
-        <v>659</v>
+        <v>103</v>
       </c>
       <c r="E483" t="s">
-        <v>656</v>
+        <v>23</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
       </c>
       <c r="G483" t="s">
-        <v>658</v>
+        <v>647</v>
+      </c>
+      <c r="H483" t="s">
+        <v>20</v>
+      </c>
+      <c r="J483" t="s">
+        <v>647</v>
+      </c>
+      <c r="L483" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q483" t="s">
+        <v>52</v>
+      </c>
+      <c r="R483" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.4">
@@ -18688,28 +18724,28 @@
         <v>329</v>
       </c>
       <c r="D484" t="s">
-        <v>659</v>
+        <v>103</v>
       </c>
       <c r="E484" t="s">
-        <v>663</v>
+        <v>23</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
       </c>
       <c r="G484" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H484" t="s">
-        <v>664</v>
+        <v>20</v>
       </c>
       <c r="J484" t="s">
-        <v>387</v>
-      </c>
-      <c r="L484" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="Q484" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="R484" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.4">
@@ -18720,28 +18756,31 @@
         <v>329</v>
       </c>
       <c r="D485" t="s">
-        <v>659</v>
+        <v>103</v>
       </c>
       <c r="E485" t="s">
-        <v>663</v>
+        <v>23</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
       </c>
       <c r="G485" t="s">
-        <v>376</v>
+        <v>651</v>
       </c>
       <c r="H485" t="s">
-        <v>665</v>
+        <v>25</v>
       </c>
       <c r="J485" t="s">
-        <v>376</v>
+        <v>651</v>
       </c>
       <c r="L485" t="s">
-        <v>666</v>
+        <v>43</v>
       </c>
       <c r="Q485" t="s">
         <v>52</v>
       </c>
       <c r="R485" t="s">
-        <v>379</v>
+        <v>652</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.4">
@@ -18752,28 +18791,31 @@
         <v>329</v>
       </c>
       <c r="D486" t="s">
-        <v>659</v>
+        <v>103</v>
       </c>
       <c r="E486" t="s">
-        <v>663</v>
+        <v>23</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
       </c>
       <c r="G486" t="s">
-        <v>378</v>
+        <v>653</v>
       </c>
       <c r="H486" t="s">
-        <v>665</v>
+        <v>20</v>
       </c>
       <c r="J486" t="s">
-        <v>378</v>
+        <v>653</v>
       </c>
       <c r="L486" t="s">
-        <v>667</v>
+        <v>43</v>
       </c>
       <c r="Q486" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="R486" t="s">
-        <v>381</v>
+        <v>654</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.4">
@@ -18781,10 +18823,10 @@
         <v>1486</v>
       </c>
       <c r="B487" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D487" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E487" t="s">
         <v>19</v>
@@ -18793,7 +18835,7 @@
         <v>0</v>
       </c>
       <c r="G487" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H487" t="s">
         <v>25</v>
@@ -18802,7 +18844,7 @@
         <v>21</v>
       </c>
       <c r="R487" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.4">
@@ -18810,10 +18852,10 @@
         <v>1487</v>
       </c>
       <c r="B488" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D488" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E488" t="s">
         <v>23</v>
@@ -18822,22 +18864,22 @@
         <v>1</v>
       </c>
       <c r="G488" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="H488" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J488" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="L488" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q488" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="R488" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.4">
@@ -18845,31 +18887,31 @@
         <v>1488</v>
       </c>
       <c r="B489" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D489" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E489" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F489">
         <v>2</v>
       </c>
       <c r="G489" t="s">
-        <v>400</v>
+        <v>671</v>
       </c>
       <c r="H489" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J489" t="s">
-        <v>400</v>
-      </c>
-      <c r="L489" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N489" t="s">
+        <v>671</v>
       </c>
       <c r="Q489" t="s">
-        <v>52</v>
+        <v>671</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.4">
@@ -18877,31 +18919,28 @@
         <v>1489</v>
       </c>
       <c r="B490" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D490" t="s">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="E490" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F490">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G490" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="H490" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J490" t="s">
-        <v>38</v>
-      </c>
-      <c r="N490" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q490" t="s">
-        <v>330</v>
+        <v>21</v>
+      </c>
+      <c r="R490" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.4">
@@ -18909,31 +18948,28 @@
         <v>1490</v>
       </c>
       <c r="B491" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D491" t="s">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="E491" t="s">
         <v>35</v>
       </c>
       <c r="F491">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G491" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="H491" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J491" t="s">
         <v>38</v>
       </c>
       <c r="N491" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q491" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.4">
@@ -18941,31 +18977,34 @@
         <v>1491</v>
       </c>
       <c r="B492" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D492" t="s">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="E492" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F492">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G492" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="H492" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J492" t="s">
-        <v>38</v>
-      </c>
-      <c r="N492" t="s">
-        <v>411</v>
+        <v>376</v>
+      </c>
+      <c r="L492" t="s">
+        <v>43</v>
       </c>
       <c r="Q492" t="s">
-        <v>411</v>
+        <v>63</v>
+      </c>
+      <c r="R492" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.4">
@@ -18973,31 +19012,34 @@
         <v>1492</v>
       </c>
       <c r="B493" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D493" t="s">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="E493" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F493">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G493" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="H493" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J493" t="s">
-        <v>38</v>
-      </c>
-      <c r="N493" t="s">
-        <v>373</v>
+        <v>378</v>
+      </c>
+      <c r="L493" t="s">
+        <v>43</v>
       </c>
       <c r="Q493" t="s">
-        <v>373</v>
+        <v>52</v>
+      </c>
+      <c r="R493" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.4">
@@ -19005,28 +19047,34 @@
         <v>1493</v>
       </c>
       <c r="B494" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D494" t="s">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="E494" t="s">
         <v>23</v>
       </c>
       <c r="F494">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G494" t="s">
-        <v>104</v>
+        <v>380</v>
       </c>
       <c r="H494" t="s">
         <v>20</v>
       </c>
+      <c r="J494" t="s">
+        <v>380</v>
+      </c>
+      <c r="L494" t="s">
+        <v>40</v>
+      </c>
       <c r="Q494" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="R494" t="s">
-        <v>105</v>
+        <v>381</v>
       </c>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.4">
@@ -19034,10 +19082,10 @@
         <v>1494</v>
       </c>
       <c r="B495" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D495" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E495" t="s">
         <v>19</v>
@@ -19046,13 +19094,13 @@
         <v>0</v>
       </c>
       <c r="G495" t="s">
-        <v>380</v>
+        <v>375</v>
+      </c>
+      <c r="H495" t="s">
+        <v>25</v>
       </c>
       <c r="J495" t="s">
         <v>21</v>
-      </c>
-      <c r="R495" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.4">
@@ -19060,10 +19108,10 @@
         <v>1495</v>
       </c>
       <c r="B496" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D496" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E496" t="s">
         <v>23</v>
@@ -19072,13 +19120,13 @@
         <v>1</v>
       </c>
       <c r="G496" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="H496" t="s">
         <v>25</v>
       </c>
       <c r="J496" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="L496" t="s">
         <v>43</v>
@@ -19087,7 +19135,7 @@
         <v>63</v>
       </c>
       <c r="R496" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.4">
@@ -19095,31 +19143,25 @@
         <v>1496</v>
       </c>
       <c r="B497" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D497" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E497" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F497">
         <v>2</v>
       </c>
       <c r="G497" t="s">
-        <v>400</v>
-      </c>
-      <c r="H497" t="s">
-        <v>25</v>
+        <v>387</v>
       </c>
       <c r="J497" t="s">
-        <v>400</v>
-      </c>
-      <c r="L497" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q497" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="N497" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.4">
@@ -19127,31 +19169,16 @@
         <v>1497</v>
       </c>
       <c r="B498" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D498" t="s">
-        <v>380</v>
+        <v>658</v>
       </c>
       <c r="E498" t="s">
-        <v>35</v>
-      </c>
-      <c r="F498">
-        <v>3</v>
+        <v>656</v>
       </c>
       <c r="G498" t="s">
-        <v>407</v>
-      </c>
-      <c r="H498" t="s">
-        <v>86</v>
-      </c>
-      <c r="J498" t="s">
-        <v>38</v>
-      </c>
-      <c r="N498" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q498" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.4">
@@ -19159,31 +19186,31 @@
         <v>1498</v>
       </c>
       <c r="B499" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D499" t="s">
-        <v>380</v>
+        <v>658</v>
       </c>
       <c r="E499" t="s">
-        <v>35</v>
-      </c>
-      <c r="F499">
-        <v>4</v>
+        <v>662</v>
       </c>
       <c r="G499" t="s">
-        <v>408</v>
+        <v>660</v>
       </c>
       <c r="H499" t="s">
-        <v>86</v>
+        <v>663</v>
       </c>
       <c r="J499" t="s">
-        <v>38</v>
-      </c>
-      <c r="N499" t="s">
-        <v>409</v>
+        <v>387</v>
+      </c>
+      <c r="L499" t="s">
+        <v>665</v>
       </c>
       <c r="Q499" t="s">
-        <v>409</v>
+        <v>63</v>
+      </c>
+      <c r="R499" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.4">
@@ -19191,31 +19218,31 @@
         <v>1499</v>
       </c>
       <c r="B500" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D500" t="s">
-        <v>380</v>
+        <v>658</v>
       </c>
       <c r="E500" t="s">
-        <v>35</v>
-      </c>
-      <c r="F500">
-        <v>5</v>
+        <v>662</v>
       </c>
       <c r="G500" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="H500" t="s">
-        <v>37</v>
+        <v>664</v>
       </c>
       <c r="J500" t="s">
-        <v>38</v>
-      </c>
-      <c r="N500" t="s">
-        <v>411</v>
+        <v>376</v>
+      </c>
+      <c r="L500" t="s">
+        <v>665</v>
       </c>
       <c r="Q500" t="s">
-        <v>411</v>
+        <v>52</v>
+      </c>
+      <c r="R500" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.4">
@@ -19223,31 +19250,31 @@
         <v>1500</v>
       </c>
       <c r="B501" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D501" t="s">
-        <v>380</v>
+        <v>658</v>
       </c>
       <c r="E501" t="s">
-        <v>35</v>
-      </c>
-      <c r="F501">
-        <v>6</v>
+        <v>662</v>
       </c>
       <c r="G501" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="H501" t="s">
-        <v>37</v>
+        <v>664</v>
       </c>
       <c r="J501" t="s">
-        <v>38</v>
-      </c>
-      <c r="N501" t="s">
-        <v>373</v>
+        <v>378</v>
+      </c>
+      <c r="L501" t="s">
+        <v>666</v>
       </c>
       <c r="Q501" t="s">
-        <v>373</v>
+        <v>41</v>
+      </c>
+      <c r="R501" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.4">
@@ -19255,25 +19282,28 @@
         <v>1501</v>
       </c>
       <c r="B502" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D502" t="s">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="E502" t="s">
         <v>19</v>
       </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
       <c r="G502" t="s">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="H502" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J502" t="s">
         <v>21</v>
       </c>
       <c r="R502" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.4">
@@ -19281,31 +19311,34 @@
         <v>1502</v>
       </c>
       <c r="B503" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D503" t="s">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="E503" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F503">
         <v>1</v>
       </c>
       <c r="G503" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H503" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J503" t="s">
-        <v>38</v>
-      </c>
-      <c r="N503" t="s">
-        <v>417</v>
+        <v>405</v>
+      </c>
+      <c r="L503" t="s">
+        <v>43</v>
       </c>
       <c r="Q503" t="s">
-        <v>417</v>
+        <v>63</v>
+      </c>
+      <c r="R503" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.4">
@@ -19313,28 +19346,31 @@
         <v>1503</v>
       </c>
       <c r="B504" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D504" t="s">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="E504" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F504">
+        <v>2</v>
       </c>
       <c r="G504" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H504" t="s">
         <v>25</v>
       </c>
       <c r="J504" t="s">
-        <v>38</v>
-      </c>
-      <c r="N504" t="s">
-        <v>409</v>
-      </c>
-      <c r="R504" t="s">
-        <v>418</v>
+        <v>400</v>
+      </c>
+      <c r="L504" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q504" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.4">
@@ -19342,25 +19378,31 @@
         <v>1504</v>
       </c>
       <c r="B505" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D505" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E505" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F505">
+        <v>3</v>
       </c>
       <c r="G505" t="s">
-        <v>113</v>
+        <v>407</v>
       </c>
       <c r="H505" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J505" t="s">
-        <v>21</v>
-      </c>
-      <c r="R505" t="s">
-        <v>457</v>
+        <v>38</v>
+      </c>
+      <c r="N505" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q505" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.4">
@@ -19368,34 +19410,31 @@
         <v>1505</v>
       </c>
       <c r="B506" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D506" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E506" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F506">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G506" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="H506" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J506" t="s">
-        <v>458</v>
-      </c>
-      <c r="L506" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N506" t="s">
+        <v>409</v>
       </c>
       <c r="Q506" t="s">
-        <v>46</v>
-      </c>
-      <c r="R506" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.4">
@@ -19403,34 +19442,31 @@
         <v>1506</v>
       </c>
       <c r="B507" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D507" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E507" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F507">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G507" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="H507" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J507" t="s">
-        <v>460</v>
-      </c>
-      <c r="L507" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N507" t="s">
+        <v>411</v>
       </c>
       <c r="Q507" t="s">
-        <v>339</v>
-      </c>
-      <c r="R507" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.4">
@@ -19438,34 +19474,31 @@
         <v>1507</v>
       </c>
       <c r="B508" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D508" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E508" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F508">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G508" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="H508" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J508" t="s">
-        <v>461</v>
-      </c>
-      <c r="L508" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N508" t="s">
+        <v>373</v>
       </c>
       <c r="Q508" t="s">
-        <v>46</v>
-      </c>
-      <c r="R508" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.4">
@@ -19473,10 +19506,10 @@
         <v>1508</v>
       </c>
       <c r="B509" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D509" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E509" t="s">
         <v>23</v>
@@ -19485,22 +19518,16 @@
         <v>1</v>
       </c>
       <c r="G509" t="s">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="H509" t="s">
         <v>20</v>
       </c>
-      <c r="J509" t="s">
-        <v>462</v>
-      </c>
-      <c r="L509" t="s">
-        <v>59</v>
-      </c>
       <c r="Q509" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="R509" t="s">
-        <v>463</v>
+        <v>105</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.4">
@@ -19508,34 +19535,25 @@
         <v>1509</v>
       </c>
       <c r="B510" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D510" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E510" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G510" t="s">
-        <v>464</v>
-      </c>
-      <c r="H510" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="J510" t="s">
-        <v>464</v>
-      </c>
-      <c r="L510" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q510" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="R510" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.4">
@@ -19543,10 +19561,10 @@
         <v>1510</v>
       </c>
       <c r="B511" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D511" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E511" t="s">
         <v>23</v>
@@ -19555,22 +19573,22 @@
         <v>1</v>
       </c>
       <c r="G511" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="H511" t="s">
         <v>25</v>
       </c>
       <c r="J511" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="L511" t="s">
         <v>43</v>
       </c>
       <c r="Q511" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="R511" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.4">
@@ -19578,34 +19596,31 @@
         <v>1511</v>
       </c>
       <c r="B512" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D512" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E512" t="s">
         <v>23</v>
       </c>
       <c r="F512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G512" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="H512" t="s">
         <v>25</v>
       </c>
       <c r="J512" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="L512" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q512" t="s">
-        <v>41</v>
-      </c>
-      <c r="R512" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.4">
@@ -19613,34 +19628,31 @@
         <v>1512</v>
       </c>
       <c r="B513" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D513" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E513" t="s">
         <v>35</v>
       </c>
       <c r="F513">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G513" t="s">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="H513" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J513" t="s">
         <v>38</v>
       </c>
       <c r="N513" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="Q513" t="s">
-        <v>380</v>
-      </c>
-      <c r="R513" t="s">
-        <v>471</v>
+        <v>330</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.4">
@@ -19648,25 +19660,31 @@
         <v>1513</v>
       </c>
       <c r="B514" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D514" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E514" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F514">
+        <v>4</v>
       </c>
       <c r="G514" t="s">
-        <v>113</v>
+        <v>408</v>
       </c>
       <c r="H514" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J514" t="s">
-        <v>21</v>
-      </c>
-      <c r="R514" t="s">
-        <v>457</v>
+        <v>38</v>
+      </c>
+      <c r="N514" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q514" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.4">
@@ -19674,34 +19692,31 @@
         <v>1514</v>
       </c>
       <c r="B515" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D515" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E515" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F515">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G515" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="H515" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J515" t="s">
-        <v>472</v>
-      </c>
-      <c r="L515" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N515" t="s">
+        <v>411</v>
       </c>
       <c r="Q515" t="s">
-        <v>473</v>
-      </c>
-      <c r="R515" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.4">
@@ -19709,34 +19724,31 @@
         <v>1515</v>
       </c>
       <c r="B516" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D516" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="E516" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F516">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G516" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="H516" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J516" t="s">
-        <v>458</v>
-      </c>
-      <c r="L516" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N516" t="s">
+        <v>373</v>
       </c>
       <c r="Q516" t="s">
-        <v>46</v>
-      </c>
-      <c r="R516" t="s">
-        <v>459</v>
+        <v>373</v>
       </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.4">
@@ -19744,34 +19756,25 @@
         <v>1516</v>
       </c>
       <c r="B517" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D517" t="s">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="E517" t="s">
-        <v>35</v>
-      </c>
-      <c r="F517">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G517" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="H517" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J517" t="s">
-        <v>38</v>
-      </c>
-      <c r="N517" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q517" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="R517" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.4">
@@ -19779,34 +19782,31 @@
         <v>1517</v>
       </c>
       <c r="B518" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D518" t="s">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="E518" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F518">
         <v>1</v>
       </c>
       <c r="G518" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="H518" t="s">
         <v>25</v>
       </c>
       <c r="J518" t="s">
-        <v>460</v>
-      </c>
-      <c r="L518" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N518" t="s">
+        <v>417</v>
       </c>
       <c r="Q518" t="s">
-        <v>339</v>
-      </c>
-      <c r="R518" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.4">
@@ -19814,34 +19814,28 @@
         <v>1518</v>
       </c>
       <c r="B519" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D519" t="s">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="E519" t="s">
-        <v>23</v>
-      </c>
-      <c r="F519">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G519" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="H519" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J519" t="s">
-        <v>477</v>
-      </c>
-      <c r="L519" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q519" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="N519" t="s">
+        <v>409</v>
       </c>
       <c r="R519" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.4">
@@ -19849,34 +19843,25 @@
         <v>1519</v>
       </c>
       <c r="B520" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D520" t="s">
         <v>113</v>
       </c>
       <c r="E520" t="s">
-        <v>23</v>
-      </c>
-      <c r="F520">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G520" t="s">
-        <v>461</v>
+        <v>113</v>
       </c>
       <c r="H520" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J520" t="s">
-        <v>461</v>
-      </c>
-      <c r="L520" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q520" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="R520" t="s">
-        <v>279</v>
+        <v>457</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.4">
@@ -19884,7 +19869,7 @@
         <v>1520</v>
       </c>
       <c r="B521" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D521" t="s">
         <v>113</v>
@@ -19896,22 +19881,22 @@
         <v>1</v>
       </c>
       <c r="G521" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H521" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J521" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L521" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Q521" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R521" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.4">
@@ -19919,7 +19904,7 @@
         <v>1521</v>
       </c>
       <c r="B522" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D522" t="s">
         <v>113</v>
@@ -19931,22 +19916,22 @@
         <v>1</v>
       </c>
       <c r="G522" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H522" t="s">
         <v>25</v>
       </c>
       <c r="J522" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L522" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q522" t="s">
-        <v>52</v>
+        <v>339</v>
       </c>
       <c r="R522" t="s">
-        <v>465</v>
+        <v>340</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.4">
@@ -19954,7 +19939,7 @@
         <v>1522</v>
       </c>
       <c r="B523" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D523" t="s">
         <v>113</v>
@@ -19966,22 +19951,22 @@
         <v>1</v>
       </c>
       <c r="G523" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H523" t="s">
         <v>25</v>
       </c>
       <c r="J523" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L523" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q523" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R523" t="s">
-        <v>467</v>
+        <v>279</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.4">
@@ -19989,7 +19974,7 @@
         <v>1523</v>
       </c>
       <c r="B524" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D524" t="s">
         <v>113</v>
@@ -20001,22 +19986,22 @@
         <v>1</v>
       </c>
       <c r="G524" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H524" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J524" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L524" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="Q524" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="R524" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.4">
@@ -20024,34 +20009,34 @@
         <v>1524</v>
       </c>
       <c r="B525" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D525" t="s">
         <v>113</v>
       </c>
       <c r="E525" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F525">
         <v>1</v>
       </c>
       <c r="G525" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H525" t="s">
         <v>25</v>
       </c>
       <c r="J525" t="s">
-        <v>38</v>
-      </c>
-      <c r="N525" t="s">
-        <v>380</v>
+        <v>464</v>
+      </c>
+      <c r="L525" t="s">
+        <v>43</v>
       </c>
       <c r="Q525" t="s">
-        <v>380</v>
+        <v>52</v>
       </c>
       <c r="R525" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.4">
@@ -20059,7 +20044,7 @@
         <v>1525</v>
       </c>
       <c r="B526" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D526" t="s">
         <v>113</v>
@@ -20071,22 +20056,22 @@
         <v>1</v>
       </c>
       <c r="G526" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H526" t="s">
         <v>25</v>
       </c>
       <c r="J526" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L526" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q526" t="s">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="R526" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.4">
@@ -20094,34 +20079,34 @@
         <v>1526</v>
       </c>
       <c r="B527" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D527" t="s">
         <v>113</v>
       </c>
       <c r="E527" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F527">
         <v>1</v>
       </c>
       <c r="G527" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H527" t="s">
         <v>25</v>
       </c>
       <c r="J527" t="s">
-        <v>38</v>
-      </c>
-      <c r="N527" t="s">
-        <v>397</v>
+        <v>468</v>
+      </c>
+      <c r="L527" t="s">
+        <v>40</v>
       </c>
       <c r="Q527" t="s">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="R527" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.4">
@@ -20129,34 +20114,34 @@
         <v>1527</v>
       </c>
       <c r="B528" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D528" t="s">
         <v>113</v>
       </c>
       <c r="E528" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F528">
         <v>1</v>
       </c>
       <c r="G528" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H528" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J528" t="s">
-        <v>477</v>
-      </c>
-      <c r="L528" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N528" t="s">
+        <v>380</v>
       </c>
       <c r="Q528" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="R528" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.4">
@@ -20164,25 +20149,25 @@
         <v>1528</v>
       </c>
       <c r="B529" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D529" t="s">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="E529" t="s">
         <v>19</v>
       </c>
       <c r="G529" t="s">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="H529" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J529" t="s">
         <v>21</v>
       </c>
       <c r="R529" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.4">
@@ -20190,10 +20175,10 @@
         <v>1529</v>
       </c>
       <c r="B530" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D530" t="s">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="E530" t="s">
         <v>23</v>
@@ -20202,19 +20187,22 @@
         <v>1</v>
       </c>
       <c r="G530" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="H530" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J530" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="L530" t="s">
         <v>40</v>
       </c>
       <c r="Q530" t="s">
-        <v>41</v>
+        <v>473</v>
+      </c>
+      <c r="R530" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.4">
@@ -20222,10 +20210,10 @@
         <v>1530</v>
       </c>
       <c r="B531" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D531" t="s">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="E531" t="s">
         <v>23</v>
@@ -20234,19 +20222,22 @@
         <v>1</v>
       </c>
       <c r="G531" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="H531" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J531" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="L531" t="s">
         <v>40</v>
       </c>
       <c r="Q531" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="R531" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.4">
@@ -20254,31 +20245,34 @@
         <v>1531</v>
       </c>
       <c r="B532" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D532" t="s">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="E532" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F532">
         <v>1</v>
       </c>
       <c r="G532" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="H532" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J532" t="s">
-        <v>421</v>
-      </c>
-      <c r="L532" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N532" t="s">
+        <v>397</v>
       </c>
       <c r="Q532" t="s">
-        <v>52</v>
+        <v>397</v>
+      </c>
+      <c r="R532" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.4">
@@ -20286,10 +20280,10 @@
         <v>1532</v>
       </c>
       <c r="B533" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D533" t="s">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="E533" t="s">
         <v>23</v>
@@ -20298,19 +20292,22 @@
         <v>1</v>
       </c>
       <c r="G533" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="H533" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J533" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="L533" t="s">
         <v>40</v>
       </c>
       <c r="Q533" t="s">
-        <v>423</v>
+        <v>339</v>
+      </c>
+      <c r="R533" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.4">
@@ -20318,25 +20315,34 @@
         <v>1533</v>
       </c>
       <c r="B534" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D534" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E534" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
       </c>
       <c r="G534" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="H534" t="s">
         <v>20</v>
       </c>
       <c r="J534" t="s">
-        <v>21</v>
+        <v>477</v>
+      </c>
+      <c r="L534" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q534" t="s">
+        <v>44</v>
       </c>
       <c r="R534" t="s">
-        <v>562</v>
+        <v>478</v>
       </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.4">
@@ -20344,10 +20350,10 @@
         <v>1534</v>
       </c>
       <c r="B535" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D535" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E535" t="s">
         <v>23</v>
@@ -20356,19 +20362,22 @@
         <v>1</v>
       </c>
       <c r="G535" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
       <c r="H535" t="s">
         <v>25</v>
       </c>
       <c r="J535" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
       <c r="L535" t="s">
         <v>40</v>
       </c>
       <c r="Q535" t="s">
         <v>46</v>
+      </c>
+      <c r="R535" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.4">
@@ -20376,10 +20385,10 @@
         <v>1535</v>
       </c>
       <c r="B536" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D536" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E536" t="s">
         <v>23</v>
@@ -20388,19 +20397,22 @@
         <v>1</v>
       </c>
       <c r="G536" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="H536" t="s">
         <v>20</v>
       </c>
       <c r="J536" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="L536" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q536" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="R536" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.4">
@@ -20408,10 +20420,10 @@
         <v>1536</v>
       </c>
       <c r="B537" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D537" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E537" t="s">
         <v>23</v>
@@ -20420,19 +20432,22 @@
         <v>1</v>
       </c>
       <c r="G537" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="H537" t="s">
         <v>25</v>
       </c>
       <c r="J537" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="L537" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q537" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="R537" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.4">
@@ -20440,10 +20455,10 @@
         <v>1537</v>
       </c>
       <c r="B538" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D538" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E538" t="s">
         <v>23</v>
@@ -20452,22 +20467,22 @@
         <v>1</v>
       </c>
       <c r="G538" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
       <c r="H538" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J538" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
       <c r="L538" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q538" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R538" t="s">
-        <v>567</v>
+        <v>467</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.4">
@@ -20475,10 +20490,10 @@
         <v>1538</v>
       </c>
       <c r="B539" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D539" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E539" t="s">
         <v>23</v>
@@ -20487,19 +20502,22 @@
         <v>1</v>
       </c>
       <c r="G539" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="H539" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J539" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="L539" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q539" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="R539" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.4">
@@ -20507,31 +20525,34 @@
         <v>1539</v>
       </c>
       <c r="B540" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D540" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E540" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F540">
         <v>1</v>
       </c>
       <c r="G540" t="s">
-        <v>569</v>
+        <v>470</v>
       </c>
       <c r="H540" t="s">
         <v>25</v>
       </c>
       <c r="J540" t="s">
-        <v>569</v>
-      </c>
-      <c r="L540" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N540" t="s">
+        <v>380</v>
       </c>
       <c r="Q540" t="s">
-        <v>52</v>
+        <v>380</v>
+      </c>
+      <c r="R540" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.4">
@@ -20539,10 +20560,10 @@
         <v>1540</v>
       </c>
       <c r="B541" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D541" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E541" t="s">
         <v>23</v>
@@ -20551,22 +20572,22 @@
         <v>1</v>
       </c>
       <c r="G541" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
       <c r="H541" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J541" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
       <c r="L541" t="s">
         <v>40</v>
       </c>
       <c r="Q541" t="s">
-        <v>41</v>
+        <v>473</v>
       </c>
       <c r="R541" t="s">
-        <v>571</v>
+        <v>474</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.4">
@@ -20574,31 +20595,34 @@
         <v>1541</v>
       </c>
       <c r="B542" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D542" t="s">
-        <v>417</v>
+        <v>113</v>
       </c>
       <c r="E542" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F542">
         <v>1</v>
       </c>
       <c r="G542" t="s">
-        <v>572</v>
+        <v>475</v>
       </c>
       <c r="H542" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J542" t="s">
-        <v>572</v>
-      </c>
-      <c r="L542" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="N542" t="s">
+        <v>397</v>
       </c>
       <c r="Q542" t="s">
-        <v>41</v>
+        <v>397</v>
+      </c>
+      <c r="R542" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.4">
@@ -20606,25 +20630,34 @@
         <v>1542</v>
       </c>
       <c r="B543" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D543" t="s">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="E543" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
       </c>
       <c r="G543" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="H543" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J543" t="s">
-        <v>21</v>
+        <v>477</v>
+      </c>
+      <c r="L543" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q543" t="s">
+        <v>44</v>
       </c>
       <c r="R543" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.4">
@@ -20632,31 +20665,25 @@
         <v>1543</v>
       </c>
       <c r="B544" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D544" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E544" t="s">
-        <v>35</v>
-      </c>
-      <c r="F544">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G544" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H544" t="s">
         <v>25</v>
       </c>
       <c r="J544" t="s">
-        <v>38</v>
-      </c>
-      <c r="N544" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="R544" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.4">
@@ -20664,25 +20691,31 @@
         <v>1544</v>
       </c>
       <c r="B545" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D545" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E545" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F545">
         <v>1</v>
       </c>
       <c r="G545" t="s">
-        <v>398</v>
+        <v>419</v>
+      </c>
+      <c r="H545" t="s">
+        <v>20</v>
       </c>
       <c r="J545" t="s">
-        <v>38</v>
-      </c>
-      <c r="N545" t="s">
-        <v>398</v>
+        <v>419</v>
+      </c>
+      <c r="L545" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q545" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.4">
@@ -20690,25 +20723,31 @@
         <v>1545</v>
       </c>
       <c r="B546" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D546" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E546" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
       </c>
       <c r="G546" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="H546" t="s">
         <v>20</v>
       </c>
       <c r="J546" t="s">
-        <v>21</v>
-      </c>
-      <c r="R546" t="s">
-        <v>576</v>
+        <v>420</v>
+      </c>
+      <c r="L546" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q546" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.4">
@@ -20716,10 +20755,10 @@
         <v>1546</v>
       </c>
       <c r="B547" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D547" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E547" t="s">
         <v>23</v>
@@ -20728,22 +20767,19 @@
         <v>1</v>
       </c>
       <c r="G547" t="s">
-        <v>577</v>
+        <v>421</v>
       </c>
       <c r="H547" t="s">
         <v>20</v>
       </c>
       <c r="J547" t="s">
-        <v>577</v>
+        <v>421</v>
       </c>
       <c r="L547" t="s">
         <v>43</v>
       </c>
       <c r="Q547" t="s">
-        <v>63</v>
-      </c>
-      <c r="R547" t="s">
-        <v>578</v>
+        <v>52</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.4">
@@ -20751,10 +20787,10 @@
         <v>1547</v>
       </c>
       <c r="B548" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D548" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E548" t="s">
         <v>23</v>
@@ -20763,22 +20799,19 @@
         <v>1</v>
       </c>
       <c r="G548" t="s">
-        <v>579</v>
+        <v>422</v>
       </c>
       <c r="H548" t="s">
         <v>20</v>
       </c>
       <c r="J548" t="s">
-        <v>579</v>
+        <v>422</v>
       </c>
       <c r="L548" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q548" t="s">
-        <v>52</v>
-      </c>
-      <c r="R548" t="s">
-        <v>580</v>
+        <v>423</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.4">
@@ -20786,31 +20819,25 @@
         <v>1548</v>
       </c>
       <c r="B549" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D549" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E549" t="s">
-        <v>35</v>
-      </c>
-      <c r="F549">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G549" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="H549" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J549" t="s">
-        <v>38</v>
-      </c>
-      <c r="N549" t="s">
-        <v>394</v>
+        <v>21</v>
       </c>
       <c r="R549" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.4">
@@ -20818,10 +20845,10 @@
         <v>1549</v>
       </c>
       <c r="B550" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D550" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E550" t="s">
         <v>23</v>
@@ -20830,22 +20857,19 @@
         <v>1</v>
       </c>
       <c r="G550" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
       <c r="H550" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J550" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
       <c r="L550" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q550" t="s">
-        <v>44</v>
-      </c>
-      <c r="R550" t="s">
-        <v>582</v>
+        <v>46</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.4">
@@ -20853,10 +20877,10 @@
         <v>1550</v>
       </c>
       <c r="B551" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D551" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E551" t="s">
         <v>23</v>
@@ -20865,22 +20889,19 @@
         <v>1</v>
       </c>
       <c r="G551" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="H551" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J551" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="L551" t="s">
         <v>43</v>
       </c>
       <c r="Q551" t="s">
-        <v>44</v>
-      </c>
-      <c r="R551" t="s">
-        <v>584</v>
+        <v>63</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.4">
@@ -20888,19 +20909,31 @@
         <v>1551</v>
       </c>
       <c r="B552" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D552" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E552" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
       </c>
       <c r="G552" t="s">
-        <v>396</v>
+        <v>565</v>
+      </c>
+      <c r="H552" t="s">
+        <v>25</v>
       </c>
       <c r="J552" t="s">
-        <v>21</v>
+        <v>565</v>
+      </c>
+      <c r="L552" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q552" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.4">
@@ -20908,10 +20941,10 @@
         <v>1552</v>
       </c>
       <c r="B553" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D553" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E553" t="s">
         <v>23</v>
@@ -20920,22 +20953,22 @@
         <v>1</v>
       </c>
       <c r="G553" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="H553" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J553" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="L553" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Q553" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="R553" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.4">
@@ -20943,10 +20976,10 @@
         <v>1553</v>
       </c>
       <c r="B554" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D554" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E554" t="s">
         <v>23</v>
@@ -20955,22 +20988,19 @@
         <v>1</v>
       </c>
       <c r="G554" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="H554" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J554" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="L554" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q554" t="s">
-        <v>60</v>
-      </c>
-      <c r="R554" t="s">
-        <v>588</v>
+        <v>52</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.4">
@@ -20978,25 +21008,31 @@
         <v>1554</v>
       </c>
       <c r="B555" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D555" t="s">
-        <v>657</v>
+        <v>417</v>
       </c>
       <c r="E555" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F555">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G555" t="s">
-        <v>398</v>
+        <v>569</v>
+      </c>
+      <c r="H555" t="s">
+        <v>25</v>
       </c>
       <c r="J555" t="s">
-        <v>38</v>
-      </c>
-      <c r="N555" t="s">
-        <v>398</v>
+        <v>569</v>
+      </c>
+      <c r="L555" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q555" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.4">
@@ -21004,22 +21040,34 @@
         <v>1555</v>
       </c>
       <c r="B556" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D556" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E556" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
       </c>
       <c r="G556" t="s">
-        <v>411</v>
+        <v>570</v>
+      </c>
+      <c r="H556" t="s">
+        <v>20</v>
       </c>
       <c r="J556" t="s">
-        <v>21</v>
+        <v>570</v>
+      </c>
+      <c r="L556" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q556" t="s">
+        <v>41</v>
       </c>
       <c r="R556" t="s">
-        <v>634</v>
+        <v>571</v>
       </c>
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.4">
@@ -21027,10 +21075,10 @@
         <v>1556</v>
       </c>
       <c r="B557" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D557" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E557" t="s">
         <v>23</v>
@@ -21039,22 +21087,19 @@
         <v>1</v>
       </c>
       <c r="G557" t="s">
-        <v>635</v>
+        <v>572</v>
       </c>
       <c r="H557" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J557" t="s">
-        <v>635</v>
+        <v>572</v>
       </c>
       <c r="L557" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q557" t="s">
-        <v>63</v>
-      </c>
-      <c r="R557" t="s">
-        <v>636</v>
+        <v>41</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.4">
@@ -21062,34 +21107,25 @@
         <v>1557</v>
       </c>
       <c r="B558" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D558" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E558" t="s">
-        <v>23</v>
-      </c>
-      <c r="F558">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G558" t="s">
-        <v>266</v>
+        <v>397</v>
       </c>
       <c r="H558" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J558" t="s">
-        <v>266</v>
-      </c>
-      <c r="L558" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q558" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="R558" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.4">
@@ -21097,10 +21133,10 @@
         <v>1558</v>
       </c>
       <c r="B559" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D559" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E559" t="s">
         <v>23</v>
@@ -21109,13 +21145,13 @@
         <v>1</v>
       </c>
       <c r="G559" t="s">
-        <v>638</v>
+        <v>577</v>
       </c>
       <c r="H559" t="s">
         <v>20</v>
       </c>
       <c r="J559" t="s">
-        <v>638</v>
+        <v>577</v>
       </c>
       <c r="L559" t="s">
         <v>43</v>
@@ -21124,7 +21160,7 @@
         <v>63</v>
       </c>
       <c r="R559" t="s">
-        <v>639</v>
+        <v>578</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.4">
@@ -21132,10 +21168,10 @@
         <v>1559</v>
       </c>
       <c r="B560" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D560" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E560" t="s">
         <v>23</v>
@@ -21144,22 +21180,22 @@
         <v>1</v>
       </c>
       <c r="G560" t="s">
-        <v>640</v>
+        <v>579</v>
       </c>
       <c r="H560" t="s">
         <v>20</v>
       </c>
       <c r="J560" t="s">
-        <v>640</v>
+        <v>579</v>
       </c>
       <c r="L560" t="s">
         <v>43</v>
       </c>
       <c r="Q560" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R560" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.4">
@@ -21167,34 +21203,31 @@
         <v>1560</v>
       </c>
       <c r="B561" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D561" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E561" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F561">
         <v>1</v>
       </c>
       <c r="G561" t="s">
-        <v>642</v>
+        <v>394</v>
       </c>
       <c r="H561" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J561" t="s">
-        <v>642</v>
-      </c>
-      <c r="L561" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q561" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="N561" t="s">
+        <v>394</v>
       </c>
       <c r="R561" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.4">
@@ -21202,19 +21235,34 @@
         <v>1561</v>
       </c>
       <c r="B562" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D562" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E562" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
       </c>
       <c r="G562" t="s">
-        <v>398</v>
+        <v>439</v>
+      </c>
+      <c r="H562" t="s">
+        <v>20</v>
       </c>
       <c r="J562" t="s">
-        <v>21</v>
+        <v>439</v>
+      </c>
+      <c r="L562" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q562" t="s">
+        <v>44</v>
+      </c>
+      <c r="R562" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.4">
@@ -21222,10 +21270,10 @@
         <v>1562</v>
       </c>
       <c r="B563" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D563" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E563" t="s">
         <v>23</v>
@@ -21234,19 +21282,22 @@
         <v>1</v>
       </c>
       <c r="G563" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="H563" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J563" t="s">
-        <v>554</v>
+        <v>583</v>
+      </c>
+      <c r="L563" t="s">
+        <v>43</v>
       </c>
       <c r="Q563" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="R563" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.4">
@@ -21254,28 +21305,25 @@
         <v>1563</v>
       </c>
       <c r="B564" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D564" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E564" t="s">
-        <v>23</v>
-      </c>
-      <c r="F564">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G564" t="s">
-        <v>556</v>
+        <v>394</v>
       </c>
       <c r="H564" t="s">
         <v>25</v>
       </c>
       <c r="J564" t="s">
-        <v>556</v>
+        <v>21</v>
       </c>
       <c r="R564" t="s">
-        <v>557</v>
+        <v>395</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.4">
@@ -21283,31 +21331,31 @@
         <v>1564</v>
       </c>
       <c r="B565" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D565" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E565" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F565">
         <v>1</v>
       </c>
       <c r="G565" t="s">
-        <v>558</v>
+        <v>396</v>
       </c>
       <c r="H565" t="s">
         <v>25</v>
       </c>
       <c r="J565" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q565" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="N565" t="s">
+        <v>397</v>
       </c>
       <c r="R565" t="s">
-        <v>559</v>
+        <v>395</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.4">
@@ -21315,28 +21363,25 @@
         <v>1565</v>
       </c>
       <c r="B566" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D566" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E566" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F566">
         <v>1</v>
       </c>
       <c r="G566" t="s">
-        <v>560</v>
-      </c>
-      <c r="H566" t="s">
-        <v>25</v>
+        <v>398</v>
       </c>
       <c r="J566" t="s">
-        <v>560</v>
-      </c>
-      <c r="R566" t="s">
-        <v>561</v>
+        <v>38</v>
+      </c>
+      <c r="N566" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.4">
@@ -21344,25 +21389,19 @@
         <v>1566</v>
       </c>
       <c r="B567" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D567" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="E567" t="s">
         <v>19</v>
       </c>
       <c r="G567" t="s">
-        <v>103</v>
-      </c>
-      <c r="H567" t="s">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="J567" t="s">
         <v>21</v>
-      </c>
-      <c r="R567" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.4">
@@ -21370,10 +21409,10 @@
         <v>1567</v>
       </c>
       <c r="B568" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D568" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="E568" t="s">
         <v>23</v>
@@ -21382,22 +21421,22 @@
         <v>1</v>
       </c>
       <c r="G568" t="s">
-        <v>266</v>
+        <v>585</v>
       </c>
       <c r="H568" t="s">
         <v>25</v>
       </c>
       <c r="J568" t="s">
-        <v>266</v>
+        <v>585</v>
       </c>
       <c r="L568" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="Q568" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R568" t="s">
-        <v>292</v>
+        <v>586</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.4">
@@ -21405,10 +21444,10 @@
         <v>1568</v>
       </c>
       <c r="B569" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D569" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="E569" t="s">
         <v>23</v>
@@ -21417,22 +21456,22 @@
         <v>1</v>
       </c>
       <c r="G569" t="s">
-        <v>268</v>
+        <v>587</v>
       </c>
       <c r="H569" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J569" t="s">
-        <v>268</v>
+        <v>587</v>
       </c>
       <c r="L569" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="Q569" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R569" t="s">
-        <v>269</v>
+        <v>588</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.4">
@@ -21440,34 +21479,19 @@
         <v>1569</v>
       </c>
       <c r="B570" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D570" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E570" t="s">
-        <v>23</v>
-      </c>
-      <c r="F570">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G570" t="s">
-        <v>176</v>
-      </c>
-      <c r="H570" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="J570" t="s">
-        <v>176</v>
-      </c>
-      <c r="L570" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q570" t="s">
-        <v>160</v>
-      </c>
-      <c r="R570" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.4">
@@ -21475,10 +21499,10 @@
         <v>1570</v>
       </c>
       <c r="B571" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D571" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E571" t="s">
         <v>23</v>
@@ -21487,22 +21511,19 @@
         <v>1</v>
       </c>
       <c r="G571" t="s">
-        <v>645</v>
+        <v>554</v>
       </c>
       <c r="H571" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J571" t="s">
-        <v>645</v>
-      </c>
-      <c r="L571" t="s">
-        <v>26</v>
+        <v>554</v>
       </c>
       <c r="Q571" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="R571" t="s">
-        <v>646</v>
+        <v>555</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.4">
@@ -21510,10 +21531,10 @@
         <v>1571</v>
       </c>
       <c r="B572" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D572" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E572" t="s">
         <v>23</v>
@@ -21522,22 +21543,16 @@
         <v>1</v>
       </c>
       <c r="G572" t="s">
-        <v>647</v>
+        <v>556</v>
       </c>
       <c r="H572" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J572" t="s">
-        <v>647</v>
-      </c>
-      <c r="L572" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q572" t="s">
-        <v>52</v>
+        <v>556</v>
       </c>
       <c r="R572" t="s">
-        <v>648</v>
+        <v>557</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.4">
@@ -21545,10 +21560,10 @@
         <v>1572</v>
       </c>
       <c r="B573" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D573" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E573" t="s">
         <v>23</v>
@@ -21557,19 +21572,19 @@
         <v>1</v>
       </c>
       <c r="G573" t="s">
-        <v>649</v>
+        <v>558</v>
       </c>
       <c r="H573" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J573" t="s">
-        <v>649</v>
+        <v>558</v>
       </c>
       <c r="Q573" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="R573" t="s">
-        <v>650</v>
+        <v>559</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.4">
@@ -21577,10 +21592,10 @@
         <v>1573</v>
       </c>
       <c r="B574" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D574" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E574" t="s">
         <v>23</v>
@@ -21589,61 +21604,20 @@
         <v>1</v>
       </c>
       <c r="G574" t="s">
-        <v>651</v>
+        <v>560</v>
       </c>
       <c r="H574" t="s">
         <v>25</v>
       </c>
       <c r="J574" t="s">
-        <v>651</v>
-      </c>
-      <c r="L574" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q574" t="s">
-        <v>52</v>
+        <v>560</v>
       </c>
       <c r="R574" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A575">
-        <v>1574</v>
-      </c>
-      <c r="B575" t="s">
-        <v>329</v>
-      </c>
-      <c r="D575" t="s">
-        <v>103</v>
-      </c>
-      <c r="E575" t="s">
-        <v>23</v>
-      </c>
-      <c r="F575">
-        <v>1</v>
-      </c>
-      <c r="G575" t="s">
-        <v>653</v>
-      </c>
-      <c r="H575" t="s">
-        <v>20</v>
-      </c>
-      <c r="J575" t="s">
-        <v>653</v>
-      </c>
-      <c r="L575" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q575" t="s">
-        <v>63</v>
-      </c>
-      <c r="R575" t="s">
-        <v>654</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R574" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:R35">
     <sortCondition ref="A26:A35"/>
   </sortState>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20501EFB-82D5-483A-803A-CF999D61F369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53966E-D22F-4B8A-96D6-0D15BDBF1DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="780" windowWidth="28515" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="705" windowWidth="23640" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="675">
   <si>
     <t>seq</t>
   </si>
@@ -2052,6 +2052,14 @@
   </si>
   <si>
     <t>Common</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1..*</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0..*</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3036,10 +3044,10 @@
   <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G568" sqref="G568"/>
+      <selection pane="bottomRight" activeCell="H472" sqref="H472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7898,8 +7906,14 @@
       <c r="E152" t="s">
         <v>19</v>
       </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
       <c r="G152" t="s">
         <v>670</v>
+      </c>
+      <c r="H152" t="s">
+        <v>674</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
@@ -7994,6 +8008,9 @@
       <c r="G155" t="s">
         <v>134</v>
       </c>
+      <c r="H155" t="s">
+        <v>674</v>
+      </c>
       <c r="J155" t="s">
         <v>21</v>
       </c>
@@ -8049,6 +8066,9 @@
       <c r="G157" t="s">
         <v>185</v>
       </c>
+      <c r="H157" t="s">
+        <v>673</v>
+      </c>
       <c r="J157" t="s">
         <v>21</v>
       </c>
@@ -8177,6 +8197,9 @@
       <c r="G161" t="s">
         <v>135</v>
       </c>
+      <c r="H161" t="s">
+        <v>674</v>
+      </c>
       <c r="J161" t="s">
         <v>21</v>
       </c>
@@ -8229,6 +8252,9 @@
       <c r="G163" t="s">
         <v>145</v>
       </c>
+      <c r="H163" t="s">
+        <v>673</v>
+      </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
@@ -14670,6 +14696,9 @@
       <c r="E358" t="s">
         <v>19</v>
       </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
       <c r="G358" t="s">
         <v>382</v>
       </c>
@@ -14722,6 +14751,9 @@
       <c r="E360" t="s">
         <v>19</v>
       </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
       <c r="G360" t="s">
         <v>383</v>
       </c>
@@ -14774,6 +14806,9 @@
       <c r="E362" t="s">
         <v>19</v>
       </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
       <c r="G362" t="s">
         <v>402</v>
       </c>
@@ -14934,6 +14969,9 @@
       <c r="E367" t="s">
         <v>19</v>
       </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
       <c r="G367" t="s">
         <v>384</v>
       </c>
@@ -14986,6 +15024,9 @@
       <c r="E369" t="s">
         <v>19</v>
       </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
       <c r="G369" t="s">
         <v>399</v>
       </c>
@@ -15126,6 +15167,9 @@
       <c r="H373" t="s">
         <v>25</v>
       </c>
+      <c r="J373" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A374">
@@ -16273,6 +16317,9 @@
       <c r="E408" t="s">
         <v>19</v>
       </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
       <c r="G408" t="s">
         <v>430</v>
       </c>
@@ -16360,6 +16407,9 @@
       <c r="E411" t="s">
         <v>19</v>
       </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
       <c r="G411" t="s">
         <v>389</v>
       </c>
@@ -16453,6 +16503,9 @@
       <c r="E414" t="s">
         <v>19</v>
       </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
       <c r="G414" t="s">
         <v>432</v>
       </c>
@@ -16555,6 +16608,12 @@
       <c r="G417" t="s">
         <v>499</v>
       </c>
+      <c r="H417" t="s">
+        <v>673</v>
+      </c>
+      <c r="J417" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A418">
@@ -18330,8 +18389,14 @@
       <c r="E472" t="s">
         <v>19</v>
       </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
       <c r="G472" t="s">
         <v>411</v>
+      </c>
+      <c r="H472" t="s">
+        <v>663</v>
       </c>
       <c r="J472" t="s">
         <v>21</v>
@@ -18528,6 +18593,9 @@
       <c r="E478" t="s">
         <v>19</v>
       </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
       <c r="G478" t="s">
         <v>103</v>
       </c>
@@ -19177,7 +19245,16 @@
       <c r="E498" t="s">
         <v>656</v>
       </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
       <c r="G498" t="s">
+        <v>658</v>
+      </c>
+      <c r="H498" t="s">
+        <v>663</v>
+      </c>
+      <c r="J498" t="s">
         <v>657</v>
       </c>
     </row>
@@ -19549,6 +19626,9 @@
       <c r="G510" t="s">
         <v>380</v>
       </c>
+      <c r="H510" t="s">
+        <v>663</v>
+      </c>
       <c r="J510" t="s">
         <v>21</v>
       </c>
@@ -19764,6 +19844,9 @@
       <c r="E517" t="s">
         <v>19</v>
       </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
       <c r="G517" t="s">
         <v>414</v>
       </c>
@@ -19851,6 +19934,9 @@
       <c r="E520" t="s">
         <v>19</v>
       </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
       <c r="G520" t="s">
         <v>113</v>
       </c>
@@ -20157,6 +20243,9 @@
       <c r="E529" t="s">
         <v>19</v>
       </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
       <c r="G529" t="s">
         <v>113</v>
       </c>
@@ -20673,6 +20762,9 @@
       <c r="E544" t="s">
         <v>19</v>
       </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
       <c r="G544" t="s">
         <v>409</v>
       </c>
@@ -20827,6 +20919,9 @@
       <c r="E549" t="s">
         <v>19</v>
       </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
       <c r="G549" t="s">
         <v>417</v>
       </c>
@@ -21115,6 +21210,9 @@
       <c r="E558" t="s">
         <v>19</v>
       </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
       <c r="G558" t="s">
         <v>397</v>
       </c>
@@ -21313,6 +21411,9 @@
       <c r="E564" t="s">
         <v>19</v>
       </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
       <c r="G564" t="s">
         <v>394</v>
       </c>
@@ -21397,8 +21498,14 @@
       <c r="E567" t="s">
         <v>19</v>
       </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
       <c r="G567" t="s">
         <v>396</v>
+      </c>
+      <c r="H567" t="s">
+        <v>663</v>
       </c>
       <c r="J567" t="s">
         <v>21</v>
@@ -21487,8 +21594,14 @@
       <c r="E570" t="s">
         <v>19</v>
       </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
       <c r="G570" t="s">
         <v>398</v>
+      </c>
+      <c r="H570" t="s">
+        <v>663</v>
       </c>
       <c r="J570" t="s">
         <v>21</v>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53966E-D22F-4B8A-96D6-0D15BDBF1DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F69D92C-198D-47DF-9CB2-29FE051F4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="705" windowWidth="23640" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="645" windowWidth="27375" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="677">
   <si>
     <t>seq</t>
   </si>
@@ -2060,6 +2060,14 @@
   </si>
   <si>
     <t>0..*</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sequence:Amount</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AmountStructure</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3044,24 +3052,25 @@
   <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H476" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H472" sqref="H472"/>
+      <selection pane="bottomRight" activeCell="A568" sqref="A568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="35.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
     <col min="8" max="8" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="24.625" customWidth="1"/>
-    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
     <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
@@ -10749,7 +10758,7 @@
         <v>38</v>
       </c>
       <c r="N238" t="s">
-        <v>107</v>
+        <v>676</v>
       </c>
       <c r="Q238" t="s">
         <v>107</v>
@@ -17805,7 +17814,7 @@
         <v>329</v>
       </c>
       <c r="D454" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="E454" t="s">
         <v>19</v>
@@ -17814,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="G454" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="H454" t="s">
         <v>25</v>
@@ -17823,7 +17832,7 @@
         <v>21</v>
       </c>
       <c r="R454" t="s">
-        <v>331</v>
+        <v>94</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.4">
@@ -17834,7 +17843,7 @@
         <v>329</v>
       </c>
       <c r="D455" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="E455" t="s">
         <v>23</v>
@@ -17843,19 +17852,22 @@
         <v>1</v>
       </c>
       <c r="G455" t="s">
-        <v>332</v>
+        <v>137</v>
       </c>
       <c r="H455" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J455" t="s">
-        <v>332</v>
+        <v>137</v>
       </c>
       <c r="L455" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q455" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="R455" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.4">
@@ -17866,7 +17878,7 @@
         <v>329</v>
       </c>
       <c r="D456" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="E456" t="s">
         <v>23</v>
@@ -17875,19 +17887,22 @@
         <v>2</v>
       </c>
       <c r="G456" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="H456" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J456" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="L456" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q456" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="R456" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.4">
@@ -17898,7 +17913,7 @@
         <v>329</v>
       </c>
       <c r="D457" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="E457" t="s">
         <v>23</v>
@@ -17907,19 +17922,19 @@
         <v>3</v>
       </c>
       <c r="G457" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H457" t="s">
         <v>20</v>
       </c>
       <c r="J457" t="s">
-        <v>334</v>
-      </c>
-      <c r="L457" t="s">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="Q457" t="s">
-        <v>52</v>
+        <v>107</v>
+      </c>
+      <c r="R457" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.4">
@@ -17930,28 +17945,25 @@
         <v>329</v>
       </c>
       <c r="D458" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="E458" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F458">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G458" t="s">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="H458" t="s">
         <v>20</v>
       </c>
       <c r="J458" t="s">
-        <v>335</v>
-      </c>
-      <c r="L458" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q458" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="R458" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.4">
@@ -17962,28 +17974,31 @@
         <v>329</v>
       </c>
       <c r="D459" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="E459" t="s">
         <v>23</v>
       </c>
       <c r="F459">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G459" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="H459" t="s">
         <v>25</v>
       </c>
       <c r="J459" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="L459" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q459" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="R459" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.4">
@@ -17994,28 +18009,31 @@
         <v>329</v>
       </c>
       <c r="D460" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="E460" t="s">
         <v>23</v>
       </c>
       <c r="F460">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G460" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="H460" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J460" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="L460" t="s">
         <v>40</v>
       </c>
       <c r="Q460" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="R460" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.4">
@@ -18026,31 +18044,31 @@
         <v>329</v>
       </c>
       <c r="D461" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="E461" t="s">
         <v>23</v>
       </c>
       <c r="F461">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G461" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="H461" t="s">
         <v>20</v>
       </c>
       <c r="J461" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="L461" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="Q461" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="R461" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.4">
@@ -18061,31 +18079,31 @@
         <v>329</v>
       </c>
       <c r="D462" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="E462" t="s">
         <v>23</v>
       </c>
       <c r="F462">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G462" t="s">
-        <v>278</v>
+        <v>645</v>
       </c>
       <c r="H462" t="s">
         <v>20</v>
       </c>
       <c r="J462" t="s">
-        <v>278</v>
+        <v>645</v>
       </c>
       <c r="L462" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Q462" t="s">
-        <v>339</v>
+        <v>160</v>
       </c>
       <c r="R462" t="s">
-        <v>340</v>
+        <v>646</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.4">
@@ -18096,25 +18114,31 @@
         <v>329</v>
       </c>
       <c r="D463" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="E463" t="s">
         <v>23</v>
       </c>
       <c r="F463">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G463" t="s">
-        <v>341</v>
+        <v>647</v>
       </c>
       <c r="H463" t="s">
         <v>20</v>
       </c>
       <c r="J463" t="s">
-        <v>341</v>
+        <v>647</v>
+      </c>
+      <c r="L463" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>52</v>
       </c>
       <c r="R463" t="s">
-        <v>342</v>
+        <v>648</v>
       </c>
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.4">
@@ -18125,22 +18149,28 @@
         <v>329</v>
       </c>
       <c r="D464" t="s">
-        <v>671</v>
+        <v>103</v>
       </c>
       <c r="E464" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G464" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="H464" t="s">
         <v>20</v>
       </c>
       <c r="J464" t="s">
-        <v>21</v>
+        <v>649</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>107</v>
+      </c>
+      <c r="R464" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.4">
@@ -18151,7 +18181,7 @@
         <v>329</v>
       </c>
       <c r="D465" t="s">
-        <v>671</v>
+        <v>103</v>
       </c>
       <c r="E465" t="s">
         <v>23</v>
@@ -18160,22 +18190,22 @@
         <v>1</v>
       </c>
       <c r="G465" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="H465" t="s">
         <v>25</v>
       </c>
       <c r="J465" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="L465" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q465" t="s">
-        <v>473</v>
+        <v>52</v>
       </c>
       <c r="R465" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.4">
@@ -18186,31 +18216,31 @@
         <v>329</v>
       </c>
       <c r="D466" t="s">
-        <v>671</v>
+        <v>103</v>
       </c>
       <c r="E466" t="s">
         <v>23</v>
       </c>
       <c r="F466">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G466" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="H466" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J466" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="L466" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q466" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="R466" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.4">
@@ -18218,31 +18248,28 @@
         <v>1466</v>
       </c>
       <c r="B467" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D467" t="s">
-        <v>671</v>
+        <v>330</v>
       </c>
       <c r="E467" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F467">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G467" t="s">
-        <v>593</v>
+        <v>330</v>
       </c>
       <c r="H467" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J467" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q467" t="s">
-        <v>594</v>
+        <v>21</v>
       </c>
       <c r="R467" t="s">
-        <v>595</v>
+        <v>331</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.4">
@@ -18250,28 +18277,31 @@
         <v>1467</v>
       </c>
       <c r="B468" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D468" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="E468" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G468" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="H468" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J468" t="s">
-        <v>21</v>
-      </c>
-      <c r="R468" t="s">
-        <v>94</v>
+        <v>332</v>
+      </c>
+      <c r="L468" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.4">
@@ -18279,34 +18309,31 @@
         <v>1468</v>
       </c>
       <c r="B469" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D469" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="E469" t="s">
         <v>23</v>
       </c>
       <c r="F469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G469" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="H469" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J469" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="L469" t="s">
         <v>40</v>
       </c>
       <c r="Q469" t="s">
-        <v>46</v>
-      </c>
-      <c r="R469" t="s">
-        <v>346</v>
+        <v>41</v>
       </c>
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.4">
@@ -18314,34 +18341,31 @@
         <v>1469</v>
       </c>
       <c r="B470" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D470" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="E470" t="s">
         <v>23</v>
       </c>
       <c r="F470">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G470" t="s">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="H470" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J470" t="s">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="L470" t="s">
         <v>43</v>
       </c>
       <c r="Q470" t="s">
-        <v>44</v>
-      </c>
-      <c r="R470" t="s">
-        <v>347</v>
+        <v>52</v>
       </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.4">
@@ -18349,31 +18373,31 @@
         <v>1470</v>
       </c>
       <c r="B471" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D471" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="E471" t="s">
         <v>23</v>
       </c>
       <c r="F471">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G471" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="H471" t="s">
         <v>20</v>
       </c>
       <c r="J471" t="s">
-        <v>348</v>
+        <v>335</v>
+      </c>
+      <c r="L471" t="s">
+        <v>43</v>
       </c>
       <c r="Q471" t="s">
-        <v>107</v>
-      </c>
-      <c r="R471" t="s">
-        <v>349</v>
+        <v>63</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.4">
@@ -18381,28 +18405,31 @@
         <v>1471</v>
       </c>
       <c r="B472" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D472" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="E472" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F472">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G472" t="s">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="H472" t="s">
-        <v>663</v>
+        <v>25</v>
       </c>
       <c r="J472" t="s">
-        <v>21</v>
-      </c>
-      <c r="R472" t="s">
-        <v>634</v>
+        <v>336</v>
+      </c>
+      <c r="L472" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.4">
@@ -18410,34 +18437,31 @@
         <v>1472</v>
       </c>
       <c r="B473" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D473" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="E473" t="s">
         <v>23</v>
       </c>
       <c r="F473">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G473" t="s">
-        <v>635</v>
+        <v>337</v>
       </c>
       <c r="H473" t="s">
         <v>25</v>
       </c>
       <c r="J473" t="s">
-        <v>635</v>
+        <v>337</v>
       </c>
       <c r="L473" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q473" t="s">
-        <v>63</v>
-      </c>
-      <c r="R473" t="s">
-        <v>636</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.4">
@@ -18445,34 +18469,34 @@
         <v>1473</v>
       </c>
       <c r="B474" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D474" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="E474" t="s">
         <v>23</v>
       </c>
       <c r="F474">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G474" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="H474" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J474" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="L474" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q474" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="R474" t="s">
-        <v>637</v>
+        <v>279</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.4">
@@ -18480,34 +18504,34 @@
         <v>1474</v>
       </c>
       <c r="B475" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D475" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="E475" t="s">
         <v>23</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G475" t="s">
-        <v>638</v>
+        <v>278</v>
       </c>
       <c r="H475" t="s">
         <v>20</v>
       </c>
       <c r="J475" t="s">
-        <v>638</v>
+        <v>278</v>
       </c>
       <c r="L475" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q475" t="s">
-        <v>63</v>
+        <v>339</v>
       </c>
       <c r="R475" t="s">
-        <v>639</v>
+        <v>340</v>
       </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.4">
@@ -18515,34 +18539,28 @@
         <v>1475</v>
       </c>
       <c r="B476" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D476" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="E476" t="s">
         <v>23</v>
       </c>
       <c r="F476">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G476" t="s">
-        <v>640</v>
+        <v>341</v>
       </c>
       <c r="H476" t="s">
         <v>20</v>
       </c>
       <c r="J476" t="s">
-        <v>640</v>
-      </c>
-      <c r="L476" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q476" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="R476" t="s">
-        <v>641</v>
+        <v>342</v>
       </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.4">
@@ -18550,34 +18568,28 @@
         <v>1476</v>
       </c>
       <c r="B477" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D477" t="s">
         <v>411</v>
       </c>
       <c r="E477" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G477" t="s">
-        <v>642</v>
+        <v>411</v>
       </c>
       <c r="H477" t="s">
-        <v>20</v>
+        <v>663</v>
       </c>
       <c r="J477" t="s">
-        <v>642</v>
-      </c>
-      <c r="L477" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q477" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="R477" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.4">
@@ -18585,28 +18597,34 @@
         <v>1477</v>
       </c>
       <c r="B478" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D478" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="E478" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G478" t="s">
-        <v>103</v>
+        <v>635</v>
       </c>
       <c r="H478" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J478" t="s">
-        <v>21</v>
+        <v>635</v>
+      </c>
+      <c r="L478" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q478" t="s">
+        <v>63</v>
       </c>
       <c r="R478" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.4">
@@ -18614,10 +18632,10 @@
         <v>1478</v>
       </c>
       <c r="B479" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D479" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="E479" t="s">
         <v>23</v>
@@ -18641,7 +18659,7 @@
         <v>46</v>
       </c>
       <c r="R479" t="s">
-        <v>292</v>
+        <v>637</v>
       </c>
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.4">
@@ -18649,10 +18667,10 @@
         <v>1479</v>
       </c>
       <c r="B480" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D480" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="E480" t="s">
         <v>23</v>
@@ -18661,22 +18679,22 @@
         <v>1</v>
       </c>
       <c r="G480" t="s">
-        <v>268</v>
+        <v>638</v>
       </c>
       <c r="H480" t="s">
         <v>20</v>
       </c>
       <c r="J480" t="s">
-        <v>268</v>
+        <v>638</v>
       </c>
       <c r="L480" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q480" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="R480" t="s">
-        <v>269</v>
+        <v>639</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.4">
@@ -18684,10 +18702,10 @@
         <v>1480</v>
       </c>
       <c r="B481" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D481" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="E481" t="s">
         <v>23</v>
@@ -18696,22 +18714,22 @@
         <v>1</v>
       </c>
       <c r="G481" t="s">
-        <v>176</v>
+        <v>640</v>
       </c>
       <c r="H481" t="s">
         <v>20</v>
       </c>
       <c r="J481" t="s">
-        <v>176</v>
+        <v>640</v>
       </c>
       <c r="L481" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="Q481" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="R481" t="s">
-        <v>178</v>
+        <v>641</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.4">
@@ -18719,10 +18737,10 @@
         <v>1481</v>
       </c>
       <c r="B482" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D482" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="E482" t="s">
         <v>23</v>
@@ -18731,22 +18749,22 @@
         <v>1</v>
       </c>
       <c r="G482" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H482" t="s">
         <v>20</v>
       </c>
       <c r="J482" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="L482" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="Q482" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="R482" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.4">
@@ -18754,34 +18772,28 @@
         <v>1482</v>
       </c>
       <c r="B483" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D483" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E483" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483" t="s">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="H483" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J483" t="s">
-        <v>647</v>
-      </c>
-      <c r="L483" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q483" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="R483" t="s">
-        <v>648</v>
+        <v>343</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.4">
@@ -18789,10 +18801,10 @@
         <v>1483</v>
       </c>
       <c r="B484" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D484" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E484" t="s">
         <v>23</v>
@@ -18801,19 +18813,22 @@
         <v>1</v>
       </c>
       <c r="G484" t="s">
-        <v>649</v>
+        <v>344</v>
       </c>
       <c r="H484" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J484" t="s">
-        <v>649</v>
+        <v>344</v>
+      </c>
+      <c r="L484" t="s">
+        <v>30</v>
       </c>
       <c r="Q484" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="R484" t="s">
-        <v>650</v>
+        <v>345</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.4">
@@ -18821,34 +18836,31 @@
         <v>1484</v>
       </c>
       <c r="B485" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D485" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E485" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G485" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="H485" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J485" t="s">
-        <v>651</v>
-      </c>
-      <c r="L485" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="N485" t="s">
+        <v>671</v>
       </c>
       <c r="Q485" t="s">
-        <v>52</v>
-      </c>
-      <c r="R485" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.4">
@@ -18856,34 +18868,25 @@
         <v>1485</v>
       </c>
       <c r="B486" t="s">
-        <v>329</v>
+        <v>672</v>
       </c>
       <c r="D486" t="s">
-        <v>103</v>
+        <v>675</v>
       </c>
       <c r="E486" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G486" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="H486" t="s">
         <v>20</v>
       </c>
       <c r="J486" t="s">
-        <v>653</v>
-      </c>
-      <c r="L486" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q486" t="s">
-        <v>63</v>
-      </c>
-      <c r="R486" t="s">
-        <v>654</v>
+        <v>21</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.4">
@@ -18894,25 +18897,31 @@
         <v>672</v>
       </c>
       <c r="D487" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="E487" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G487" t="s">
-        <v>107</v>
+        <v>589</v>
       </c>
       <c r="H487" t="s">
         <v>25</v>
       </c>
       <c r="J487" t="s">
-        <v>21</v>
+        <v>589</v>
+      </c>
+      <c r="L487" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>473</v>
       </c>
       <c r="R487" t="s">
-        <v>343</v>
+        <v>590</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.4">
@@ -18923,22 +18932,22 @@
         <v>672</v>
       </c>
       <c r="D488" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="E488" t="s">
         <v>23</v>
       </c>
       <c r="F488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G488" t="s">
-        <v>344</v>
+        <v>591</v>
       </c>
       <c r="H488" t="s">
         <v>25</v>
       </c>
       <c r="J488" t="s">
-        <v>344</v>
+        <v>591</v>
       </c>
       <c r="L488" t="s">
         <v>30</v>
@@ -18947,7 +18956,7 @@
         <v>31</v>
       </c>
       <c r="R488" t="s">
-        <v>345</v>
+        <v>592</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.4">
@@ -18958,28 +18967,28 @@
         <v>672</v>
       </c>
       <c r="D489" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
       <c r="E489" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G489" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="H489" t="s">
         <v>20</v>
       </c>
       <c r="J489" t="s">
-        <v>38</v>
-      </c>
-      <c r="N489" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="Q489" t="s">
-        <v>671</v>
+        <v>594</v>
+      </c>
+      <c r="R489" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.4">

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/Standard_Formats/data/SAF-T/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F69D92C-198D-47DF-9CB2-29FE051F4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F72F1-DD6B-4143-95C9-88312403F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="645" windowWidth="27375" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="640" windowWidth="27380" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
@@ -2079,7 +2079,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2087,7 +2087,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2095,7 +2095,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2104,7 +2104,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2113,7 +2113,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2122,7 +2122,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2130,7 +2130,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2138,7 +2138,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2146,7 +2146,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2154,7 +2154,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2163,7 +2163,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2172,7 +2172,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2180,7 +2180,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2189,7 +2189,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2197,7 +2197,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2206,7 +2206,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2215,7 +2215,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2223,14 +2223,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3052,28 +3052,28 @@
   <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H476" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A568" sqref="A568"/>
+      <selection pane="bottomRight" activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="8" max="8" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>38</v>
       </c>
       <c r="N90" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="Q90" t="s">
         <v>107</v>
@@ -5938,7 +5938,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1101</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1102</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1103</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1104</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1105</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1106</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1107</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1108</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1109</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1110</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1111</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1112</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1113</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1114</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1115</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1116</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1117</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1118</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1119</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1120</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1121</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1122</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1123</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1124</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1125</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1126</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1127</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1128</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1129</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1130</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1131</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1132</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1133</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1134</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1135</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1136</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1137</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1138</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1139</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1140</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1141</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1142</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1143</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1144</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1145</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1146</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1147</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1148</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1149</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1150</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1151</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1152</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1153</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1154</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1155</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1156</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1157</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1158</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1159</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1160</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1161</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1162</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1163</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1164</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1165</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1166</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1167</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1168</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1169</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1170</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1171</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1172</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1173</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1174</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1175</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1176</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1177</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1178</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1179</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1180</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1181</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1182</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1183</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1184</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1185</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1186</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1187</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1188</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1189</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1190</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1191</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1192</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1193</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1194</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1195</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1196</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1197</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1198</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1199</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1200</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1201</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1202</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1203</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1204</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1205</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1206</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1207</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1208</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1209</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1210</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1211</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1212</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1213</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1214</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1215</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1216</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1217</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1218</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1219</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1220</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1221</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1222</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1223</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1224</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1225</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1226</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1227</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1228</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1229</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1230</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1231</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1232</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1233</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1234</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1235</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1236</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1237</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1238</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1239</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1240</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1241</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1242</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1243</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1244</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1245</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1246</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1247</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1248</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1249</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1250</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1251</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1252</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1253</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1254</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1255</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1256</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1257</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1258</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1259</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1260</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1261</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1262</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1263</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1264</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1265</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1266</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1267</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1268</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1269</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1270</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1271</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1272</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1273</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1274</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1275</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1276</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1277</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1278</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1279</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1280</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1281</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1282</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1283</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1284</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1285</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1286</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1287</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1288</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1289</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1290</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1291</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1292</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1293</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1294</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1295</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1296</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1297</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1298</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1299</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1300</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1301</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1302</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1303</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1304</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1305</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1306</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1307</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1308</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1309</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1310</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1311</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1312</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1313</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1314</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1315</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1316</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1317</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1318</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1319</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1320</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1321</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1322</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1323</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1324</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1325</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1326</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1327</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1328</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1329</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1330</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1331</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1332</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1333</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1334</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1335</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1336</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1337</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1338</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1339</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1340</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1341</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1342</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1343</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1344</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1345</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1346</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1347</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1348</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1349</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1350</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1351</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1352</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1353</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1354</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1355</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1356</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1357</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1358</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1359</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1360</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1361</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1362</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1363</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1364</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1365</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1366</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1367</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1368</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1369</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1370</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1371</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1372</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1373</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>1374</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1375</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>1376</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1377</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1378</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1379</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>1380</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1381</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1382</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1383</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1384</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1385</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1386</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1387</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1388</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1389</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1390</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1391</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>1392</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1393</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1394</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1395</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1396</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1397</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>1398</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1399</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>1400</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1401</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1402</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1403</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1404</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1405</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1406</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1407</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1408</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1409</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>1410</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1411</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1412</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1413</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>1414</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1415</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>1416</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1417</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1418</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1419</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1420</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1421</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1422</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>1423</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>1424</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1425</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>1426</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1427</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>1428</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>1429</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>1430</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>1431</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>1432</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>1433</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>1434</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1435</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>1436</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>1437</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>1438</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1439</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>1440</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1441</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1442</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>1443</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1444</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>1445</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1446</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>1447</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1448</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1449</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>1450</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1451</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>1452</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1453</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1454</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>1455</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>1456</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>1457</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1458</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>1459</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1460</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1461</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1462</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1463</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1464</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1465</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1466</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1467</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1468</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>1469</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1470</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1471</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>1472</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1473</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1474</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1475</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1476</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>1477</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>1478</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>1479</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>1480</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1481</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1482</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1483</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1484</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>1485</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>1486</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>1487</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>1488</v>
       </c>
@@ -18991,7 +18991,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>1489</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>1490</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1491</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>1492</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>1493</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>1494</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>1495</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>1496</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1497</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1498</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>1499</v>
       </c>
@@ -19331,7 +19331,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>1500</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1501</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1502</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1503</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>1504</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>1505</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1506</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>1507</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>1508</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>1509</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>1510</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1511</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1512</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>1513</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1514</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>1515</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>1516</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1517</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1518</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1519</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>1520</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1521</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1522</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1523</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>1524</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>1525</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>1526</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>1527</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>1528</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>1529</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>1530</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>1531</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>1532</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>1533</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>1534</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>1535</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>1536</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>1537</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>1538</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>1539</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>1540</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1541</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>1542</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>1543</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>1544</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>1545</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>1546</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>1547</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>1548</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>1549</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>1550</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>1551</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>1552</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1553</v>
       </c>
@@ -21107,7 +21107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1554</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>1555</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>1556</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>1557</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>1558</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>1559</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>1560</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1561</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1562</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>1563</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>1564</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>1565</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>1566</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>1567</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>1568</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>1569</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>1570</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1571</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>1572</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>1573</v>
       </c>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C94ED93-D6B3-4D1F-B1E0-E719AFD180E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EDB800-5E45-4C53-B4ED-28DFC921ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1425" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="825" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EDB800-5E45-4C53-B4ED-28DFC921ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A68BC-849B-47C3-B083-D477B7A8E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="825" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
@@ -3102,8 +3102,8 @@
   <dimension ref="A1:R580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A581" sqref="A581"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3394,7 +3394,7 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>679</v>
@@ -3423,7 +3423,7 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>679</v>
@@ -3452,7 +3452,7 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>679</v>
@@ -3481,7 +3481,7 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>679</v>
@@ -3510,7 +3510,7 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>679</v>
@@ -3539,7 +3539,7 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>679</v>
@@ -3568,7 +3568,7 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>679</v>
@@ -3600,7 +3600,7 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>679</v>
@@ -3632,7 +3632,7 @@
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>679</v>
@@ -3664,7 +3664,7 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>679</v>
@@ -3693,7 +3693,7 @@
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>679</v>
@@ -3722,7 +3722,7 @@
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>679</v>
@@ -3751,7 +3751,7 @@
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>679</v>
@@ -3780,7 +3780,7 @@
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>679</v>
@@ -3870,7 +3870,7 @@
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>683</v>
@@ -3899,7 +3899,7 @@
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>683</v>
@@ -3928,7 +3928,7 @@
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>683</v>
@@ -3957,7 +3957,7 @@
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>683</v>
@@ -3986,7 +3986,7 @@
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>683</v>
@@ -4015,7 +4015,7 @@
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>683</v>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A68BC-849B-47C3-B083-D477B7A8E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57006C34-4691-433C-95EB-F7841F4F768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SAF-T_Schema_v_2.00" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAF-T_Schema_v_2.00'!$A$1:$R$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAF-T_Schema_v_2.00'!$A$1:$R$580</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4704" uniqueCount="692">
   <si>
     <t>seq</t>
   </si>
@@ -2115,6 +2115,14 @@
   </si>
   <si>
     <t>Any Elements For Extension</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Supplier</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Owner</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3103,7 +3111,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="L588" sqref="L588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5166,11 +5174,8 @@
       <c r="J66" t="s">
         <v>38</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>77</v>
-      </c>
-      <c r="N66" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.4">
@@ -5180,11 +5185,8 @@
       <c r="B67" t="s">
         <v>121</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>77</v>
-      </c>
-      <c r="D67" t="s">
-        <v>78</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -5209,11 +5211,8 @@
       <c r="B68" t="s">
         <v>121</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>78</v>
       </c>
       <c r="E68" t="s">
         <v>35</v>
@@ -5241,11 +5240,8 @@
       <c r="B69" t="s">
         <v>121</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>77</v>
-      </c>
-      <c r="D69" t="s">
-        <v>78</v>
       </c>
       <c r="E69" t="s">
         <v>49</v>
@@ -5279,11 +5275,8 @@
       <c r="B70" t="s">
         <v>121</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>77</v>
-      </c>
-      <c r="D70" t="s">
-        <v>78</v>
       </c>
       <c r="E70" t="s">
         <v>23</v>
@@ -5317,11 +5310,8 @@
       <c r="B71" t="s">
         <v>121</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>77</v>
-      </c>
-      <c r="D71" t="s">
-        <v>78</v>
       </c>
       <c r="E71" t="s">
         <v>74</v>
@@ -5358,11 +5348,8 @@
       <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>77</v>
-      </c>
-      <c r="D72" t="s">
-        <v>78</v>
       </c>
       <c r="E72" t="s">
         <v>35</v>
@@ -5390,11 +5377,8 @@
       <c r="B73" t="s">
         <v>121</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>77</v>
-      </c>
-      <c r="D73" t="s">
-        <v>78</v>
       </c>
       <c r="E73" t="s">
         <v>35</v>
@@ -5422,11 +5406,8 @@
       <c r="B74" t="s">
         <v>329</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>77</v>
-      </c>
-      <c r="D74" t="s">
-        <v>78</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -5498,11 +5479,8 @@
       <c r="J76" t="s">
         <v>38</v>
       </c>
-      <c r="M76" t="s">
-        <v>81</v>
-      </c>
       <c r="N76" t="s">
-        <v>78</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.4">
@@ -5512,11 +5490,8 @@
       <c r="B77" t="s">
         <v>121</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>81</v>
-      </c>
-      <c r="D77" t="s">
-        <v>78</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -5541,11 +5516,8 @@
       <c r="B78" t="s">
         <v>121</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>81</v>
-      </c>
-      <c r="D78" t="s">
-        <v>78</v>
       </c>
       <c r="E78" t="s">
         <v>35</v>
@@ -5573,11 +5545,8 @@
       <c r="B79" t="s">
         <v>121</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>81</v>
-      </c>
-      <c r="D79" t="s">
-        <v>78</v>
       </c>
       <c r="E79" t="s">
         <v>49</v>
@@ -5611,11 +5580,8 @@
       <c r="B80" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>81</v>
-      </c>
-      <c r="D80" t="s">
-        <v>78</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
@@ -5649,11 +5615,8 @@
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>81</v>
-      </c>
-      <c r="D81" t="s">
-        <v>78</v>
       </c>
       <c r="E81" t="s">
         <v>74</v>
@@ -5690,11 +5653,8 @@
       <c r="B82" t="s">
         <v>121</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>81</v>
-      </c>
-      <c r="D82" t="s">
-        <v>78</v>
       </c>
       <c r="E82" t="s">
         <v>35</v>
@@ -5722,11 +5682,8 @@
       <c r="B83" t="s">
         <v>121</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>81</v>
-      </c>
-      <c r="D83" t="s">
-        <v>78</v>
       </c>
       <c r="E83" t="s">
         <v>35</v>
@@ -5754,11 +5711,8 @@
       <c r="B84" t="s">
         <v>329</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>81</v>
-      </c>
-      <c r="D84" t="s">
-        <v>78</v>
       </c>
       <c r="E84" t="s">
         <v>23</v>
@@ -7843,11 +7797,8 @@
       <c r="L149" t="s">
         <v>43</v>
       </c>
-      <c r="O149" t="s">
-        <v>185</v>
-      </c>
       <c r="P149" t="s">
-        <v>78</v>
+        <v>691</v>
       </c>
       <c r="Q149" t="s">
         <v>63</v>
@@ -8407,11 +8358,8 @@
       <c r="B167" t="s">
         <v>121</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>185</v>
-      </c>
-      <c r="D167" t="s">
-        <v>78</v>
       </c>
       <c r="E167" t="s">
         <v>19</v>
@@ -8436,11 +8384,8 @@
       <c r="B168" t="s">
         <v>121</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>185</v>
-      </c>
-      <c r="D168" t="s">
-        <v>78</v>
       </c>
       <c r="E168" t="s">
         <v>35</v>
@@ -8465,11 +8410,8 @@
       <c r="B169" t="s">
         <v>121</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>185</v>
-      </c>
-      <c r="D169" t="s">
-        <v>78</v>
       </c>
       <c r="E169" t="s">
         <v>23</v>
@@ -8503,11 +8445,8 @@
       <c r="B170" t="s">
         <v>121</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>185</v>
-      </c>
-      <c r="D170" t="s">
-        <v>78</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
@@ -8748,11 +8687,8 @@
       <c r="J177" t="s">
         <v>38</v>
       </c>
-      <c r="M177" t="s">
-        <v>81</v>
-      </c>
       <c r="N177" t="s">
-        <v>78</v>
+        <v>690</v>
       </c>
       <c r="R177" t="s">
         <v>149</v>
@@ -10524,11 +10460,8 @@
       <c r="L231" t="s">
         <v>43</v>
       </c>
-      <c r="O231" t="s">
+      <c r="P231" t="s">
         <v>77</v>
-      </c>
-      <c r="P231" t="s">
-        <v>78</v>
       </c>
       <c r="Q231" t="s">
         <v>63</v>
@@ -10565,11 +10498,8 @@
       <c r="L232" t="s">
         <v>43</v>
       </c>
-      <c r="O232" t="s">
+      <c r="P232" t="s">
         <v>81</v>
-      </c>
-      <c r="P232" t="s">
-        <v>78</v>
       </c>
       <c r="Q232" t="s">
         <v>63</v>
@@ -10874,11 +10804,8 @@
       <c r="L241" t="s">
         <v>43</v>
       </c>
-      <c r="O241" t="s">
+      <c r="P241" t="s">
         <v>77</v>
-      </c>
-      <c r="P241" t="s">
-        <v>78</v>
       </c>
       <c r="Q241" t="s">
         <v>63</v>
@@ -10915,11 +10842,8 @@
       <c r="L242" t="s">
         <v>43</v>
       </c>
-      <c r="O242" t="s">
+      <c r="P242" t="s">
         <v>81</v>
-      </c>
-      <c r="P242" t="s">
-        <v>78</v>
       </c>
       <c r="Q242" t="s">
         <v>63</v>
@@ -12309,11 +12233,8 @@
       <c r="L285" t="s">
         <v>43</v>
       </c>
-      <c r="O285" t="s">
+      <c r="P285" t="s">
         <v>77</v>
-      </c>
-      <c r="P285" t="s">
-        <v>78</v>
       </c>
       <c r="Q285" t="s">
         <v>63</v>
@@ -12350,11 +12271,8 @@
       <c r="L286" t="s">
         <v>43</v>
       </c>
-      <c r="O286" t="s">
+      <c r="P286" t="s">
         <v>81</v>
-      </c>
-      <c r="P286" t="s">
-        <v>78</v>
       </c>
       <c r="Q286" t="s">
         <v>63</v>
@@ -13704,11 +13622,8 @@
       <c r="L327" t="s">
         <v>43</v>
       </c>
-      <c r="O327" t="s">
+      <c r="P327" t="s">
         <v>77</v>
-      </c>
-      <c r="P327" t="s">
-        <v>78</v>
       </c>
       <c r="Q327" t="s">
         <v>63</v>
@@ -13745,11 +13660,8 @@
       <c r="L328" t="s">
         <v>43</v>
       </c>
-      <c r="O328" t="s">
+      <c r="P328" t="s">
         <v>81</v>
-      </c>
-      <c r="P328" t="s">
-        <v>78</v>
       </c>
       <c r="Q328" t="s">
         <v>63</v>
@@ -14503,11 +14415,8 @@
       <c r="J350" t="s">
         <v>38</v>
       </c>
-      <c r="M350" t="s">
-        <v>81</v>
-      </c>
       <c r="N350" t="s">
-        <v>78</v>
+        <v>690</v>
       </c>
       <c r="R350" t="s">
         <v>358</v>
@@ -15026,11 +14935,8 @@
       <c r="L367" t="s">
         <v>43</v>
       </c>
-      <c r="O367" t="s">
+      <c r="P367" t="s">
         <v>77</v>
-      </c>
-      <c r="P367" t="s">
-        <v>78</v>
       </c>
       <c r="Q367" t="s">
         <v>63</v>
@@ -15244,11 +15150,8 @@
       <c r="L374" t="s">
         <v>43</v>
       </c>
-      <c r="O374" t="s">
+      <c r="P374" t="s">
         <v>81</v>
-      </c>
-      <c r="P374" t="s">
-        <v>78</v>
       </c>
       <c r="Q374" t="s">
         <v>63</v>
@@ -21955,7 +21858,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R578" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R580" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:R45">
     <sortCondition ref="A36:A45"/>
   </sortState>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57006C34-4691-433C-95EB-F7841F4F768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A02ECF-33CF-4A76-9D6E-D0F734BF4C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4704" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="696">
   <si>
     <t>seq</t>
   </si>
@@ -2123,6 +2123,22 @@
   </si>
   <si>
     <t>Owner</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Street Name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Additional Address Detail</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>enumeration</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>StreetAddress PostalAddress BillingAddress ShipToAddress ShipFromAddress"</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3107,11 +3123,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R580"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L588" sqref="L588"/>
+      <selection pane="bottomLeft" activeCell="Q480" sqref="Q480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3185,7 +3202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3214,7 +3231,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3246,7 +3263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3278,7 +3295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3307,7 +3324,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3336,7 +3353,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3365,7 +3382,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3397,7 +3414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3426,7 +3443,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3455,7 +3472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -3484,7 +3501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -3542,7 +3559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -3571,7 +3588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -3603,7 +3620,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -3635,7 +3652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -3696,7 +3713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -3754,7 +3771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -3783,7 +3800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -3818,7 +3835,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3844,7 +3861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3873,7 +3890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -3902,7 +3919,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -3931,7 +3948,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -3960,7 +3977,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -3989,7 +4006,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -4018,7 +4035,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -4050,7 +4067,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -4079,7 +4096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -4143,7 +4160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -4178,7 +4195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -4207,7 +4224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -4233,7 +4250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -4262,7 +4279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -4288,7 +4305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -4323,7 +4340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -4358,7 +4375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -4393,7 +4410,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -4428,7 +4445,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -4463,7 +4480,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -4498,7 +4515,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -4562,7 +4579,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -4591,7 +4608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -4620,7 +4637,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -4646,7 +4663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -4681,7 +4698,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -4716,7 +4733,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -4742,7 +4759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -4777,7 +4794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -4812,7 +4829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -4838,7 +4855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -4867,7 +4884,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -4893,7 +4910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -4928,7 +4945,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -4957,7 +4974,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -4983,7 +5000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -5018,7 +5035,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -5053,7 +5070,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -5085,7 +5102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -5123,7 +5140,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -5149,7 +5166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -5178,7 +5195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -5204,7 +5221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -5233,7 +5250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -5268,7 +5285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -5303,7 +5320,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -5341,7 +5358,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -5370,7 +5387,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -5399,7 +5416,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -5428,7 +5445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -5454,7 +5471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -5483,7 +5500,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -5509,7 +5526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -5538,7 +5555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -5573,7 +5590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -5608,7 +5625,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -5646,7 +5663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -5675,7 +5692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -5704,7 +5721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -5733,7 +5750,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -5759,7 +5776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -5788,7 +5805,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -5814,7 +5831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -5849,7 +5866,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -5884,7 +5901,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -5913,7 +5930,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -5939,7 +5956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -5974,7 +5991,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -6009,7 +6026,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -6044,7 +6061,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -6079,7 +6096,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -6108,7 +6125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -6143,7 +6160,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -6169,7 +6186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -6204,7 +6221,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -6239,7 +6256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -6268,7 +6285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1101</v>
       </c>
@@ -6297,7 +6314,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>1102</v>
       </c>
@@ -6323,7 +6340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>1103</v>
       </c>
@@ -6358,7 +6375,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>1104</v>
       </c>
@@ -6393,7 +6410,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>1105</v>
       </c>
@@ -6422,7 +6439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>1106</v>
       </c>
@@ -6451,7 +6468,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>1107</v>
       </c>
@@ -6477,7 +6494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>1108</v>
       </c>
@@ -6512,7 +6529,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>1109</v>
       </c>
@@ -6547,7 +6564,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>1110</v>
       </c>
@@ -6582,7 +6599,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>1111</v>
       </c>
@@ -6617,7 +6634,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>1112</v>
       </c>
@@ -6646,7 +6663,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>1113</v>
       </c>
@@ -6675,7 +6692,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>1114</v>
       </c>
@@ -6701,7 +6718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>1115</v>
       </c>
@@ -6736,7 +6753,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>1116</v>
       </c>
@@ -6771,7 +6788,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>1117</v>
       </c>
@@ -6797,7 +6814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>1118</v>
       </c>
@@ -6826,7 +6843,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>1119</v>
       </c>
@@ -6852,7 +6869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>1120</v>
       </c>
@@ -6887,7 +6904,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>1121</v>
       </c>
@@ -6922,7 +6939,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>1122</v>
       </c>
@@ -6957,7 +6974,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>1123</v>
       </c>
@@ -6992,7 +7009,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>1124</v>
       </c>
@@ -7027,7 +7044,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>1125</v>
       </c>
@@ -7062,7 +7079,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>1126</v>
       </c>
@@ -7097,7 +7114,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>1127</v>
       </c>
@@ -7135,7 +7152,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>1128</v>
       </c>
@@ -7167,7 +7184,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>1129</v>
       </c>
@@ -7196,7 +7213,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>1130</v>
       </c>
@@ -7225,7 +7242,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>1131</v>
       </c>
@@ -7254,7 +7271,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>1132</v>
       </c>
@@ -7289,7 +7306,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>1133</v>
       </c>
@@ -7324,7 +7341,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>1134</v>
       </c>
@@ -7350,7 +7367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>1135</v>
       </c>
@@ -7379,7 +7396,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>1136</v>
       </c>
@@ -7405,7 +7422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>1137</v>
       </c>
@@ -7440,7 +7457,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>1138</v>
       </c>
@@ -7466,7 +7483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>1139</v>
       </c>
@@ -7495,7 +7512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>1140</v>
       </c>
@@ -7521,7 +7538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>1141</v>
       </c>
@@ -7556,7 +7573,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>1142</v>
       </c>
@@ -7591,7 +7608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>1143</v>
       </c>
@@ -7629,7 +7646,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>1144</v>
       </c>
@@ -7664,7 +7681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>1145</v>
       </c>
@@ -7699,7 +7716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>1146</v>
       </c>
@@ -7734,7 +7751,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>1147</v>
       </c>
@@ -7769,7 +7786,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>1148</v>
       </c>
@@ -7807,7 +7824,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>1149</v>
       </c>
@@ -7839,7 +7856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>1150</v>
       </c>
@@ -7874,7 +7891,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>1151</v>
       </c>
@@ -7909,7 +7926,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>1152</v>
       </c>
@@ -7944,7 +7961,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>1153</v>
       </c>
@@ -7979,7 +7996,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>1154</v>
       </c>
@@ -8014,7 +8031,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>1155</v>
       </c>
@@ -8043,7 +8060,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>1156</v>
       </c>
@@ -8072,7 +8089,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>1157</v>
       </c>
@@ -8101,7 +8118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>1158</v>
       </c>
@@ -8130,7 +8147,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>1159</v>
       </c>
@@ -8165,7 +8182,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>1160</v>
       </c>
@@ -8200,7 +8217,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>1161</v>
       </c>
@@ -8226,7 +8243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>1162</v>
       </c>
@@ -8261,7 +8278,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>1163</v>
       </c>
@@ -8296,7 +8313,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>1164</v>
       </c>
@@ -8322,7 +8339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>1165</v>
       </c>
@@ -8351,7 +8368,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>1166</v>
       </c>
@@ -8377,7 +8394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>1167</v>
       </c>
@@ -8403,7 +8420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>1168</v>
       </c>
@@ -8438,7 +8455,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>1169</v>
       </c>
@@ -8473,7 +8490,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>1170</v>
       </c>
@@ -8499,7 +8516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>1171</v>
       </c>
@@ -8528,7 +8545,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>1172</v>
       </c>
@@ -8554,7 +8571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>1173</v>
       </c>
@@ -8589,7 +8606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>1174</v>
       </c>
@@ -8627,7 +8644,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>1175</v>
       </c>
@@ -8662,7 +8679,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>1176</v>
       </c>
@@ -8694,7 +8711,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>1177</v>
       </c>
@@ -8729,7 +8746,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>1178</v>
       </c>
@@ -8764,7 +8781,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>1179</v>
       </c>
@@ -8799,7 +8816,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>1180</v>
       </c>
@@ -8831,7 +8848,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>1181</v>
       </c>
@@ -8860,7 +8877,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>1182</v>
       </c>
@@ -8889,7 +8906,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>1183</v>
       </c>
@@ -8918,7 +8935,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>1184</v>
       </c>
@@ -8944,7 +8961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>1185</v>
       </c>
@@ -8979,7 +8996,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>1186</v>
       </c>
@@ -9014,7 +9031,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>1187</v>
       </c>
@@ -9049,7 +9066,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>1188</v>
       </c>
@@ -9084,7 +9101,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>1189</v>
       </c>
@@ -9119,7 +9136,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>1190</v>
       </c>
@@ -9148,7 +9165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>1191</v>
       </c>
@@ -9183,7 +9200,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>1192</v>
       </c>
@@ -9218,7 +9235,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>1193</v>
       </c>
@@ -9253,7 +9270,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>1194</v>
       </c>
@@ -9288,7 +9305,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>1195</v>
       </c>
@@ -9323,7 +9340,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>1196</v>
       </c>
@@ -9358,7 +9375,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>1197</v>
       </c>
@@ -9393,7 +9410,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>1198</v>
       </c>
@@ -9428,7 +9445,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>1199</v>
       </c>
@@ -9460,7 +9477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>1200</v>
       </c>
@@ -9495,7 +9512,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>1201</v>
       </c>
@@ -9521,7 +9538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>1202</v>
       </c>
@@ -9556,7 +9573,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>1203</v>
       </c>
@@ -9591,7 +9608,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>1204</v>
       </c>
@@ -9620,7 +9637,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>1205</v>
       </c>
@@ -9649,7 +9666,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>1206</v>
       </c>
@@ -9675,7 +9692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>1207</v>
       </c>
@@ -9710,7 +9727,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>1208</v>
       </c>
@@ -9745,7 +9762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>1209</v>
       </c>
@@ -9771,7 +9788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>1210</v>
       </c>
@@ -9806,7 +9823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>1211</v>
       </c>
@@ -9841,7 +9858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>1212</v>
       </c>
@@ -9876,7 +9893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>1213</v>
       </c>
@@ -9905,7 +9922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>1214</v>
       </c>
@@ -9931,7 +9948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>1215</v>
       </c>
@@ -9966,7 +9983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>1216</v>
       </c>
@@ -10001,7 +10018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>1217</v>
       </c>
@@ -10036,7 +10053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>1218</v>
       </c>
@@ -10065,7 +10082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>1219</v>
       </c>
@@ -10091,7 +10108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>1220</v>
       </c>
@@ -10126,7 +10143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>1221</v>
       </c>
@@ -10158,7 +10175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>1222</v>
       </c>
@@ -10187,7 +10204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>1223</v>
       </c>
@@ -10222,7 +10239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>1224</v>
       </c>
@@ -10257,7 +10274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>1225</v>
       </c>
@@ -10292,7 +10309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>1226</v>
       </c>
@@ -10327,7 +10344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>1227</v>
       </c>
@@ -10362,7 +10379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>1228</v>
       </c>
@@ -10397,7 +10414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>1229</v>
       </c>
@@ -10432,7 +10449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>1230</v>
       </c>
@@ -10470,7 +10487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>1231</v>
       </c>
@@ -10508,7 +10525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>1232</v>
       </c>
@@ -10543,7 +10560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>1233</v>
       </c>
@@ -10572,7 +10589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>1234</v>
       </c>
@@ -10598,7 +10615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>1235</v>
       </c>
@@ -10633,7 +10650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>1236</v>
       </c>
@@ -10671,7 +10688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>1237</v>
       </c>
@@ -10706,7 +10723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>1238</v>
       </c>
@@ -10741,7 +10758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>1239</v>
       </c>
@@ -10776,7 +10793,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>1240</v>
       </c>
@@ -10814,7 +10831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>1241</v>
       </c>
@@ -10852,7 +10869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>1242</v>
       </c>
@@ -10887,7 +10904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>1243</v>
       </c>
@@ -10916,7 +10933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>1244</v>
       </c>
@@ -10948,7 +10965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>1245</v>
       </c>
@@ -10977,7 +10994,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>1246</v>
       </c>
@@ -11003,7 +11020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>1247</v>
       </c>
@@ -11038,7 +11055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>1248</v>
       </c>
@@ -11073,7 +11090,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>1249</v>
       </c>
@@ -11099,7 +11116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>1250</v>
       </c>
@@ -11131,7 +11148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>1251</v>
       </c>
@@ -11166,7 +11183,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>1252</v>
       </c>
@@ -11201,7 +11218,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>1253</v>
       </c>
@@ -11233,7 +11250,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>1254</v>
       </c>
@@ -11259,7 +11276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>1255</v>
       </c>
@@ -11291,7 +11308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>1256</v>
       </c>
@@ -11326,7 +11343,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>1257</v>
       </c>
@@ -11361,7 +11378,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>1258</v>
       </c>
@@ -11393,7 +11410,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>1259</v>
       </c>
@@ -11419,7 +11436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>1260</v>
       </c>
@@ -11451,7 +11468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>1261</v>
       </c>
@@ -11486,7 +11503,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>1262</v>
       </c>
@@ -11521,7 +11538,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>1263</v>
       </c>
@@ -11550,7 +11567,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>1264</v>
       </c>
@@ -11576,7 +11593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>1265</v>
       </c>
@@ -11611,7 +11628,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>1266</v>
       </c>
@@ -11643,7 +11660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>1267</v>
       </c>
@@ -11672,7 +11689,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>1268</v>
       </c>
@@ -11710,7 +11727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>1269</v>
       </c>
@@ -11745,7 +11762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>1270</v>
       </c>
@@ -11780,7 +11797,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>1271</v>
       </c>
@@ -11815,7 +11832,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>1272</v>
       </c>
@@ -11850,7 +11867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>1273</v>
       </c>
@@ -11885,7 +11902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>1274</v>
       </c>
@@ -11920,7 +11937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>1275</v>
       </c>
@@ -11949,7 +11966,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>1276</v>
       </c>
@@ -11978,7 +11995,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>1277</v>
       </c>
@@ -12007,7 +12024,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>1278</v>
       </c>
@@ -12036,7 +12053,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>1279</v>
       </c>
@@ -12062,7 +12079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>1280</v>
       </c>
@@ -12097,7 +12114,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>1281</v>
       </c>
@@ -12132,7 +12149,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>1282</v>
       </c>
@@ -12170,7 +12187,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>1283</v>
       </c>
@@ -12205,7 +12222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>1284</v>
       </c>
@@ -12243,7 +12260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>1285</v>
       </c>
@@ -12281,7 +12298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>1286</v>
       </c>
@@ -12316,7 +12333,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>1287</v>
       </c>
@@ -12351,7 +12368,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>1288</v>
       </c>
@@ -12380,7 +12397,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>1289</v>
       </c>
@@ -12415,7 +12432,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>1290</v>
       </c>
@@ -12447,7 +12464,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>1291</v>
       </c>
@@ -12476,7 +12493,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>1292</v>
       </c>
@@ -12502,7 +12519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>1293</v>
       </c>
@@ -12537,7 +12554,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>1294</v>
       </c>
@@ -12572,7 +12589,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>1295</v>
       </c>
@@ -12607,7 +12624,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>1296</v>
       </c>
@@ -12642,7 +12659,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>1297</v>
       </c>
@@ -12668,7 +12685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>1298</v>
       </c>
@@ -12703,7 +12720,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>1299</v>
       </c>
@@ -12738,7 +12755,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>1300</v>
       </c>
@@ -12773,7 +12790,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>1301</v>
       </c>
@@ -12799,7 +12816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>1302</v>
       </c>
@@ -12831,7 +12848,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>1303</v>
       </c>
@@ -12866,7 +12883,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>1304</v>
       </c>
@@ -12901,7 +12918,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>1305</v>
       </c>
@@ -12930,7 +12947,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>1306</v>
       </c>
@@ -12956,7 +12973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>1307</v>
       </c>
@@ -12991,7 +13008,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>1308</v>
       </c>
@@ -13026,7 +13043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>1309</v>
       </c>
@@ -13061,7 +13078,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>1310</v>
       </c>
@@ -13096,7 +13113,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>1311</v>
       </c>
@@ -13131,7 +13148,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>1312</v>
       </c>
@@ -13169,7 +13186,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>1313</v>
       </c>
@@ -13204,7 +13221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>1314</v>
       </c>
@@ -13239,7 +13256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>1315</v>
       </c>
@@ -13268,7 +13285,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>1316</v>
       </c>
@@ -13297,7 +13314,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>1317</v>
       </c>
@@ -13326,7 +13343,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>1318</v>
       </c>
@@ -13352,7 +13369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>1319</v>
       </c>
@@ -13387,7 +13404,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>1320</v>
       </c>
@@ -13422,7 +13439,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>1321</v>
       </c>
@@ -13457,7 +13474,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>1322</v>
       </c>
@@ -13483,7 +13500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>1323</v>
       </c>
@@ -13518,7 +13535,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>1324</v>
       </c>
@@ -13556,7 +13573,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>1325</v>
       </c>
@@ -13594,7 +13611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>1326</v>
       </c>
@@ -13632,7 +13649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>1327</v>
       </c>
@@ -13670,7 +13687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>1328</v>
       </c>
@@ -13705,7 +13722,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>1329</v>
       </c>
@@ -13740,7 +13757,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>1330</v>
       </c>
@@ -13778,7 +13795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>1331</v>
       </c>
@@ -13816,7 +13833,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>1332</v>
       </c>
@@ -13851,7 +13868,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>1333</v>
       </c>
@@ -13889,7 +13906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>1334</v>
       </c>
@@ -13924,7 +13941,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>1335</v>
       </c>
@@ -13959,7 +13976,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>1336</v>
       </c>
@@ -13997,7 +14014,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>1337</v>
       </c>
@@ -14032,7 +14049,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>1338</v>
       </c>
@@ -14064,7 +14081,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>1339</v>
       </c>
@@ -14093,7 +14110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>1340</v>
       </c>
@@ -14122,7 +14139,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>1341</v>
       </c>
@@ -14154,7 +14171,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>1342</v>
       </c>
@@ -14183,7 +14200,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>1343</v>
       </c>
@@ -14209,7 +14226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>1344</v>
       </c>
@@ -14247,7 +14264,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>1345</v>
       </c>
@@ -14285,7 +14302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>1346</v>
       </c>
@@ -14320,7 +14337,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>1347</v>
       </c>
@@ -14355,7 +14372,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>1348</v>
       </c>
@@ -14390,7 +14407,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>1349</v>
       </c>
@@ -14422,7 +14439,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>1350</v>
       </c>
@@ -14457,7 +14474,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>1351</v>
       </c>
@@ -14489,7 +14506,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>1352</v>
       </c>
@@ -14518,7 +14535,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>1353</v>
       </c>
@@ -14547,7 +14564,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>1354</v>
       </c>
@@ -14576,7 +14593,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>1355</v>
       </c>
@@ -14602,7 +14619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>1356</v>
       </c>
@@ -14637,7 +14654,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>1357</v>
       </c>
@@ -14672,7 +14689,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>1358</v>
       </c>
@@ -14707,7 +14724,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>1359</v>
       </c>
@@ -14742,7 +14759,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>1360</v>
       </c>
@@ -14771,7 +14788,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>1361</v>
       </c>
@@ -14797,7 +14814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>1362</v>
       </c>
@@ -14826,7 +14843,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>1363</v>
       </c>
@@ -14852,7 +14869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>1364</v>
       </c>
@@ -14881,7 +14898,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>1365</v>
       </c>
@@ -14907,7 +14924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>1366</v>
       </c>
@@ -14945,7 +14962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>1367</v>
       </c>
@@ -14980,7 +14997,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>1368</v>
       </c>
@@ -15012,7 +15029,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>1369</v>
       </c>
@@ -15041,7 +15058,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>1370</v>
       </c>
@@ -15067,7 +15084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>1371</v>
       </c>
@@ -15096,7 +15113,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>1372</v>
       </c>
@@ -15122,7 +15139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>1373</v>
       </c>
@@ -15160,7 +15177,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>1374</v>
       </c>
@@ -15195,7 +15212,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>1375</v>
       </c>
@@ -15227,7 +15244,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>1376</v>
       </c>
@@ -15253,7 +15270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>1377</v>
       </c>
@@ -15282,7 +15299,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>1378</v>
       </c>
@@ -15311,7 +15328,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>1379</v>
       </c>
@@ -15346,7 +15363,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>1380</v>
       </c>
@@ -15381,7 +15398,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>1381</v>
       </c>
@@ -15413,7 +15430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>1382</v>
       </c>
@@ -15442,7 +15459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>1383</v>
       </c>
@@ -15474,7 +15491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>1384</v>
       </c>
@@ -15509,7 +15526,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>1385</v>
       </c>
@@ -15544,7 +15561,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>1386</v>
       </c>
@@ -15579,7 +15596,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>1387</v>
       </c>
@@ -15614,7 +15631,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>1388</v>
       </c>
@@ -15649,7 +15666,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>1389</v>
       </c>
@@ -15684,7 +15701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>1390</v>
       </c>
@@ -15719,7 +15736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>1391</v>
       </c>
@@ -15754,7 +15771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>1392</v>
       </c>
@@ -15789,7 +15806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>1393</v>
       </c>
@@ -15824,7 +15841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>1394</v>
       </c>
@@ -15859,7 +15876,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>1395</v>
       </c>
@@ -15888,7 +15905,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>1396</v>
       </c>
@@ -15917,7 +15934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>1397</v>
       </c>
@@ -15943,7 +15960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>1398</v>
       </c>
@@ -15978,7 +15995,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>1399</v>
       </c>
@@ -16013,7 +16030,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>1400</v>
       </c>
@@ -16048,7 +16065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>1401</v>
       </c>
@@ -16080,7 +16097,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>1402</v>
       </c>
@@ -16109,7 +16126,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>1403</v>
       </c>
@@ -16144,7 +16161,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>1404</v>
       </c>
@@ -16179,7 +16196,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>1405</v>
       </c>
@@ -16214,7 +16231,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>1406</v>
       </c>
@@ -16249,7 +16266,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>1407</v>
       </c>
@@ -16284,7 +16301,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>1408</v>
       </c>
@@ -16319,7 +16336,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>1409</v>
       </c>
@@ -16354,7 +16371,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>1410</v>
       </c>
@@ -16386,7 +16403,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>1411</v>
       </c>
@@ -16415,7 +16432,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>1412</v>
       </c>
@@ -16444,7 +16461,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>1413</v>
       </c>
@@ -16476,7 +16493,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>1414</v>
       </c>
@@ -16502,7 +16519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>1415</v>
       </c>
@@ -16537,7 +16554,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>1416</v>
       </c>
@@ -16572,7 +16589,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>1417</v>
       </c>
@@ -16601,7 +16618,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>1418</v>
       </c>
@@ -16636,7 +16653,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>1419</v>
       </c>
@@ -16671,7 +16688,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>1420</v>
       </c>
@@ -16697,7 +16714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>1421</v>
       </c>
@@ -16732,7 +16749,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>1422</v>
       </c>
@@ -16767,7 +16784,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>1423</v>
       </c>
@@ -16802,7 +16819,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>1424</v>
       </c>
@@ -16837,7 +16854,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>1425</v>
       </c>
@@ -16872,7 +16889,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>1426</v>
       </c>
@@ -16904,7 +16921,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>1427</v>
       </c>
@@ -16939,7 +16956,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>1428</v>
       </c>
@@ -16974,7 +16991,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>1429</v>
       </c>
@@ -17003,7 +17020,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>1430</v>
       </c>
@@ -17038,7 +17055,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>1431</v>
       </c>
@@ -17070,7 +17087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>1432</v>
       </c>
@@ -17099,7 +17116,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>1433</v>
       </c>
@@ -17128,7 +17145,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>1434</v>
       </c>
@@ -17157,7 +17174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>1435</v>
       </c>
@@ -17186,7 +17203,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>1436</v>
       </c>
@@ -17215,7 +17232,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>1437</v>
       </c>
@@ -17241,7 +17258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>1438</v>
       </c>
@@ -17276,7 +17293,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>1439</v>
       </c>
@@ -17311,7 +17328,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>1440</v>
       </c>
@@ -17337,7 +17354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>1441</v>
       </c>
@@ -17372,7 +17389,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>1442</v>
       </c>
@@ -17407,7 +17424,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>1443</v>
       </c>
@@ -17442,7 +17459,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>1444</v>
       </c>
@@ -17477,7 +17494,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>1445</v>
       </c>
@@ -17503,7 +17520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>1446</v>
       </c>
@@ -17538,7 +17555,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>1447</v>
       </c>
@@ -17573,7 +17590,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>1448</v>
       </c>
@@ -17608,7 +17625,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>1449</v>
       </c>
@@ -17643,7 +17660,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>1450</v>
       </c>
@@ -17672,7 +17689,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>1451</v>
       </c>
@@ -17707,7 +17724,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>1452</v>
       </c>
@@ -17742,7 +17759,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>1453</v>
       </c>
@@ -17777,7 +17794,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>1454</v>
       </c>
@@ -17812,7 +17829,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>1455</v>
       </c>
@@ -17847,7 +17864,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>1456</v>
       </c>
@@ -17879,7 +17896,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>1457</v>
       </c>
@@ -17908,7 +17925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>1458</v>
       </c>
@@ -17943,7 +17960,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>1459</v>
       </c>
@@ -17978,7 +17995,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>1460</v>
       </c>
@@ -18010,7 +18027,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>1461</v>
       </c>
@@ -18039,7 +18056,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>1462</v>
       </c>
@@ -18074,7 +18091,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>1463</v>
       </c>
@@ -18109,7 +18126,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>1464</v>
       </c>
@@ -18144,7 +18161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>1465</v>
       </c>
@@ -18179,7 +18196,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>1466</v>
       </c>
@@ -18214,7 +18231,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>1467</v>
       </c>
@@ -18246,7 +18263,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>1468</v>
       </c>
@@ -18281,7 +18298,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>1469</v>
       </c>
@@ -18376,6 +18393,9 @@
       <c r="Q472" t="s">
         <v>52</v>
       </c>
+      <c r="R472" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A473">
@@ -18408,6 +18428,9 @@
       <c r="Q473" t="s">
         <v>41</v>
       </c>
+      <c r="R473" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A474">
@@ -18440,6 +18463,9 @@
       <c r="Q474" t="s">
         <v>52</v>
       </c>
+      <c r="R474" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A475">
@@ -18472,6 +18498,9 @@
       <c r="Q475" t="s">
         <v>63</v>
       </c>
+      <c r="R475" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A476">
@@ -18504,6 +18533,9 @@
       <c r="Q476" t="s">
         <v>63</v>
       </c>
+      <c r="R476" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A477">
@@ -18536,6 +18568,9 @@
       <c r="Q477" t="s">
         <v>41</v>
       </c>
+      <c r="R477" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A478">
@@ -18632,11 +18667,17 @@
       <c r="J480" t="s">
         <v>341</v>
       </c>
+      <c r="L480" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>695</v>
+      </c>
       <c r="R480" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>1480</v>
       </c>
@@ -18665,7 +18706,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>1481</v>
       </c>
@@ -18700,7 +18741,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>1482</v>
       </c>
@@ -18735,7 +18776,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>1483</v>
       </c>
@@ -18770,7 +18811,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>1484</v>
       </c>
@@ -18805,7 +18846,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>1485</v>
       </c>
@@ -18840,7 +18881,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>1486</v>
       </c>
@@ -18869,7 +18910,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>1487</v>
       </c>
@@ -18904,7 +18945,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>1488</v>
       </c>
@@ -18936,7 +18977,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>1489</v>
       </c>
@@ -18962,7 +19003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>1490</v>
       </c>
@@ -18997,7 +19038,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>1491</v>
       </c>
@@ -19032,7 +19073,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>1492</v>
       </c>
@@ -19064,7 +19105,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>1493</v>
       </c>
@@ -19093,7 +19134,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>1494</v>
       </c>
@@ -19122,7 +19163,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>1495</v>
       </c>
@@ -19157,7 +19198,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>1496</v>
       </c>
@@ -19192,7 +19233,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>1497</v>
       </c>
@@ -19227,7 +19268,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>1498</v>
       </c>
@@ -19253,7 +19294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>1499</v>
       </c>
@@ -19288,7 +19329,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>1500</v>
       </c>
@@ -19314,7 +19355,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>1501</v>
       </c>
@@ -19340,7 +19381,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>1502</v>
       </c>
@@ -19372,7 +19413,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>1503</v>
       </c>
@@ -19404,7 +19445,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>1504</v>
       </c>
@@ -19436,7 +19477,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>1505</v>
       </c>
@@ -19465,7 +19506,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>1506</v>
       </c>
@@ -19500,7 +19541,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>1507</v>
       </c>
@@ -19532,7 +19573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>1508</v>
       </c>
@@ -19564,7 +19605,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>1509</v>
       </c>
@@ -19596,7 +19637,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>1510</v>
       </c>
@@ -19628,7 +19669,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>1511</v>
       </c>
@@ -19660,7 +19701,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>1512</v>
       </c>
@@ -19689,7 +19730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>1513</v>
       </c>
@@ -19718,7 +19759,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>1514</v>
       </c>
@@ -19753,7 +19794,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>1515</v>
       </c>
@@ -19785,7 +19826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>1516</v>
       </c>
@@ -19817,7 +19858,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>1517</v>
       </c>
@@ -19849,7 +19890,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>1518</v>
       </c>
@@ -19881,7 +19922,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>1519</v>
       </c>
@@ -19913,7 +19954,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>1520</v>
       </c>
@@ -19942,7 +19983,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>1521</v>
       </c>
@@ -19974,7 +20015,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>1522</v>
       </c>
@@ -20003,7 +20044,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>1523</v>
       </c>
@@ -20032,7 +20073,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>1524</v>
       </c>
@@ -20067,7 +20108,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>1525</v>
       </c>
@@ -20102,7 +20143,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>1526</v>
       </c>
@@ -20137,7 +20178,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>1527</v>
       </c>
@@ -20172,7 +20213,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>1528</v>
       </c>
@@ -20207,7 +20248,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>1529</v>
       </c>
@@ -20242,7 +20283,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>1530</v>
       </c>
@@ -20277,7 +20318,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>1531</v>
       </c>
@@ -20312,7 +20353,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>1532</v>
       </c>
@@ -20341,7 +20382,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>1533</v>
       </c>
@@ -20376,7 +20417,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>1534</v>
       </c>
@@ -20411,7 +20452,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>1535</v>
       </c>
@@ -20446,7 +20487,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>1536</v>
       </c>
@@ -20481,7 +20522,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>1537</v>
       </c>
@@ -20516,7 +20557,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>1538</v>
       </c>
@@ -20551,7 +20592,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>1539</v>
       </c>
@@ -20586,7 +20627,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>1540</v>
       </c>
@@ -20621,7 +20662,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>1541</v>
       </c>
@@ -20656,7 +20697,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>1542</v>
       </c>
@@ -20691,7 +20732,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>1543</v>
       </c>
@@ -20726,7 +20767,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>1544</v>
       </c>
@@ -20761,7 +20802,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>1545</v>
       </c>
@@ -20796,7 +20837,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>1546</v>
       </c>
@@ -20831,7 +20872,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>1547</v>
       </c>
@@ -20860,7 +20901,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>1548</v>
       </c>
@@ -20892,7 +20933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>1549</v>
       </c>
@@ -20924,7 +20965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>1550</v>
       </c>
@@ -20956,7 +20997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>1551</v>
       </c>
@@ -20988,7 +21029,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>1552</v>
       </c>
@@ -21017,7 +21058,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>1553</v>
       </c>
@@ -21049,7 +21090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>1554</v>
       </c>
@@ -21081,7 +21122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>1555</v>
       </c>
@@ -21113,7 +21154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>1556</v>
       </c>
@@ -21148,7 +21189,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>1557</v>
       </c>
@@ -21180,7 +21221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>1558</v>
       </c>
@@ -21212,7 +21253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>1559</v>
       </c>
@@ -21247,7 +21288,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>1560</v>
       </c>
@@ -21279,7 +21320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>1561</v>
       </c>
@@ -21308,7 +21349,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>1562</v>
       </c>
@@ -21343,7 +21384,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>1563</v>
       </c>
@@ -21378,7 +21419,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>1564</v>
       </c>
@@ -21410,7 +21451,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>1565</v>
       </c>
@@ -21445,7 +21486,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>1566</v>
       </c>
@@ -21480,7 +21521,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>1567</v>
       </c>
@@ -21509,7 +21550,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>1568</v>
       </c>
@@ -21541,7 +21582,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>1569</v>
       </c>
@@ -21567,7 +21608,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>1570</v>
       </c>
@@ -21593,7 +21634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>1571</v>
       </c>
@@ -21628,7 +21669,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>1572</v>
       </c>
@@ -21663,7 +21704,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>1573</v>
       </c>
@@ -21689,7 +21730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>1574</v>
       </c>
@@ -21721,7 +21762,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>1575</v>
       </c>
@@ -21750,7 +21791,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>1576</v>
       </c>
@@ -21782,7 +21823,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>1577</v>
       </c>
@@ -21811,7 +21852,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>1578</v>
       </c>
@@ -21828,7 +21869,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>1579</v>
       </c>
@@ -21858,7 +21899,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R580" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R580" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AddressStructure"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:R45">
     <sortCondition ref="A36:A45"/>
   </sortState>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A02ECF-33CF-4A76-9D6E-D0F734BF4C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D725563-E5BB-4C19-8502-CEB33FE7CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3123,7 +3123,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3202,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -6096,7 +6095,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -6256,7 +6255,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1101</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>1102</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>1103</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>1104</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>1105</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>1106</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>1107</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>1108</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>1109</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>1110</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>1111</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>1112</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>1113</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>1114</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>1115</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>1116</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>1117</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>1118</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>1119</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>1120</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>1121</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>1122</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>1123</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>1124</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>1125</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>1126</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>1127</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>1128</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>1129</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>1130</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>1131</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>1132</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>1133</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>1134</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>1135</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>1136</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>1137</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>1138</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>1139</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>1140</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>1141</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>1142</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>1143</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>1144</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>1145</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>1146</v>
       </c>
@@ -7751,7 +7750,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>1147</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>1148</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>1149</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>1150</v>
       </c>
@@ -7891,7 +7890,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>1151</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>1152</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>1153</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>1154</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>1155</v>
       </c>
@@ -8060,7 +8059,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>1156</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>1157</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>1158</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>1159</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>1160</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>1161</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>1162</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>1163</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>1164</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>1165</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>1166</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>1167</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>1168</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>1169</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>1170</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>1171</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>1172</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>1173</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>1174</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>1175</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>1176</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>1177</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>1178</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>1179</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>1180</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>1181</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>1182</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>1183</v>
       </c>
@@ -8935,7 +8934,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>1184</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>1185</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>1186</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>1187</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>1188</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>1189</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>1190</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>1191</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>1192</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>1193</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>1194</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>1195</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>1196</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>1197</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>1198</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>1199</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>1200</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>1201</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>1202</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>1203</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>1204</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>1205</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>1206</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>1207</v>
       </c>
@@ -9727,7 +9726,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>1208</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>1209</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>1210</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>1211</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>1212</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>1213</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>1214</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>1215</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>1216</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>1217</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>1218</v>
       </c>
@@ -10082,7 +10081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>1219</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>1220</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>1221</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>1222</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>1223</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>1224</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>1225</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>1226</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>1227</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>1228</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>1229</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>1230</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>1231</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>1232</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>1233</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>1234</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>1235</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>1236</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>1237</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>1238</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>1239</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>1240</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>1241</v>
       </c>
@@ -10869,7 +10868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>1242</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>1243</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>1244</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>1245</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>1246</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>1247</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>1248</v>
       </c>
@@ -11090,7 +11089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>1249</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>1250</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>1251</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>1252</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>1253</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>1254</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>1255</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>1256</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>1257</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>1258</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>1259</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>1260</v>
       </c>
@@ -11468,7 +11467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>1261</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>1262</v>
       </c>
@@ -11538,7 +11537,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>1263</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>1264</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>1265</v>
       </c>
@@ -11628,7 +11627,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>1266</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>1267</v>
       </c>
@@ -11689,7 +11688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>1268</v>
       </c>
@@ -11727,7 +11726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>1269</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>1270</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>1271</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>1272</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>1273</v>
       </c>
@@ -11902,7 +11901,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>1274</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>1275</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>1276</v>
       </c>
@@ -11995,7 +11994,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>1277</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>1278</v>
       </c>
@@ -12053,7 +12052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>1279</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>1280</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>1281</v>
       </c>
@@ -12149,7 +12148,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>1282</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>1283</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>1284</v>
       </c>
@@ -12260,7 +12259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>1285</v>
       </c>
@@ -12298,7 +12297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>1286</v>
       </c>
@@ -12333,7 +12332,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>1287</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>1288</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>1289</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>1290</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>1291</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>1292</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>1293</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>1294</v>
       </c>
@@ -12589,7 +12588,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>1295</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>1296</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>1297</v>
       </c>
@@ -12685,7 +12684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>1298</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>1299</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>1300</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>1301</v>
       </c>
@@ -12816,7 +12815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>1302</v>
       </c>
@@ -12848,7 +12847,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>1303</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>1304</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>1305</v>
       </c>
@@ -12947,7 +12946,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>1306</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>1307</v>
       </c>
@@ -13008,7 +13007,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>1308</v>
       </c>
@@ -13043,7 +13042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>1309</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>1310</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>1311</v>
       </c>
@@ -13148,7 +13147,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>1312</v>
       </c>
@@ -13186,7 +13185,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>1313</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>1314</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>1315</v>
       </c>
@@ -13285,7 +13284,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>1316</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>1317</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>1318</v>
       </c>
@@ -13369,7 +13368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>1319</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>1320</v>
       </c>
@@ -13439,7 +13438,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>1321</v>
       </c>
@@ -13474,7 +13473,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>1322</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>1323</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>1324</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>1325</v>
       </c>
@@ -13611,7 +13610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>1326</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>1327</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>1328</v>
       </c>
@@ -13722,7 +13721,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>1329</v>
       </c>
@@ -13757,7 +13756,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>1330</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>1331</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>1332</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>1333</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>1334</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>1335</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>1336</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>1337</v>
       </c>
@@ -14049,7 +14048,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>1338</v>
       </c>
@@ -14081,7 +14080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>1339</v>
       </c>
@@ -14110,7 +14109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>1340</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>1341</v>
       </c>
@@ -14171,7 +14170,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>1342</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>1343</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>1344</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>1345</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>1346</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>1347</v>
       </c>
@@ -14372,7 +14371,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>1348</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>1349</v>
       </c>
@@ -14439,7 +14438,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>1350</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>1351</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>1352</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>1353</v>
       </c>
@@ -14564,7 +14563,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>1354</v>
       </c>
@@ -14593,7 +14592,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>1355</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>1356</v>
       </c>
@@ -14654,7 +14653,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>1357</v>
       </c>
@@ -14689,7 +14688,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>1358</v>
       </c>
@@ -14724,7 +14723,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>1359</v>
       </c>
@@ -14759,7 +14758,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>1360</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>1361</v>
       </c>
@@ -14814,7 +14813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>1362</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>1363</v>
       </c>
@@ -14869,7 +14868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>1364</v>
       </c>
@@ -14898,7 +14897,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>1365</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>1366</v>
       </c>
@@ -14962,7 +14961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>1367</v>
       </c>
@@ -14997,7 +14996,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>1368</v>
       </c>
@@ -15029,7 +15028,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>1369</v>
       </c>
@@ -15058,7 +15057,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>1370</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>1371</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>1372</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>1373</v>
       </c>
@@ -15177,7 +15176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>1374</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>1375</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>1376</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>1377</v>
       </c>
@@ -15299,7 +15298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>1378</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>1379</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>1380</v>
       </c>
@@ -15398,7 +15397,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>1381</v>
       </c>
@@ -15430,7 +15429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>1382</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>1383</v>
       </c>
@@ -15491,7 +15490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>1384</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>1385</v>
       </c>
@@ -15561,7 +15560,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>1386</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>1387</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>1388</v>
       </c>
@@ -15666,7 +15665,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>1389</v>
       </c>
@@ -15701,7 +15700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>1390</v>
       </c>
@@ -15736,7 +15735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>1391</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>1392</v>
       </c>
@@ -15806,7 +15805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>1393</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>1394</v>
       </c>
@@ -15876,7 +15875,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>1395</v>
       </c>
@@ -15905,7 +15904,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>1396</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>1397</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>1398</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>1399</v>
       </c>
@@ -16030,7 +16029,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>1400</v>
       </c>
@@ -16065,7 +16064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>1401</v>
       </c>
@@ -16097,7 +16096,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>1402</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>1403</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>1404</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>1405</v>
       </c>
@@ -16231,7 +16230,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>1406</v>
       </c>
@@ -16266,7 +16265,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>1407</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>1408</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>1409</v>
       </c>
@@ -16371,7 +16370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>1410</v>
       </c>
@@ -16403,7 +16402,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>1411</v>
       </c>
@@ -16432,7 +16431,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>1412</v>
       </c>
@@ -16461,7 +16460,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>1413</v>
       </c>
@@ -16493,7 +16492,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>1414</v>
       </c>
@@ -16519,7 +16518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>1415</v>
       </c>
@@ -16554,7 +16553,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>1416</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>1417</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>1418</v>
       </c>
@@ -16653,7 +16652,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>1419</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>1420</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>1421</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>1422</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>1423</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>1424</v>
       </c>
@@ -16854,7 +16853,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>1425</v>
       </c>
@@ -16889,7 +16888,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>1426</v>
       </c>
@@ -16921,7 +16920,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>1427</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>1428</v>
       </c>
@@ -16991,7 +16990,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>1429</v>
       </c>
@@ -17020,7 +17019,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>1430</v>
       </c>
@@ -17055,7 +17054,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>1431</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>1432</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>1433</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>1434</v>
       </c>
@@ -17174,7 +17173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>1435</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>1436</v>
       </c>
@@ -17232,7 +17231,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>1437</v>
       </c>
@@ -17258,7 +17257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>1438</v>
       </c>
@@ -17293,7 +17292,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>1439</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>1440</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>1441</v>
       </c>
@@ -17389,7 +17388,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>1442</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>1443</v>
       </c>
@@ -17459,7 +17458,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>1444</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>1445</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>1446</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>1447</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>1448</v>
       </c>
@@ -17625,7 +17624,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>1449</v>
       </c>
@@ -17660,7 +17659,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>1450</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>1451</v>
       </c>
@@ -17724,7 +17723,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>1452</v>
       </c>
@@ -17759,7 +17758,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>1453</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>1454</v>
       </c>
@@ -17829,7 +17828,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>1455</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>1456</v>
       </c>
@@ -17896,7 +17895,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>1457</v>
       </c>
@@ -17925,7 +17924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>1458</v>
       </c>
@@ -17960,7 +17959,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>1459</v>
       </c>
@@ -17995,7 +17994,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>1460</v>
       </c>
@@ -18027,7 +18026,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>1461</v>
       </c>
@@ -18056,7 +18055,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>1462</v>
       </c>
@@ -18091,7 +18090,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>1463</v>
       </c>
@@ -18126,7 +18125,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>1464</v>
       </c>
@@ -18161,7 +18160,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="466" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>1465</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>1466</v>
       </c>
@@ -18231,7 +18230,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="468" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>1467</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="469" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>1468</v>
       </c>
@@ -18298,7 +18297,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="470" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>1469</v>
       </c>
@@ -18677,7 +18676,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>1480</v>
       </c>
@@ -18706,7 +18705,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>1481</v>
       </c>
@@ -18741,7 +18740,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>1482</v>
       </c>
@@ -18776,7 +18775,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="484" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>1483</v>
       </c>
@@ -18811,7 +18810,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="485" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>1484</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="486" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>1485</v>
       </c>
@@ -18881,7 +18880,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>1486</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>1487</v>
       </c>
@@ -18945,7 +18944,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>1488</v>
       </c>
@@ -18977,7 +18976,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>1489</v>
       </c>
@@ -19003,7 +19002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>1490</v>
       </c>
@@ -19038,7 +19037,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>1491</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>1492</v>
       </c>
@@ -19105,7 +19104,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>1493</v>
       </c>
@@ -19134,7 +19133,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>1494</v>
       </c>
@@ -19163,7 +19162,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>1495</v>
       </c>
@@ -19198,7 +19197,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>1496</v>
       </c>
@@ -19233,7 +19232,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="498" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>1497</v>
       </c>
@@ -19268,7 +19267,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="499" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>1498</v>
       </c>
@@ -19294,7 +19293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="500" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>1499</v>
       </c>
@@ -19329,7 +19328,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="501" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>1500</v>
       </c>
@@ -19355,7 +19354,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>1501</v>
       </c>
@@ -19381,7 +19380,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="503" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>1502</v>
       </c>
@@ -19413,7 +19412,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="504" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>1503</v>
       </c>
@@ -19445,7 +19444,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="505" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>1504</v>
       </c>
@@ -19477,7 +19476,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="506" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>1505</v>
       </c>
@@ -19506,7 +19505,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="507" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>1506</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>1507</v>
       </c>
@@ -19573,7 +19572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="509" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>1508</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>1509</v>
       </c>
@@ -19637,7 +19636,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>1510</v>
       </c>
@@ -19669,7 +19668,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>1511</v>
       </c>
@@ -19701,7 +19700,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="513" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>1512</v>
       </c>
@@ -19730,7 +19729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="514" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>1513</v>
       </c>
@@ -19759,7 +19758,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="515" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>1514</v>
       </c>
@@ -19794,7 +19793,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="516" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>1515</v>
       </c>
@@ -19826,7 +19825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="517" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>1516</v>
       </c>
@@ -19858,7 +19857,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="518" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>1517</v>
       </c>
@@ -19890,7 +19889,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="519" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>1518</v>
       </c>
@@ -19922,7 +19921,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="520" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>1519</v>
       </c>
@@ -19954,7 +19953,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="521" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>1520</v>
       </c>
@@ -19983,7 +19982,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="522" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>1521</v>
       </c>
@@ -20015,7 +20014,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="523" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>1522</v>
       </c>
@@ -20044,7 +20043,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="524" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>1523</v>
       </c>
@@ -20073,7 +20072,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>1524</v>
       </c>
@@ -20108,7 +20107,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="526" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>1525</v>
       </c>
@@ -20143,7 +20142,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="527" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>1526</v>
       </c>
@@ -20178,7 +20177,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="528" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>1527</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="529" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>1528</v>
       </c>
@@ -20248,7 +20247,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="530" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>1529</v>
       </c>
@@ -20283,7 +20282,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="531" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>1530</v>
       </c>
@@ -20318,7 +20317,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="532" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>1531</v>
       </c>
@@ -20353,7 +20352,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="533" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>1532</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="534" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>1533</v>
       </c>
@@ -20417,7 +20416,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="535" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>1534</v>
       </c>
@@ -20452,7 +20451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="536" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>1535</v>
       </c>
@@ -20487,7 +20486,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="537" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>1536</v>
       </c>
@@ -20522,7 +20521,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="538" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>1537</v>
       </c>
@@ -20557,7 +20556,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="539" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>1538</v>
       </c>
@@ -20592,7 +20591,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="540" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>1539</v>
       </c>
@@ -20627,7 +20626,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="541" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>1540</v>
       </c>
@@ -20662,7 +20661,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="542" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>1541</v>
       </c>
@@ -20697,7 +20696,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="543" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>1542</v>
       </c>
@@ -20732,7 +20731,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="544" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>1543</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="545" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>1544</v>
       </c>
@@ -20802,7 +20801,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="546" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>1545</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="547" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>1546</v>
       </c>
@@ -20872,7 +20871,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="548" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>1547</v>
       </c>
@@ -20901,7 +20900,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="549" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>1548</v>
       </c>
@@ -20933,7 +20932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>1549</v>
       </c>
@@ -20965,7 +20964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>1550</v>
       </c>
@@ -20997,7 +20996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="552" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>1551</v>
       </c>
@@ -21029,7 +21028,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="553" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>1552</v>
       </c>
@@ -21058,7 +21057,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="554" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>1553</v>
       </c>
@@ -21090,7 +21089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="555" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>1554</v>
       </c>
@@ -21122,7 +21121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="556" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>1555</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>1556</v>
       </c>
@@ -21189,7 +21188,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="558" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>1557</v>
       </c>
@@ -21221,7 +21220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="559" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>1558</v>
       </c>
@@ -21253,7 +21252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="560" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>1559</v>
       </c>
@@ -21288,7 +21287,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="561" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>1560</v>
       </c>
@@ -21320,7 +21319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>1561</v>
       </c>
@@ -21349,7 +21348,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="563" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>1562</v>
       </c>
@@ -21384,7 +21383,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="564" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>1563</v>
       </c>
@@ -21419,7 +21418,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="565" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>1564</v>
       </c>
@@ -21451,7 +21450,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="566" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>1565</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="567" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>1566</v>
       </c>
@@ -21521,7 +21520,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="568" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>1567</v>
       </c>
@@ -21550,7 +21549,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="569" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>1568</v>
       </c>
@@ -21582,7 +21581,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="570" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>1569</v>
       </c>
@@ -21608,7 +21607,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="571" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>1570</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>1571</v>
       </c>
@@ -21669,7 +21668,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="573" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>1572</v>
       </c>
@@ -21704,7 +21703,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="574" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>1573</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>1574</v>
       </c>
@@ -21762,7 +21761,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="576" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>1575</v>
       </c>
@@ -21791,7 +21790,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>1576</v>
       </c>
@@ -21823,7 +21822,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>1577</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>1578</v>
       </c>
@@ -21869,7 +21868,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>1579</v>
       </c>
@@ -21899,13 +21898,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R580" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="AddressStructure"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R580" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:R45">
     <sortCondition ref="A36:A45"/>
   </sortState>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D725563-E5BB-4C19-8502-CEB33FE7CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193FB1D-12BC-4D96-A616-5E8E8D997326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="697">
   <si>
     <t>seq</t>
   </si>
@@ -2139,6 +2139,10 @@
   </si>
   <si>
     <t>StreetAddress PostalAddress BillingAddress ShipToAddress ShipFromAddress"</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Postal Code</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3127,7 +3131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q480" sqref="Q480"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18568,7 +18572,7 @@
         <v>41</v>
       </c>
       <c r="R477" t="s">
-        <v>337</v>
+        <v>696</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.4">

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193FB1D-12BC-4D96-A616-5E8E8D997326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852DEE9-8084-4053-8AEC-3869FCE9741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="702">
   <si>
     <t>seq</t>
   </si>
@@ -2143,6 +2143,26 @@
   </si>
   <si>
     <t>Postal Code</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>any</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Numeric</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Indicator</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>xs:nonNegativeInteger minInclusive value="1970" maxInclusive value="2100"</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2736,11 +2756,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2788,7 +2811,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3129,9 +3180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3145,7 +3196,7 @@
     <col min="10" max="10" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="24.625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3198,7 +3249,7 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
@@ -3230,6 +3281,7 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
+      <c r="Q2"/>
       <c r="R2" t="s">
         <v>327</v>
       </c>
@@ -3262,6 +3314,7 @@
       <c r="N3" t="s">
         <v>678</v>
       </c>
+      <c r="Q3"/>
       <c r="R3" t="s">
         <v>112</v>
       </c>
@@ -3294,6 +3347,7 @@
       <c r="N4" t="s">
         <v>680</v>
       </c>
+      <c r="Q4"/>
       <c r="R4" t="s">
         <v>120</v>
       </c>
@@ -3326,6 +3380,7 @@
       <c r="N5" t="s">
         <v>682</v>
       </c>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -3355,6 +3410,7 @@
       <c r="N6" t="s">
         <v>684</v>
       </c>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -3381,6 +3437,7 @@
       <c r="J7" t="s">
         <v>21</v>
       </c>
+      <c r="Q7"/>
       <c r="R7" t="s">
         <v>112</v>
       </c>
@@ -3413,6 +3470,7 @@
       <c r="N8" t="s">
         <v>111</v>
       </c>
+      <c r="Q8"/>
       <c r="R8" t="s">
         <v>112</v>
       </c>
@@ -3442,6 +3500,7 @@
       <c r="J9" t="s">
         <v>21</v>
       </c>
+      <c r="Q9"/>
       <c r="R9" t="s">
         <v>120</v>
       </c>
@@ -3474,6 +3533,7 @@
       <c r="N10" t="s">
         <v>90</v>
       </c>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -3503,6 +3563,7 @@
       <c r="N11" t="s">
         <v>122</v>
       </c>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -3532,6 +3593,7 @@
       <c r="N12" t="s">
         <v>123</v>
       </c>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -3561,6 +3623,7 @@
       <c r="N13" t="s">
         <v>124</v>
       </c>
+      <c r="Q13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -3590,6 +3653,7 @@
       <c r="N14" t="s">
         <v>125</v>
       </c>
+      <c r="Q14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -3619,6 +3683,7 @@
       <c r="N15" t="s">
         <v>126</v>
       </c>
+      <c r="Q15"/>
       <c r="R15" t="s">
         <v>127</v>
       </c>
@@ -3651,6 +3716,7 @@
       <c r="N16" t="s">
         <v>128</v>
       </c>
+      <c r="Q16"/>
       <c r="R16" t="s">
         <v>129</v>
       </c>
@@ -3683,6 +3749,7 @@
       <c r="N17" t="s">
         <v>130</v>
       </c>
+      <c r="Q17"/>
       <c r="R17" t="s">
         <v>131</v>
       </c>
@@ -3715,6 +3782,7 @@
       <c r="N18" t="s">
         <v>132</v>
       </c>
+      <c r="Q18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
@@ -3744,6 +3812,7 @@
       <c r="N19" t="s">
         <v>133</v>
       </c>
+      <c r="Q19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
@@ -3773,6 +3842,7 @@
       <c r="N20" t="s">
         <v>134</v>
       </c>
+      <c r="Q20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
@@ -3802,6 +3872,7 @@
       <c r="N21" t="s">
         <v>135</v>
       </c>
+      <c r="Q21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
@@ -3863,6 +3934,7 @@
       <c r="J23" t="s">
         <v>21</v>
       </c>
+      <c r="Q23"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
@@ -3892,6 +3964,7 @@
       <c r="N24" t="s">
         <v>18</v>
       </c>
+      <c r="Q24"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
@@ -3918,6 +3991,7 @@
       <c r="J25" t="s">
         <v>21</v>
       </c>
+      <c r="Q25"/>
       <c r="R25" t="s">
         <v>612</v>
       </c>
@@ -3950,6 +4024,7 @@
       <c r="N26" t="s">
         <v>575</v>
       </c>
+      <c r="Q26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
@@ -3979,6 +4054,7 @@
       <c r="N27" t="s">
         <v>573</v>
       </c>
+      <c r="Q27"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
@@ -4008,6 +4084,7 @@
       <c r="N28" t="s">
         <v>551</v>
       </c>
+      <c r="Q28"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
@@ -4037,6 +4114,7 @@
       <c r="N29" t="s">
         <v>525</v>
       </c>
+      <c r="Q29"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
@@ -4066,6 +4144,7 @@
       <c r="N30" t="s">
         <v>362</v>
       </c>
+      <c r="Q30"/>
       <c r="R30" t="s">
         <v>363</v>
       </c>
@@ -4095,6 +4174,7 @@
       <c r="J31" t="s">
         <v>21</v>
       </c>
+      <c r="Q31"/>
       <c r="R31" t="s">
         <v>112</v>
       </c>
@@ -4127,6 +4207,7 @@
       <c r="N32" t="s">
         <v>113</v>
       </c>
+      <c r="Q32"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
@@ -4220,6 +4301,12 @@
       <c r="H35" t="s">
         <v>20</v>
       </c>
+      <c r="J35" t="s">
+        <v>697</v>
+      </c>
+      <c r="L35" t="s">
+        <v>697</v>
+      </c>
       <c r="Q35" t="s">
         <v>118</v>
       </c>
@@ -4252,6 +4339,7 @@
       <c r="J36" t="s">
         <v>21</v>
       </c>
+      <c r="Q36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
@@ -4281,6 +4369,7 @@
       <c r="N37" t="s">
         <v>195</v>
       </c>
+      <c r="Q37"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
@@ -4307,6 +4396,7 @@
       <c r="J38" t="s">
         <v>21</v>
       </c>
+      <c r="Q38"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
@@ -4581,6 +4671,7 @@
       <c r="N46" t="s">
         <v>169</v>
       </c>
+      <c r="Q46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
@@ -4610,6 +4701,7 @@
       <c r="N47" t="s">
         <v>164</v>
       </c>
+      <c r="Q47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48">
@@ -4633,6 +4725,12 @@
       <c r="H48" t="s">
         <v>20</v>
       </c>
+      <c r="J48" t="s">
+        <v>697</v>
+      </c>
+      <c r="L48" t="s">
+        <v>697</v>
+      </c>
       <c r="Q48" t="s">
         <v>105</v>
       </c>
@@ -4665,6 +4763,7 @@
       <c r="J49" t="s">
         <v>21</v>
       </c>
+      <c r="Q49"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50">
@@ -4761,6 +4860,7 @@
       <c r="J52" t="s">
         <v>21</v>
       </c>
+      <c r="Q52"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53">
@@ -4857,6 +4957,7 @@
       <c r="J55" t="s">
         <v>21</v>
       </c>
+      <c r="Q55"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56">
@@ -4886,6 +4987,7 @@
       <c r="N56" t="s">
         <v>280</v>
       </c>
+      <c r="Q56"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57">
@@ -4912,6 +5014,7 @@
       <c r="J57" t="s">
         <v>21</v>
       </c>
+      <c r="Q57"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58">
@@ -4976,6 +5079,7 @@
       <c r="N59" t="s">
         <v>283</v>
       </c>
+      <c r="Q59"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60">
@@ -5002,6 +5106,7 @@
       <c r="J60" t="s">
         <v>21</v>
       </c>
+      <c r="Q60"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61">
@@ -5168,6 +5273,7 @@
       <c r="J65" t="s">
         <v>21</v>
       </c>
+      <c r="Q65"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66">
@@ -5197,6 +5303,7 @@
       <c r="N66" t="s">
         <v>77</v>
       </c>
+      <c r="Q66"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67">
@@ -5223,6 +5330,7 @@
       <c r="J67" t="s">
         <v>21</v>
       </c>
+      <c r="Q67"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68">
@@ -5252,6 +5360,7 @@
       <c r="N68" t="s">
         <v>78</v>
       </c>
+      <c r="Q68"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69">
@@ -5389,6 +5498,7 @@
       <c r="N72" t="s">
         <v>183</v>
       </c>
+      <c r="Q72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73">
@@ -5418,6 +5528,7 @@
       <c r="N73" t="s">
         <v>164</v>
       </c>
+      <c r="Q73"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74">
@@ -5441,6 +5552,12 @@
       <c r="H74" t="s">
         <v>20</v>
       </c>
+      <c r="J74" t="s">
+        <v>697</v>
+      </c>
+      <c r="L74" t="s">
+        <v>697</v>
+      </c>
       <c r="Q74" t="s">
         <v>105</v>
       </c>
@@ -5473,6 +5590,7 @@
       <c r="J75" t="s">
         <v>21</v>
       </c>
+      <c r="Q75"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76">
@@ -5502,6 +5620,7 @@
       <c r="N76" t="s">
         <v>690</v>
       </c>
+      <c r="Q76"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77">
@@ -5528,6 +5647,7 @@
       <c r="J77" t="s">
         <v>21</v>
       </c>
+      <c r="Q77"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78">
@@ -5557,6 +5677,7 @@
       <c r="N78" t="s">
         <v>78</v>
       </c>
+      <c r="Q78"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79">
@@ -5694,6 +5815,7 @@
       <c r="N82" t="s">
         <v>183</v>
       </c>
+      <c r="Q82"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83">
@@ -5723,6 +5845,7 @@
       <c r="N83" t="s">
         <v>164</v>
       </c>
+      <c r="Q83"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84">
@@ -5746,6 +5869,12 @@
       <c r="H84" t="s">
         <v>20</v>
       </c>
+      <c r="J84" t="s">
+        <v>697</v>
+      </c>
+      <c r="L84" t="s">
+        <v>697</v>
+      </c>
       <c r="Q84" t="s">
         <v>105</v>
       </c>
@@ -5778,6 +5907,7 @@
       <c r="J85" t="s">
         <v>21</v>
       </c>
+      <c r="Q85"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86">
@@ -5807,6 +5937,7 @@
       <c r="N86" t="s">
         <v>291</v>
       </c>
+      <c r="Q86"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87">
@@ -5833,6 +5964,7 @@
       <c r="J87" t="s">
         <v>21</v>
       </c>
+      <c r="Q87"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88">
@@ -5932,6 +6064,7 @@
       <c r="N90" t="s">
         <v>272</v>
       </c>
+      <c r="Q90"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91">
@@ -5958,6 +6091,7 @@
       <c r="J91" t="s">
         <v>21</v>
       </c>
+      <c r="Q91"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92">
@@ -6127,6 +6261,7 @@
       <c r="N96" t="s">
         <v>174</v>
       </c>
+      <c r="Q96"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97">
@@ -6188,6 +6323,7 @@
       <c r="J98" t="s">
         <v>21</v>
       </c>
+      <c r="Q98"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99">
@@ -6284,6 +6420,7 @@
       <c r="J101" t="s">
         <v>21</v>
       </c>
+      <c r="Q101"/>
       <c r="R101" t="s">
         <v>127</v>
       </c>
@@ -6316,6 +6453,7 @@
       <c r="N102" t="s">
         <v>254</v>
       </c>
+      <c r="Q102"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103">
@@ -6342,6 +6480,7 @@
       <c r="J103" t="s">
         <v>21</v>
       </c>
+      <c r="Q103"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104">
@@ -6438,6 +6577,7 @@
       <c r="J106" t="s">
         <v>21</v>
       </c>
+      <c r="Q106"/>
       <c r="R106" t="s">
         <v>129</v>
       </c>
@@ -6470,6 +6610,7 @@
       <c r="N107" t="s">
         <v>136</v>
       </c>
+      <c r="Q107"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A108">
@@ -6496,6 +6637,7 @@
       <c r="J108" t="s">
         <v>21</v>
       </c>
+      <c r="Q108"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A109">
@@ -6662,6 +6804,7 @@
       <c r="J113" t="s">
         <v>21</v>
       </c>
+      <c r="Q113"/>
       <c r="R113" t="s">
         <v>131</v>
       </c>
@@ -6694,6 +6837,7 @@
       <c r="N114" t="s">
         <v>210</v>
       </c>
+      <c r="Q114"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A115">
@@ -6720,6 +6864,7 @@
       <c r="J115" t="s">
         <v>21</v>
       </c>
+      <c r="Q115"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A116">
@@ -6816,6 +6961,7 @@
       <c r="J118" t="s">
         <v>21</v>
       </c>
+      <c r="Q118"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A119">
@@ -6845,6 +6991,7 @@
       <c r="N119" t="s">
         <v>220</v>
       </c>
+      <c r="Q119"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A120">
@@ -6871,6 +7018,7 @@
       <c r="J120" t="s">
         <v>21</v>
       </c>
+      <c r="Q120"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A121">
@@ -7183,6 +7331,7 @@
       <c r="N129" t="s">
         <v>667</v>
       </c>
+      <c r="Q129"/>
       <c r="R129" t="s">
         <v>256</v>
       </c>
@@ -7215,6 +7364,7 @@
       <c r="N130" t="s">
         <v>257</v>
       </c>
+      <c r="Q130"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A131">
@@ -7238,6 +7388,12 @@
       <c r="H131" t="s">
         <v>20</v>
       </c>
+      <c r="J131" t="s">
+        <v>697</v>
+      </c>
+      <c r="L131" t="s">
+        <v>697</v>
+      </c>
       <c r="Q131" t="s">
         <v>105</v>
       </c>
@@ -7270,6 +7426,7 @@
       <c r="J132" t="s">
         <v>21</v>
       </c>
+      <c r="Q132"/>
       <c r="R132" t="s">
         <v>256</v>
       </c>
@@ -7369,6 +7526,7 @@
       <c r="J135" t="s">
         <v>21</v>
       </c>
+      <c r="Q135"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A136">
@@ -7398,6 +7556,7 @@
       <c r="N136" t="s">
         <v>668</v>
       </c>
+      <c r="Q136"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A137">
@@ -7424,6 +7583,7 @@
       <c r="J137" t="s">
         <v>21</v>
       </c>
+      <c r="Q137"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A138">
@@ -7485,6 +7645,7 @@
       <c r="J139" t="s">
         <v>21</v>
       </c>
+      <c r="Q139"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A140">
@@ -7514,6 +7675,7 @@
       <c r="N140" t="s">
         <v>214</v>
       </c>
+      <c r="Q140"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141">
@@ -7540,6 +7702,7 @@
       <c r="J141" t="s">
         <v>21</v>
       </c>
+      <c r="Q141"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142">
@@ -7855,6 +8018,7 @@
       <c r="N150" t="s">
         <v>669</v>
       </c>
+      <c r="Q150"/>
       <c r="R150" t="s">
         <v>230</v>
       </c>
@@ -8062,6 +8226,7 @@
       <c r="N156" t="s">
         <v>242</v>
       </c>
+      <c r="Q156"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A157">
@@ -8091,6 +8256,7 @@
       <c r="N157" t="s">
         <v>670</v>
       </c>
+      <c r="Q157"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A158">
@@ -8114,6 +8280,12 @@
       <c r="H158" t="s">
         <v>20</v>
       </c>
+      <c r="J158" t="s">
+        <v>697</v>
+      </c>
+      <c r="L158" t="s">
+        <v>697</v>
+      </c>
       <c r="Q158" t="s">
         <v>105</v>
       </c>
@@ -8146,6 +8318,7 @@
       <c r="J159" t="s">
         <v>21</v>
       </c>
+      <c r="Q159"/>
       <c r="R159" t="s">
         <v>230</v>
       </c>
@@ -8245,6 +8418,7 @@
       <c r="J162" t="s">
         <v>21</v>
       </c>
+      <c r="Q162"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A163">
@@ -8341,6 +8515,7 @@
       <c r="J165" t="s">
         <v>21</v>
       </c>
+      <c r="Q165"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A166">
@@ -8370,6 +8545,7 @@
       <c r="N166" t="s">
         <v>185</v>
       </c>
+      <c r="Q166"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A167">
@@ -8396,6 +8572,7 @@
       <c r="J167" t="s">
         <v>21</v>
       </c>
+      <c r="Q167"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A168">
@@ -8422,6 +8599,7 @@
       <c r="J168" t="s">
         <v>38</v>
       </c>
+      <c r="Q168"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A169">
@@ -8518,6 +8696,7 @@
       <c r="J171" t="s">
         <v>21</v>
       </c>
+      <c r="Q171"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A172">
@@ -8547,6 +8726,7 @@
       <c r="N172" t="s">
         <v>145</v>
       </c>
+      <c r="Q172"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A173">
@@ -8573,6 +8753,7 @@
       <c r="J173" t="s">
         <v>21</v>
       </c>
+      <c r="Q173"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A174">
@@ -8710,6 +8891,7 @@
       <c r="N177" t="s">
         <v>690</v>
       </c>
+      <c r="Q177"/>
       <c r="R177" t="s">
         <v>149</v>
       </c>
@@ -8847,6 +9029,7 @@
       <c r="N181" t="s">
         <v>156</v>
       </c>
+      <c r="Q181"/>
       <c r="R181" t="s">
         <v>157</v>
       </c>
@@ -8873,6 +9056,12 @@
       <c r="H182" t="s">
         <v>20</v>
       </c>
+      <c r="J182" t="s">
+        <v>697</v>
+      </c>
+      <c r="L182" t="s">
+        <v>697</v>
+      </c>
       <c r="Q182" t="s">
         <v>105</v>
       </c>
@@ -8905,6 +9094,7 @@
       <c r="J183" t="s">
         <v>21</v>
       </c>
+      <c r="Q183"/>
       <c r="R183" t="s">
         <v>157</v>
       </c>
@@ -8937,6 +9127,7 @@
       <c r="N184" t="s">
         <v>297</v>
       </c>
+      <c r="Q184"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A185">
@@ -8963,6 +9154,7 @@
       <c r="J185" t="s">
         <v>21</v>
       </c>
+      <c r="Q185"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A186">
@@ -9167,6 +9359,7 @@
       <c r="N191" t="s">
         <v>158</v>
       </c>
+      <c r="Q191"/>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A192">
@@ -9476,6 +9669,7 @@
       <c r="N200" t="s">
         <v>193</v>
       </c>
+      <c r="Q200"/>
       <c r="R200" t="s">
         <v>194</v>
       </c>
@@ -9540,6 +9734,7 @@
       <c r="J202" t="s">
         <v>21</v>
       </c>
+      <c r="Q202"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A203">
@@ -9636,6 +9831,7 @@
       <c r="J205" t="s">
         <v>21</v>
       </c>
+      <c r="Q205"/>
       <c r="R205" t="s">
         <v>194</v>
       </c>
@@ -9668,6 +9864,7 @@
       <c r="N206" t="s">
         <v>189</v>
       </c>
+      <c r="Q206"/>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A207">
@@ -9694,6 +9891,7 @@
       <c r="J207" t="s">
         <v>21</v>
       </c>
+      <c r="Q207"/>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A208">
@@ -9790,6 +9988,7 @@
       <c r="J210" t="s">
         <v>21</v>
       </c>
+      <c r="Q210"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A211">
@@ -9924,6 +10123,7 @@
       <c r="N214" t="s">
         <v>36</v>
       </c>
+      <c r="Q214"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A215">
@@ -9950,6 +10150,7 @@
       <c r="J215" t="s">
         <v>21</v>
       </c>
+      <c r="Q215"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A216">
@@ -10084,6 +10285,7 @@
       <c r="N219" t="s">
         <v>48</v>
       </c>
+      <c r="Q219"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A220">
@@ -10110,6 +10312,7 @@
       <c r="J220" t="s">
         <v>21</v>
       </c>
+      <c r="Q220"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A221">
@@ -10171,6 +10374,9 @@
       <c r="J222" t="s">
         <v>54</v>
       </c>
+      <c r="L222" t="s">
+        <v>699</v>
+      </c>
       <c r="Q222" t="s">
         <v>27</v>
       </c>
@@ -10203,6 +10409,12 @@
       <c r="J223" t="s">
         <v>56</v>
       </c>
+      <c r="L223" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q223" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="R223" t="s">
         <v>57</v>
       </c>
@@ -10591,6 +10803,7 @@
       <c r="N234" t="s">
         <v>85</v>
       </c>
+      <c r="Q234"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A235">
@@ -10617,6 +10830,7 @@
       <c r="J235" t="s">
         <v>21</v>
       </c>
+      <c r="Q235"/>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A236">
@@ -10935,6 +11149,7 @@
       <c r="N244" t="s">
         <v>101</v>
       </c>
+      <c r="Q244"/>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A245">
@@ -10990,6 +11205,12 @@
       <c r="H246" t="s">
         <v>20</v>
       </c>
+      <c r="J246" t="s">
+        <v>697</v>
+      </c>
+      <c r="L246" t="s">
+        <v>697</v>
+      </c>
       <c r="Q246" t="s">
         <v>105</v>
       </c>
@@ -11022,6 +11243,7 @@
       <c r="J247" t="s">
         <v>21</v>
       </c>
+      <c r="Q247"/>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A248">
@@ -11118,6 +11340,7 @@
       <c r="J250" t="s">
         <v>21</v>
       </c>
+      <c r="Q250"/>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A251">
@@ -11144,6 +11367,9 @@
       <c r="J251" t="s">
         <v>24</v>
       </c>
+      <c r="L251" t="s">
+        <v>699</v>
+      </c>
       <c r="Q251" t="s">
         <v>27</v>
       </c>
@@ -11278,6 +11504,7 @@
       <c r="J255" t="s">
         <v>21</v>
       </c>
+      <c r="Q255"/>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A256">
@@ -11304,6 +11531,9 @@
       <c r="J256" t="s">
         <v>24</v>
       </c>
+      <c r="L256" t="s">
+        <v>699</v>
+      </c>
       <c r="Q256" t="s">
         <v>27</v>
       </c>
@@ -11438,6 +11668,7 @@
       <c r="J260" t="s">
         <v>21</v>
       </c>
+      <c r="Q260"/>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A261">
@@ -11464,6 +11695,9 @@
       <c r="J261" t="s">
         <v>24</v>
       </c>
+      <c r="L261" t="s">
+        <v>699</v>
+      </c>
       <c r="Q261" t="s">
         <v>27</v>
       </c>
@@ -11569,6 +11803,7 @@
       <c r="N264" t="s">
         <v>537</v>
       </c>
+      <c r="Q264"/>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A265">
@@ -11595,6 +11830,7 @@
       <c r="J265" t="s">
         <v>21</v>
       </c>
+      <c r="Q265"/>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A266">
@@ -11656,6 +11892,9 @@
       <c r="J267" t="s">
         <v>54</v>
       </c>
+      <c r="L267" t="s">
+        <v>699</v>
+      </c>
       <c r="Q267" t="s">
         <v>27</v>
       </c>
@@ -11688,6 +11927,12 @@
       <c r="J268" t="s">
         <v>56</v>
       </c>
+      <c r="L268" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q268" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="R268" t="s">
         <v>57</v>
       </c>
@@ -11968,6 +12213,7 @@
       <c r="N276" t="s">
         <v>543</v>
       </c>
+      <c r="Q276"/>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A277">
@@ -11997,6 +12243,7 @@
       <c r="N277" t="s">
         <v>524</v>
       </c>
+      <c r="Q277"/>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A278">
@@ -12026,6 +12273,7 @@
       <c r="N278" t="s">
         <v>445</v>
       </c>
+      <c r="Q278"/>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A279">
@@ -12049,6 +12297,12 @@
       <c r="H279" t="s">
         <v>20</v>
       </c>
+      <c r="J279" t="s">
+        <v>697</v>
+      </c>
+      <c r="L279" t="s">
+        <v>697</v>
+      </c>
       <c r="Q279" t="s">
         <v>105</v>
       </c>
@@ -12081,6 +12335,7 @@
       <c r="J280" t="s">
         <v>21</v>
       </c>
+      <c r="Q280"/>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A281">
@@ -12396,6 +12651,9 @@
       <c r="J289" t="s">
         <v>520</v>
       </c>
+      <c r="L289" t="s">
+        <v>700</v>
+      </c>
       <c r="R289" t="s">
         <v>521</v>
       </c>
@@ -12489,6 +12747,12 @@
       <c r="H292" t="s">
         <v>20</v>
       </c>
+      <c r="J292" t="s">
+        <v>697</v>
+      </c>
+      <c r="L292" t="s">
+        <v>697</v>
+      </c>
       <c r="Q292" t="s">
         <v>105</v>
       </c>
@@ -12521,6 +12785,7 @@
       <c r="J293" t="s">
         <v>21</v>
       </c>
+      <c r="Q293"/>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A294">
@@ -12687,6 +12952,7 @@
       <c r="J298" t="s">
         <v>21</v>
       </c>
+      <c r="Q298"/>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A299">
@@ -12818,6 +13084,7 @@
       <c r="J302" t="s">
         <v>21</v>
       </c>
+      <c r="Q302"/>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A303">
@@ -12844,6 +13111,9 @@
       <c r="J303" t="s">
         <v>526</v>
       </c>
+      <c r="L303" t="s">
+        <v>699</v>
+      </c>
       <c r="Q303" t="s">
         <v>27</v>
       </c>
@@ -12949,6 +13219,7 @@
       <c r="N306" t="s">
         <v>532</v>
       </c>
+      <c r="Q306"/>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A307">
@@ -12975,6 +13246,7 @@
       <c r="J307" t="s">
         <v>21</v>
       </c>
+      <c r="Q307"/>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A308">
@@ -13287,6 +13559,7 @@
       <c r="N316" t="s">
         <v>438</v>
       </c>
+      <c r="Q316"/>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A317">
@@ -13316,6 +13589,7 @@
       <c r="N317" t="s">
         <v>622</v>
       </c>
+      <c r="Q317"/>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A318">
@@ -13339,6 +13613,12 @@
       <c r="H318" t="s">
         <v>20</v>
       </c>
+      <c r="J318" t="s">
+        <v>697</v>
+      </c>
+      <c r="L318" t="s">
+        <v>697</v>
+      </c>
       <c r="Q318" t="s">
         <v>105</v>
       </c>
@@ -13371,6 +13651,7 @@
       <c r="J319" t="s">
         <v>21</v>
       </c>
+      <c r="Q319"/>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A320">
@@ -13502,6 +13783,7 @@
       <c r="J323" t="s">
         <v>21</v>
       </c>
+      <c r="Q323"/>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A324">
@@ -14106,6 +14388,12 @@
       <c r="H340" t="s">
         <v>20</v>
       </c>
+      <c r="J340" t="s">
+        <v>697</v>
+      </c>
+      <c r="L340" t="s">
+        <v>697</v>
+      </c>
       <c r="Q340" t="s">
         <v>105</v>
       </c>
@@ -14138,6 +14426,7 @@
       <c r="J341" t="s">
         <v>21</v>
       </c>
+      <c r="Q341"/>
       <c r="R341" t="s">
         <v>363</v>
       </c>
@@ -14167,6 +14456,9 @@
       <c r="J342" t="s">
         <v>38</v>
       </c>
+      <c r="L342" t="s">
+        <v>699</v>
+      </c>
       <c r="Q342" t="s">
         <v>27</v>
       </c>
@@ -14202,6 +14494,7 @@
       <c r="N343" t="s">
         <v>350</v>
       </c>
+      <c r="Q343"/>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A344">
@@ -14228,6 +14521,7 @@
       <c r="J344" t="s">
         <v>21</v>
       </c>
+      <c r="Q344"/>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A345">
@@ -14438,6 +14732,7 @@
       <c r="N350" t="s">
         <v>690</v>
       </c>
+      <c r="Q350"/>
       <c r="R350" t="s">
         <v>358</v>
       </c>
@@ -14505,6 +14800,7 @@
       <c r="N352" t="s">
         <v>360</v>
       </c>
+      <c r="Q352"/>
       <c r="R352" t="s">
         <v>361</v>
       </c>
@@ -14531,6 +14827,12 @@
       <c r="H353" t="s">
         <v>20</v>
       </c>
+      <c r="J353" t="s">
+        <v>697</v>
+      </c>
+      <c r="L353" t="s">
+        <v>697</v>
+      </c>
       <c r="Q353" t="s">
         <v>105</v>
       </c>
@@ -14563,6 +14865,7 @@
       <c r="J354" t="s">
         <v>21</v>
       </c>
+      <c r="Q354"/>
       <c r="R354" t="s">
         <v>361</v>
       </c>
@@ -14595,6 +14898,7 @@
       <c r="N355" t="s">
         <v>366</v>
       </c>
+      <c r="Q355"/>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A356">
@@ -14621,6 +14925,7 @@
       <c r="J356" t="s">
         <v>21</v>
       </c>
+      <c r="Q356"/>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A357">
@@ -14784,6 +15089,12 @@
       <c r="H361" t="s">
         <v>20</v>
       </c>
+      <c r="J361" t="s">
+        <v>697</v>
+      </c>
+      <c r="L361" t="s">
+        <v>697</v>
+      </c>
       <c r="Q361" t="s">
         <v>105</v>
       </c>
@@ -14816,6 +15127,7 @@
       <c r="J362" t="s">
         <v>21</v>
       </c>
+      <c r="Q362"/>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A363">
@@ -14845,6 +15157,7 @@
       <c r="N363" t="s">
         <v>383</v>
       </c>
+      <c r="Q363"/>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A364">
@@ -14871,6 +15184,7 @@
       <c r="J364" t="s">
         <v>21</v>
       </c>
+      <c r="Q364"/>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A365">
@@ -14900,6 +15214,7 @@
       <c r="N365" t="s">
         <v>402</v>
       </c>
+      <c r="Q365"/>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A366">
@@ -14926,6 +15241,7 @@
       <c r="J366" t="s">
         <v>21</v>
       </c>
+      <c r="Q366"/>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A367">
@@ -15060,6 +15376,7 @@
       <c r="N370" t="s">
         <v>384</v>
       </c>
+      <c r="Q370"/>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A371">
@@ -15086,6 +15403,7 @@
       <c r="J371" t="s">
         <v>21</v>
       </c>
+      <c r="Q371"/>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A372">
@@ -15115,6 +15433,7 @@
       <c r="N372" t="s">
         <v>399</v>
       </c>
+      <c r="Q372"/>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A373">
@@ -15141,6 +15460,7 @@
       <c r="J373" t="s">
         <v>21</v>
       </c>
+      <c r="Q373"/>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A374">
@@ -15272,6 +15592,7 @@
       <c r="J377" t="s">
         <v>21</v>
       </c>
+      <c r="Q377"/>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A378">
@@ -15330,6 +15651,7 @@
       <c r="N379" t="s">
         <v>382</v>
       </c>
+      <c r="Q379"/>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A380">
@@ -15426,6 +15748,9 @@
       <c r="J382" t="s">
         <v>54</v>
       </c>
+      <c r="L382" t="s">
+        <v>699</v>
+      </c>
       <c r="Q382" t="s">
         <v>27</v>
       </c>
@@ -15458,6 +15783,12 @@
       <c r="J383" t="s">
         <v>56</v>
       </c>
+      <c r="L383" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q383" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="R383" t="s">
         <v>57</v>
       </c>
@@ -15907,6 +16238,7 @@
       <c r="N396" t="s">
         <v>499</v>
       </c>
+      <c r="Q396"/>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A397">
@@ -15930,6 +16262,12 @@
       <c r="H397" t="s">
         <v>20</v>
       </c>
+      <c r="J397" t="s">
+        <v>697</v>
+      </c>
+      <c r="L397" t="s">
+        <v>697</v>
+      </c>
       <c r="Q397" t="s">
         <v>105</v>
       </c>
@@ -15962,6 +16300,7 @@
       <c r="J398" t="s">
         <v>21</v>
       </c>
+      <c r="Q398"/>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A399">
@@ -16096,6 +16435,7 @@
       <c r="N402" t="s">
         <v>503</v>
       </c>
+      <c r="Q402"/>
       <c r="R402" t="s">
         <v>504</v>
       </c>
@@ -16125,6 +16465,7 @@
       <c r="J403" t="s">
         <v>21</v>
       </c>
+      <c r="Q403"/>
       <c r="R403" t="s">
         <v>504</v>
       </c>
@@ -16402,6 +16743,7 @@
       <c r="N411" t="s">
         <v>430</v>
       </c>
+      <c r="Q411"/>
       <c r="R411" t="s">
         <v>431</v>
       </c>
@@ -16431,6 +16773,7 @@
       <c r="J412" t="s">
         <v>21</v>
       </c>
+      <c r="Q412"/>
       <c r="R412" t="s">
         <v>431</v>
       </c>
@@ -16463,6 +16806,7 @@
       <c r="N413" t="s">
         <v>388</v>
       </c>
+      <c r="Q413"/>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A414">
@@ -16492,6 +16836,7 @@
       <c r="N414" t="s">
         <v>432</v>
       </c>
+      <c r="Q414"/>
       <c r="R414" t="s">
         <v>433</v>
       </c>
@@ -16521,6 +16866,7 @@
       <c r="J415" t="s">
         <v>21</v>
       </c>
+      <c r="Q415"/>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A416">
@@ -16617,6 +16963,7 @@
       <c r="J418" t="s">
         <v>21</v>
       </c>
+      <c r="Q418"/>
       <c r="R418" t="s">
         <v>433</v>
       </c>
@@ -16716,6 +17063,7 @@
       <c r="J421" t="s">
         <v>21</v>
       </c>
+      <c r="Q421"/>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A422">
@@ -16920,6 +17268,7 @@
       <c r="N427" t="s">
         <v>515</v>
       </c>
+      <c r="Q427"/>
       <c r="R427" t="s">
         <v>516</v>
       </c>
@@ -17019,6 +17368,9 @@
       <c r="J430" t="s">
         <v>520</v>
       </c>
+      <c r="L430" t="s">
+        <v>700</v>
+      </c>
       <c r="R430" t="s">
         <v>521</v>
       </c>
@@ -17118,6 +17470,7 @@
       <c r="N433" t="s">
         <v>524</v>
       </c>
+      <c r="Q433"/>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A434">
@@ -17147,6 +17500,7 @@
       <c r="N434" t="s">
         <v>445</v>
       </c>
+      <c r="Q434"/>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A435">
@@ -17170,6 +17524,12 @@
       <c r="H435" t="s">
         <v>20</v>
       </c>
+      <c r="J435" t="s">
+        <v>697</v>
+      </c>
+      <c r="L435" t="s">
+        <v>697</v>
+      </c>
       <c r="Q435" t="s">
         <v>105</v>
       </c>
@@ -17202,6 +17562,7 @@
       <c r="J436" t="s">
         <v>21</v>
       </c>
+      <c r="Q436"/>
       <c r="R436" t="s">
         <v>516</v>
       </c>
@@ -17234,6 +17595,7 @@
       <c r="N437" t="s">
         <v>424</v>
       </c>
+      <c r="Q437"/>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A438">
@@ -17260,6 +17622,7 @@
       <c r="J438" t="s">
         <v>21</v>
       </c>
+      <c r="Q438"/>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A439">
@@ -17356,6 +17719,7 @@
       <c r="J441" t="s">
         <v>21</v>
       </c>
+      <c r="Q441"/>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A442">
@@ -17522,6 +17886,7 @@
       <c r="J446" t="s">
         <v>21</v>
       </c>
+      <c r="Q446"/>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A447">
@@ -17688,6 +18053,7 @@
       <c r="J451" t="s">
         <v>21</v>
       </c>
+      <c r="Q451"/>
       <c r="R451" t="s">
         <v>605</v>
       </c>
@@ -17924,6 +18290,7 @@
       <c r="J458" t="s">
         <v>21</v>
       </c>
+      <c r="Q458"/>
       <c r="R458" t="s">
         <v>94</v>
       </c>
@@ -18009,7 +18376,7 @@
         <v>93</v>
       </c>
       <c r="E461" t="s">
-        <v>23</v>
+        <v>685</v>
       </c>
       <c r="F461">
         <v>3</v>
@@ -18021,7 +18388,10 @@
         <v>20</v>
       </c>
       <c r="J461" t="s">
-        <v>348</v>
+        <v>38</v>
+      </c>
+      <c r="N461" t="s">
+        <v>676</v>
       </c>
       <c r="Q461" t="s">
         <v>107</v>
@@ -18055,6 +18425,7 @@
       <c r="J462" t="s">
         <v>21</v>
       </c>
+      <c r="Q462"/>
       <c r="R462" t="s">
         <v>644</v>
       </c>
@@ -18245,7 +18616,7 @@
         <v>103</v>
       </c>
       <c r="E468" t="s">
-        <v>23</v>
+        <v>685</v>
       </c>
       <c r="F468">
         <v>1</v>
@@ -18257,7 +18628,10 @@
         <v>20</v>
       </c>
       <c r="J468" t="s">
-        <v>649</v>
+        <v>38</v>
+      </c>
+      <c r="N468" t="s">
+        <v>676</v>
       </c>
       <c r="Q468" t="s">
         <v>107</v>
@@ -18361,6 +18735,7 @@
       <c r="J471" t="s">
         <v>21</v>
       </c>
+      <c r="Q471"/>
       <c r="R471" t="s">
         <v>331</v>
       </c>
@@ -18705,6 +19080,7 @@
       <c r="J481" t="s">
         <v>21</v>
       </c>
+      <c r="Q481"/>
       <c r="R481" t="s">
         <v>634</v>
       </c>
@@ -18909,6 +19285,7 @@
       <c r="J487" t="s">
         <v>21</v>
       </c>
+      <c r="Q487"/>
       <c r="R487" t="s">
         <v>343</v>
       </c>
@@ -19005,6 +19382,7 @@
       <c r="J490" t="s">
         <v>21</v>
       </c>
+      <c r="Q490"/>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A491">
@@ -19101,7 +19479,10 @@
       <c r="J493" t="s">
         <v>593</v>
       </c>
-      <c r="Q493" t="s">
+      <c r="L493" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q493" s="2" t="s">
         <v>594</v>
       </c>
       <c r="R493" t="s">
@@ -19133,6 +19514,7 @@
       <c r="J494" t="s">
         <v>21</v>
       </c>
+      <c r="Q494"/>
       <c r="R494" t="s">
         <v>374</v>
       </c>
@@ -19165,6 +19547,7 @@
       <c r="N495" t="s">
         <v>375</v>
       </c>
+      <c r="Q495"/>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A496">
@@ -19296,6 +19679,7 @@
       <c r="J499" t="s">
         <v>21</v>
       </c>
+      <c r="Q499"/>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A500">
@@ -19357,6 +19741,7 @@
       <c r="N501" t="s">
         <v>659</v>
       </c>
+      <c r="Q501"/>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A502">
@@ -19383,6 +19768,7 @@
       <c r="J502" t="s">
         <v>657</v>
       </c>
+      <c r="Q502"/>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A503">
@@ -19505,6 +19891,7 @@
       <c r="J506" t="s">
         <v>21</v>
       </c>
+      <c r="Q506"/>
       <c r="R506" t="s">
         <v>404</v>
       </c>
@@ -19726,6 +20113,12 @@
       <c r="H513" t="s">
         <v>20</v>
       </c>
+      <c r="J513" t="s">
+        <v>697</v>
+      </c>
+      <c r="L513" t="s">
+        <v>697</v>
+      </c>
       <c r="Q513" t="s">
         <v>105</v>
       </c>
@@ -19758,6 +20151,7 @@
       <c r="J514" t="s">
         <v>21</v>
       </c>
+      <c r="Q514"/>
       <c r="R514" t="s">
         <v>404</v>
       </c>
@@ -19982,6 +20376,7 @@
       <c r="J521" t="s">
         <v>21</v>
       </c>
+      <c r="Q521"/>
       <c r="R521" t="s">
         <v>415</v>
       </c>
@@ -20043,6 +20438,7 @@
       <c r="N523" t="s">
         <v>409</v>
       </c>
+      <c r="Q523"/>
       <c r="R523" t="s">
         <v>418</v>
       </c>
@@ -20072,6 +20468,7 @@
       <c r="J524" t="s">
         <v>21</v>
       </c>
+      <c r="Q524"/>
       <c r="R524" t="s">
         <v>457</v>
       </c>
@@ -20381,6 +20778,7 @@
       <c r="J533" t="s">
         <v>21</v>
       </c>
+      <c r="Q533"/>
       <c r="R533" t="s">
         <v>457</v>
       </c>
@@ -20900,6 +21298,7 @@
       <c r="J548" t="s">
         <v>21</v>
       </c>
+      <c r="Q548"/>
       <c r="R548" t="s">
         <v>418</v>
       </c>
@@ -21057,6 +21456,7 @@
       <c r="J553" t="s">
         <v>21</v>
       </c>
+      <c r="Q553"/>
       <c r="R553" t="s">
         <v>562</v>
       </c>
@@ -21348,6 +21748,7 @@
       <c r="J562" t="s">
         <v>21</v>
       </c>
+      <c r="Q562"/>
       <c r="R562" t="s">
         <v>576</v>
       </c>
@@ -21450,6 +21851,7 @@
       <c r="N565" t="s">
         <v>394</v>
       </c>
+      <c r="Q565"/>
       <c r="R565" t="s">
         <v>581</v>
       </c>
@@ -21549,6 +21951,7 @@
       <c r="J568" t="s">
         <v>21</v>
       </c>
+      <c r="Q568"/>
       <c r="R568" t="s">
         <v>395</v>
       </c>
@@ -21581,6 +21984,7 @@
       <c r="N569" t="s">
         <v>397</v>
       </c>
+      <c r="Q569"/>
       <c r="R569" t="s">
         <v>395</v>
       </c>
@@ -21610,6 +22014,7 @@
       <c r="N570" t="s">
         <v>398</v>
       </c>
+      <c r="Q570"/>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A571">
@@ -21636,6 +22041,7 @@
       <c r="J571" t="s">
         <v>21</v>
       </c>
+      <c r="Q571"/>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A572">
@@ -21732,6 +22138,7 @@
       <c r="J574" t="s">
         <v>21</v>
       </c>
+      <c r="Q574"/>
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A575">
@@ -21758,6 +22165,9 @@
       <c r="J575" t="s">
         <v>554</v>
       </c>
+      <c r="L575" t="s">
+        <v>699</v>
+      </c>
       <c r="Q575" t="s">
         <v>27</v>
       </c>
@@ -21790,6 +22200,12 @@
       <c r="J576" t="s">
         <v>556</v>
       </c>
+      <c r="L576" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q576" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="R576" t="s">
         <v>557</v>
       </c>
@@ -21819,6 +22235,9 @@
       <c r="J577" t="s">
         <v>558</v>
       </c>
+      <c r="L577" t="s">
+        <v>699</v>
+      </c>
       <c r="Q577" t="s">
         <v>27</v>
       </c>
@@ -21851,6 +22270,12 @@
       <c r="J578" t="s">
         <v>560</v>
       </c>
+      <c r="L578" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q578" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="R578" t="s">
         <v>561</v>
       </c>
@@ -21871,6 +22296,7 @@
       <c r="H579" t="s">
         <v>664</v>
       </c>
+      <c r="Q579"/>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A580">
@@ -21892,7 +22318,7 @@
         <v>686</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="Q580" t="s">
         <v>688</v>
@@ -21907,18 +22333,32 @@
     <sortCondition ref="A36:A45"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:R1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A1:R4 A582:R1048576 A581:K581 B579:R580 B578:K578 R578 R581 B5:R577 A5:A580">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>"ABIE"=$E1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>"IDBIE"=$E1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>"ASBIE"=$E1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>"RFBIE"=$E1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L578:Q578">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>"ABIE"=$E581</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>"IDBIE"=$E581</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>"ASBIE"=$E581</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>"RFBIE"=$E581</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852DEE9-8084-4053-8AEC-3869FCE9741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276ECD7-0F32-4F4A-9234-EEEBA72E0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="705">
   <si>
     <t>seq</t>
   </si>
@@ -2163,6 +2163,18 @@
   </si>
   <si>
     <t>xs:nonNegativeInteger minInclusive value="1970" maxInclusive value="2100"</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Debit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Associated</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3181,8 +3193,8 @@
   <dimension ref="A1:R580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A580"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H585" sqref="G585:H585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11268,7 +11280,7 @@
         <v>25</v>
       </c>
       <c r="J248" t="s">
-        <v>38</v>
+        <v>703</v>
       </c>
       <c r="N248" t="s">
         <v>676</v>
@@ -11303,7 +11315,7 @@
         <v>25</v>
       </c>
       <c r="J249" t="s">
-        <v>38</v>
+        <v>702</v>
       </c>
       <c r="N249" t="s">
         <v>107</v>
@@ -21979,7 +21991,7 @@
         <v>25</v>
       </c>
       <c r="J569" t="s">
-        <v>38</v>
+        <v>704</v>
       </c>
       <c r="N569" t="s">
         <v>397</v>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7D260-86FE-473E-B18D-6A33D9B83625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323B521-BCE8-4997-B3ED-CBA13D411F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3199,7 +3199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G589" sqref="G589"/>
+      <selection pane="bottomLeft" activeCell="D594" sqref="D594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
+++ b/data/SAF-T/SAF-T_Schema_v_2.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\SAF-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323B521-BCE8-4997-B3ED-CBA13D411F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95927609-48E6-4E0B-BD56-CE853772D8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="705">
   <si>
     <t>seq</t>
   </si>
@@ -2134,10 +2134,6 @@
   </si>
   <si>
     <t>Postal Code</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>any</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -3197,9 +3193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R580"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D594" sqref="D594"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4307,7 +4303,7 @@
         <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -4319,10 +4315,10 @@
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>694</v>
-      </c>
-      <c r="L35" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N35" t="s">
+        <v>104</v>
       </c>
       <c r="Q35" t="s">
         <v>118</v>
@@ -4677,7 +4673,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H46" t="s">
         <v>25</v>
@@ -4686,7 +4682,7 @@
         <v>38</v>
       </c>
       <c r="N46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q46"/>
     </row>
@@ -4707,7 +4703,7 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H47" t="s">
         <v>25</v>
@@ -4716,7 +4712,7 @@
         <v>38</v>
       </c>
       <c r="N47" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q47"/>
     </row>
@@ -4731,7 +4727,7 @@
         <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -4743,10 +4739,10 @@
         <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>694</v>
-      </c>
-      <c r="L48" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N48" t="s">
+        <v>104</v>
       </c>
       <c r="Q48" t="s">
         <v>105</v>
@@ -4763,7 +4759,7 @@
         <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -4772,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -4790,7 +4786,7 @@
         <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
@@ -4825,7 +4821,7 @@
         <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E51" t="s">
         <v>23</v>
@@ -4860,7 +4856,7 @@
         <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
@@ -4869,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
@@ -4887,7 +4883,7 @@
         <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E53" t="s">
         <v>23</v>
@@ -4922,7 +4918,7 @@
         <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E54" t="s">
         <v>23</v>
@@ -5504,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
@@ -5513,7 +5509,7 @@
         <v>38</v>
       </c>
       <c r="N72" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q72"/>
     </row>
@@ -5534,7 +5530,7 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H73" t="s">
         <v>25</v>
@@ -5543,7 +5539,7 @@
         <v>38</v>
       </c>
       <c r="N73" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q73"/>
     </row>
@@ -5558,7 +5554,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F74">
         <v>7</v>
@@ -5570,10 +5566,10 @@
         <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>694</v>
-      </c>
-      <c r="L74" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N74" t="s">
+        <v>104</v>
       </c>
       <c r="Q74" t="s">
         <v>105</v>
@@ -5821,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H82" t="s">
         <v>25</v>
@@ -5830,7 +5826,7 @@
         <v>38</v>
       </c>
       <c r="N82" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q82"/>
     </row>
@@ -5851,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
@@ -5860,7 +5856,7 @@
         <v>38</v>
       </c>
       <c r="N83" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q83"/>
     </row>
@@ -5875,7 +5871,7 @@
         <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F84">
         <v>7</v>
@@ -5887,10 +5883,10 @@
         <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>694</v>
-      </c>
-      <c r="L84" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N84" t="s">
+        <v>104</v>
       </c>
       <c r="Q84" t="s">
         <v>105</v>
@@ -6388,7 +6384,7 @@
         <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>682</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -6400,10 +6396,13 @@
         <v>25</v>
       </c>
       <c r="J100" t="s">
-        <v>38</v>
+        <v>177</v>
+      </c>
+      <c r="L100" t="s">
+        <v>177</v>
       </c>
       <c r="N100" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="Q100" t="s">
         <v>107</v>
@@ -7394,7 +7393,7 @@
         <v>217</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F131">
         <v>11</v>
@@ -7406,10 +7405,10 @@
         <v>20</v>
       </c>
       <c r="J131" t="s">
-        <v>694</v>
-      </c>
-      <c r="L131" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N131" t="s">
+        <v>104</v>
       </c>
       <c r="Q131" t="s">
         <v>105</v>
@@ -8286,7 +8285,7 @@
         <v>211</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F158">
         <v>17</v>
@@ -8298,10 +8297,10 @@
         <v>20</v>
       </c>
       <c r="J158" t="s">
-        <v>694</v>
-      </c>
-      <c r="L158" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N158" t="s">
+        <v>104</v>
       </c>
       <c r="Q158" t="s">
         <v>105</v>
@@ -9062,7 +9061,7 @@
         <v>145</v>
       </c>
       <c r="E182" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F182">
         <v>9</v>
@@ -9074,10 +9073,10 @@
         <v>20</v>
       </c>
       <c r="J182" t="s">
-        <v>694</v>
-      </c>
-      <c r="L182" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N182" t="s">
+        <v>104</v>
       </c>
       <c r="Q182" t="s">
         <v>105</v>
@@ -10392,7 +10391,7 @@
         <v>54</v>
       </c>
       <c r="L222" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q222" t="s">
         <v>27</v>
@@ -10427,10 +10426,10 @@
         <v>56</v>
       </c>
       <c r="L223" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R223" t="s">
         <v>57</v>
@@ -11211,7 +11210,7 @@
         <v>85</v>
       </c>
       <c r="E246" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F246">
         <v>11</v>
@@ -11223,10 +11222,10 @@
         <v>20</v>
       </c>
       <c r="J246" t="s">
-        <v>694</v>
-      </c>
-      <c r="L246" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N246" t="s">
+        <v>104</v>
       </c>
       <c r="Q246" t="s">
         <v>105</v>
@@ -11285,7 +11284,7 @@
         <v>25</v>
       </c>
       <c r="J248" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N248" t="s">
         <v>673</v>
@@ -11320,7 +11319,7 @@
         <v>25</v>
       </c>
       <c r="J249" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N249" t="s">
         <v>107</v>
@@ -11385,7 +11384,7 @@
         <v>24</v>
       </c>
       <c r="L251" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q251" t="s">
         <v>27</v>
@@ -11549,7 +11548,7 @@
         <v>24</v>
       </c>
       <c r="L256" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q256" t="s">
         <v>27</v>
@@ -11713,7 +11712,7 @@
         <v>24</v>
       </c>
       <c r="L261" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q261" t="s">
         <v>27</v>
@@ -11910,7 +11909,7 @@
         <v>54</v>
       </c>
       <c r="L267" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q267" t="s">
         <v>27</v>
@@ -11945,10 +11944,10 @@
         <v>56</v>
       </c>
       <c r="L268" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q268" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R268" t="s">
         <v>57</v>
@@ -12303,7 +12302,7 @@
         <v>534</v>
       </c>
       <c r="E279" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F279">
         <v>14</v>
@@ -12315,10 +12314,10 @@
         <v>20</v>
       </c>
       <c r="J279" t="s">
-        <v>694</v>
-      </c>
-      <c r="L279" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N279" t="s">
+        <v>104</v>
       </c>
       <c r="Q279" t="s">
         <v>105</v>
@@ -12669,7 +12668,7 @@
         <v>517</v>
       </c>
       <c r="L289" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R289" t="s">
         <v>518</v>
@@ -12753,7 +12752,7 @@
         <v>540</v>
       </c>
       <c r="E292" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F292">
         <v>12</v>
@@ -12765,10 +12764,10 @@
         <v>20</v>
       </c>
       <c r="J292" t="s">
-        <v>694</v>
-      </c>
-      <c r="L292" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N292" t="s">
+        <v>104</v>
       </c>
       <c r="Q292" t="s">
         <v>105</v>
@@ -13129,7 +13128,7 @@
         <v>523</v>
       </c>
       <c r="L303" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q303" t="s">
         <v>27</v>
@@ -13619,7 +13618,7 @@
         <v>529</v>
       </c>
       <c r="E318" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F318">
         <v>11</v>
@@ -13631,10 +13630,10 @@
         <v>20</v>
       </c>
       <c r="J318" t="s">
-        <v>694</v>
-      </c>
-      <c r="L318" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N318" t="s">
+        <v>104</v>
       </c>
       <c r="Q318" t="s">
         <v>105</v>
@@ -14394,7 +14393,7 @@
         <v>619</v>
       </c>
       <c r="E340" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F340">
         <v>17</v>
@@ -14406,10 +14405,10 @@
         <v>20</v>
       </c>
       <c r="J340" t="s">
-        <v>694</v>
-      </c>
-      <c r="L340" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N340" t="s">
+        <v>104</v>
       </c>
       <c r="Q340" t="s">
         <v>105</v>
@@ -14474,7 +14473,7 @@
         <v>38</v>
       </c>
       <c r="L342" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q342" t="s">
         <v>27</v>
@@ -14833,7 +14832,7 @@
         <v>347</v>
       </c>
       <c r="E353" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F353">
         <v>12</v>
@@ -14845,10 +14844,10 @@
         <v>20</v>
       </c>
       <c r="J353" t="s">
-        <v>694</v>
-      </c>
-      <c r="L353" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N353" t="s">
+        <v>104</v>
       </c>
       <c r="Q353" t="s">
         <v>105</v>
@@ -15095,7 +15094,7 @@
         <v>363</v>
       </c>
       <c r="E361" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F361">
         <v>5</v>
@@ -15107,10 +15106,10 @@
         <v>20</v>
       </c>
       <c r="J361" t="s">
-        <v>694</v>
-      </c>
-      <c r="L361" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N361" t="s">
+        <v>104</v>
       </c>
       <c r="Q361" t="s">
         <v>105</v>
@@ -15766,7 +15765,7 @@
         <v>54</v>
       </c>
       <c r="L382" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q382" t="s">
         <v>27</v>
@@ -15801,10 +15800,10 @@
         <v>56</v>
       </c>
       <c r="L383" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q383" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R383" t="s">
         <v>57</v>
@@ -16268,7 +16267,7 @@
         <v>476</v>
       </c>
       <c r="E397" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F397">
         <v>20</v>
@@ -16280,10 +16279,10 @@
         <v>20</v>
       </c>
       <c r="J397" t="s">
-        <v>694</v>
-      </c>
-      <c r="L397" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N397" t="s">
+        <v>104</v>
       </c>
       <c r="Q397" t="s">
         <v>105</v>
@@ -17386,7 +17385,7 @@
         <v>517</v>
       </c>
       <c r="L430" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R430" t="s">
         <v>518</v>
@@ -17530,7 +17529,7 @@
         <v>496</v>
       </c>
       <c r="E435" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F435">
         <v>14</v>
@@ -17542,10 +17541,10 @@
         <v>20</v>
       </c>
       <c r="J435" t="s">
-        <v>694</v>
-      </c>
-      <c r="L435" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N435" t="s">
+        <v>104</v>
       </c>
       <c r="Q435" t="s">
         <v>105</v>
@@ -19497,7 +19496,7 @@
         <v>590</v>
       </c>
       <c r="L493" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q493" s="2" t="s">
         <v>591</v>
@@ -20119,7 +20118,7 @@
         <v>78</v>
       </c>
       <c r="E513" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F513">
         <v>1</v>
@@ -20131,10 +20130,10 @@
         <v>20</v>
       </c>
       <c r="J513" t="s">
-        <v>694</v>
-      </c>
-      <c r="L513" t="s">
-        <v>694</v>
+        <v>38</v>
+      </c>
+      <c r="N513" t="s">
+        <v>104</v>
       </c>
       <c r="Q513" t="s">
         <v>105</v>
@@ -21996,7 +21995,7 @@
         <v>25</v>
       </c>
       <c r="J569" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N569" t="s">
         <v>394</v>
@@ -22183,7 +22182,7 @@
         <v>551</v>
       </c>
       <c r="L575" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q575" t="s">
         <v>27</v>
@@ -22218,10 +22217,10 @@
         <v>553</v>
       </c>
       <c r="L576" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q576" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R576" t="s">
         <v>554</v>
@@ -22253,7 +22252,7 @@
         <v>555</v>
       </c>
       <c r="L577" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q577" t="s">
         <v>27</v>
@@ -22288,10 +22287,10 @@
         <v>557</v>
       </c>
       <c r="L578" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q578" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R578" t="s">
         <v>558</v>
@@ -22335,7 +22334,7 @@
         <v>683</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q580" t="s">
         <v>685</v>
@@ -22350,7 +22349,7 @@
     <sortCondition ref="A36:A45"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A581:K581 B579:R580 B578:K578 R578 R581 A1:R51 A582:R1048576 A52:A580 B52:R577">
+  <conditionalFormatting sqref="A581:K581 B579:R580 B578:K578 R578 R581 A582:R1048576 A52:A580 A1:R51 B52:R577">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>"ABIE"=$E1</formula>
     </cfRule>
